--- a/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
+++ b/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Python\Python\Projects\Automate_Python\Report_Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DEE995-11D1-4C82-8592-6F255D7183BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994798A8-7BA4-4A14-8C31-467FCEA3A21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Net Salary" sheetId="8" r:id="rId1"/>
     <sheet name="Expenses" sheetId="1" r:id="rId2"/>
-    <sheet name="Resume" sheetId="2" r:id="rId3"/>
+    <sheet name="Resume" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Report" sheetId="11" r:id="rId4"/>
     <sheet name="Annual Result" sheetId="9" state="hidden" r:id="rId5"/>
   </sheets>
@@ -45,9 +45,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -58,40 +57,16 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>Total</t>
   </si>
@@ -118,42 +93,6 @@
   </si>
   <si>
     <t>Invest. 1</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>Febuary</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
   </si>
   <si>
     <t>Incm.</t>
@@ -721,7 +660,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -870,9 +809,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -883,16 +819,12 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -907,12 +839,10 @@
     <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1024,18 +954,18 @@
     <xf numFmtId="44" fontId="9" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1051,6 +981,21 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1211,7 +1156,7 @@
                   <c:v>Healthcare</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Despesas Gerais</c:v>
+                  <c:v>General Expenses</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1220,10 +1165,31 @@
             <c:numRef>
               <c:f>Report!$F$4:$F$18</c:f>
               <c:numCache>
-                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1336,7 +1302,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1541,13 +1507,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Agosto</c:v>
+                  <c:v>Setembro</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Setembro</c:v>
+                  <c:v>Outubro</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Outubro</c:v>
+                  <c:v>Novembro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1556,16 +1522,16 @@
             <c:numRef>
               <c:f>Report!$I$4:$I$6</c:f>
               <c:numCache>
-                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>1135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>1125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>1125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,13 +1648,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Agosto</c:v>
+                  <c:v>Setembro</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Setembro</c:v>
+                  <c:v>Outubro</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Outubro</c:v>
+                  <c:v>Novembro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1697,16 +1663,16 @@
             <c:numRef>
               <c:f>Report!$I$9:$I$11</c:f>
               <c:numCache>
-                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1804,7 +1770,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1917,17 +1883,15 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="10"/>
-      <c:rotY val="0"/>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
       <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
+      <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1967,28 +1931,24 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:pattFill prst="ltDnDiag">
-              <a:fgClr>
-                <a:schemeClr val="accent1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="0"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d>
-              <a:contourClr>
-                <a:schemeClr val="accent1"/>
-              </a:contourClr>
-            </a:sp3d>
+            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2128,7 +2088,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="160"/>
+        <c:gapWidth val="150"/>
         <c:gapDepth val="0"/>
         <c:shape val="box"/>
         <c:axId val="679946559"/>
@@ -2187,6 +2147,20 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3827,523 +3801,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="287">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr/>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:sp3d/>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="293">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4896,6 +4353,559 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="293">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4903,13 +4913,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>442385</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>10289</xdr:rowOff>
+      <xdr:rowOff>38288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174897</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>746911</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4937,15 +4947,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>443300</xdr:colOff>
+      <xdr:colOff>440572</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9529</xdr:rowOff>
+      <xdr:rowOff>15340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>745263</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>3356</xdr:rowOff>
+      <xdr:rowOff>9167</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5048,72 +5058,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <rv s="0">
-    <v>13</v>
-    <v>3</v>
-  </rv>
-  <rv s="1">
-    <v>13</v>
-    <v>1</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="propagated" t="b"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5410,7 +5354,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -5425,455 +5369,467 @@
   <sheetData>
     <row r="2" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="29"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="28" t="str">
+        <f>PROPER(TEXT("01/01","MMMM"))</f>
+        <v>Janeiro</v>
+      </c>
+      <c r="D2" s="28" t="str">
+        <f>PROPER(TEXT("01/02","MMMM"))</f>
+        <v>Fevereiro</v>
+      </c>
+      <c r="E2" s="28" t="str">
+        <f>PROPER(TEXT("01/03","MMMM"))</f>
+        <v>Março</v>
+      </c>
+      <c r="F2" s="28" t="str">
+        <f>PROPER(TEXT("01/04","MMMM"))</f>
+        <v>Abril</v>
+      </c>
+      <c r="G2" s="28" t="str">
+        <f>PROPER(TEXT("01/05","MMMM"))</f>
+        <v>Maio</v>
+      </c>
+      <c r="H2" s="28" t="str">
+        <f>PROPER(TEXT("01/06","MMMM"))</f>
+        <v>Junho</v>
+      </c>
+      <c r="I2" s="28" t="str">
+        <f>PROPER(TEXT("01/07","MMMM"))</f>
+        <v>Julho</v>
+      </c>
+      <c r="J2" s="28" t="str">
+        <f>PROPER(TEXT("01/08","MMMM"))</f>
+        <v>Agosto</v>
+      </c>
+      <c r="K2" s="28" t="str">
+        <f>PROPER(TEXT("01/09","MMMM"))</f>
+        <v>Setembro</v>
+      </c>
+      <c r="L2" s="28" t="str">
+        <f>PROPER(TEXT("01/10","MMMM"))</f>
+        <v>Outubro</v>
+      </c>
+      <c r="M2" s="28" t="str">
+        <f>PROPER(TEXT("01/11","MMMM"))</f>
+        <v>Novembro</v>
+      </c>
+      <c r="N2" s="28" t="str">
+        <f>PROPER(TEXT("01/12","MMMM"))</f>
+        <v>Dezembro</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="28" t="s">
+      <c r="C3" s="89">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="89">
+        <v>1200</v>
+      </c>
+      <c r="E3" s="89">
+        <v>1200</v>
+      </c>
+      <c r="F3" s="89">
+        <v>1200</v>
+      </c>
+      <c r="G3" s="89">
+        <v>1200</v>
+      </c>
+      <c r="H3" s="89">
+        <v>1200</v>
+      </c>
+      <c r="I3" s="89">
+        <v>1200</v>
+      </c>
+      <c r="J3" s="89">
+        <v>1200</v>
+      </c>
+      <c r="K3" s="89">
+        <v>1200</v>
+      </c>
+      <c r="L3" s="89">
+        <v>1200</v>
+      </c>
+      <c r="M3" s="89">
+        <v>1200</v>
+      </c>
+      <c r="N3" s="89">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="112"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="112"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="112"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="112"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="113"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="81"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="115"/>
+      <c r="C10" s="83">
+        <v>50</v>
+      </c>
+      <c r="D10" s="83">
+        <v>60</v>
+      </c>
+      <c r="E10" s="83">
+        <v>50</v>
+      </c>
+      <c r="F10" s="83">
+        <v>30</v>
+      </c>
+      <c r="G10" s="83">
+        <v>50</v>
+      </c>
+      <c r="H10" s="83">
+        <v>30</v>
+      </c>
+      <c r="I10" s="83">
+        <v>100</v>
+      </c>
+      <c r="J10" s="83">
+        <v>30</v>
+      </c>
+      <c r="K10" s="83">
+        <v>10</v>
+      </c>
+      <c r="L10" s="83">
+        <v>50</v>
+      </c>
+      <c r="M10" s="83">
+        <v>50</v>
+      </c>
+      <c r="N10" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="117"/>
+      <c r="C11" s="83">
+        <v>0</v>
+      </c>
+      <c r="D11" s="83">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="94">
-        <v>1200</v>
-      </c>
-      <c r="D3" s="94">
-        <v>1200</v>
-      </c>
-      <c r="E3" s="94">
-        <v>1200</v>
-      </c>
-      <c r="F3" s="94">
-        <v>1200</v>
-      </c>
-      <c r="G3" s="94">
-        <v>1200</v>
-      </c>
-      <c r="H3" s="94">
-        <v>1200</v>
-      </c>
-      <c r="I3" s="94">
-        <v>1200</v>
-      </c>
-      <c r="J3" s="94">
-        <v>1200</v>
-      </c>
-      <c r="K3" s="94">
-        <v>1200</v>
-      </c>
-      <c r="L3" s="94">
-        <v>1200</v>
-      </c>
-      <c r="M3" s="94">
-        <v>1200</v>
-      </c>
-      <c r="N3" s="94">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="117"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-    </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="117"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-    </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="117"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-    </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="117"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-    </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="118"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="86"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-    </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="88">
+      <c r="E11" s="83">
+        <v>30</v>
+      </c>
+      <c r="F11" s="83">
         <v>50</v>
       </c>
-      <c r="D10" s="88">
-        <v>60</v>
-      </c>
-      <c r="E10" s="88">
+      <c r="G11" s="83">
+        <v>30</v>
+      </c>
+      <c r="H11" s="83">
+        <v>30</v>
+      </c>
+      <c r="I11" s="83">
         <v>50</v>
       </c>
-      <c r="F10" s="88">
-        <v>30</v>
-      </c>
-      <c r="G10" s="88">
-        <v>50</v>
-      </c>
-      <c r="H10" s="88">
-        <v>30</v>
-      </c>
-      <c r="I10" s="88">
+      <c r="J11" s="83">
         <v>100</v>
       </c>
-      <c r="J10" s="88">
-        <v>30</v>
-      </c>
-      <c r="K10" s="88">
+      <c r="K11" s="83">
+        <v>40</v>
+      </c>
+      <c r="L11" s="83">
         <v>10</v>
       </c>
-      <c r="L10" s="88">
-        <v>50</v>
-      </c>
-      <c r="M10" s="88">
-        <v>50</v>
-      </c>
-      <c r="N10" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="88">
-        <v>0</v>
-      </c>
-      <c r="D11" s="88">
-        <v>20</v>
-      </c>
-      <c r="E11" s="88">
-        <v>30</v>
-      </c>
-      <c r="F11" s="88">
-        <v>50</v>
-      </c>
-      <c r="G11" s="88">
-        <v>30</v>
-      </c>
-      <c r="H11" s="88">
-        <v>30</v>
-      </c>
-      <c r="I11" s="88">
-        <v>50</v>
-      </c>
-      <c r="J11" s="88">
-        <v>100</v>
-      </c>
-      <c r="K11" s="88">
-        <v>40</v>
-      </c>
-      <c r="L11" s="88">
+      <c r="M11" s="83">
         <v>10</v>
       </c>
-      <c r="M11" s="88">
-        <v>10</v>
-      </c>
-      <c r="N11" s="88">
+      <c r="N11" s="83">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="125" t="s">
-        <v>24</v>
+      <c r="A13" s="120" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="94">
+        <v>13</v>
+      </c>
+      <c r="C13" s="89">
         <v>15</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="89">
         <v>15</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="89">
         <v>15</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="89">
         <v>15</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="89">
         <v>15</v>
       </c>
-      <c r="H13" s="94">
+      <c r="H13" s="89">
         <v>15</v>
       </c>
-      <c r="I13" s="94">
+      <c r="I13" s="89">
         <v>15</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="89">
         <v>15</v>
       </c>
-      <c r="K13" s="94">
+      <c r="K13" s="89">
         <v>15</v>
       </c>
-      <c r="L13" s="94">
+      <c r="L13" s="89">
         <v>15</v>
       </c>
-      <c r="M13" s="94">
+      <c r="M13" s="89">
         <v>15</v>
       </c>
-      <c r="N13" s="94">
+      <c r="N13" s="89">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="126"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="126"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
+      <c r="A15" s="121"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="126"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="127"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="86"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
     </row>
     <row r="19" spans="1:14" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="88">
+      <c r="B19" s="119"/>
+      <c r="C19" s="83">
         <f>SUM(C3:C8)-SUM(C10:C11)-SUM(C13:C17)</f>
         <v>1135</v>
       </c>
-      <c r="D19" s="88">
+      <c r="D19" s="83">
         <f t="shared" ref="D19:M19" si="0">SUM(D3:D8)-SUM(D10:D11)-SUM(D13:D17)</f>
         <v>1105</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="83">
         <f t="shared" si="0"/>
         <v>1105</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="83">
         <f>SUM(F3:F8)-SUM(F10:F11)-SUM(F13:F17)</f>
         <v>1105</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="83">
         <f t="shared" si="0"/>
         <v>1105</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="83">
         <f>SUM(H3:H8)-SUM(H10:H11)-SUM(H13:H17)</f>
         <v>1125</v>
       </c>
-      <c r="I19" s="88">
+      <c r="I19" s="83">
         <f t="shared" si="0"/>
         <v>1035</v>
       </c>
-      <c r="J19" s="88">
+      <c r="J19" s="83">
         <f t="shared" si="0"/>
         <v>1055</v>
       </c>
-      <c r="K19" s="88">
+      <c r="K19" s="83">
         <f t="shared" si="0"/>
         <v>1135</v>
       </c>
-      <c r="L19" s="88">
+      <c r="L19" s="83">
         <f t="shared" si="0"/>
         <v>1125</v>
       </c>
-      <c r="M19" s="88">
+      <c r="M19" s="83">
         <f t="shared" si="0"/>
         <v>1125</v>
       </c>
-      <c r="N19" s="88">
+      <c r="N19" s="83">
         <f>SUM(N3:N8)-SUM(N10:N11)-SUM(N13:N17)</f>
         <v>1175</v>
       </c>
@@ -5914,7 +5870,7 @@
   </sheetPr>
   <dimension ref="A2:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="C16" sqref="C16"/>
@@ -5954,199 +5910,211 @@
     <col min="42" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="61"/>
-      <c r="D2" s="62" t="s">
-        <v>9</v>
+      <c r="D2" s="132" t="str">
+        <f>PROPER(TEXT("01/01","MMMM"))</f>
+        <v>Janeiro</v>
       </c>
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
-      <c r="G2" s="59" t="s">
-        <v>10</v>
+      <c r="G2" s="133" t="str">
+        <f>PROPER(TEXT("1/02","MMMM"))</f>
+        <v>Fevereiro</v>
       </c>
       <c r="H2" s="60"/>
       <c r="I2" s="60"/>
-      <c r="J2" s="62" t="s">
-        <v>11</v>
+      <c r="J2" s="134" t="str">
+        <f>PROPER(TEXT("1/03","MMMM"))</f>
+        <v>Março</v>
       </c>
       <c r="K2" s="60"/>
       <c r="L2" s="60"/>
-      <c r="M2" s="59" t="s">
-        <v>12</v>
+      <c r="M2" s="133" t="str">
+        <f>PROPER(TEXT("1/04","MMMM"))</f>
+        <v>Abril</v>
       </c>
       <c r="N2" s="60"/>
       <c r="O2" s="60"/>
-      <c r="P2" s="62" t="s">
-        <v>13</v>
+      <c r="P2" s="134" t="str">
+        <f>PROPER(TEXT("1/05","MMMM"))</f>
+        <v>Maio</v>
       </c>
       <c r="Q2" s="60"/>
       <c r="R2" s="60"/>
-      <c r="S2" s="59" t="s">
-        <v>14</v>
+      <c r="S2" s="133" t="str">
+        <f>PROPER(TEXT("1/06","MMMM"))</f>
+        <v>Junho</v>
       </c>
       <c r="T2" s="60"/>
       <c r="U2" s="60"/>
-      <c r="V2" s="62" t="s">
-        <v>15</v>
+      <c r="V2" s="134" t="str">
+        <f>PROPER(TEXT("1/07","MMMM"))</f>
+        <v>Julho</v>
       </c>
       <c r="W2" s="60"/>
       <c r="X2" s="60"/>
-      <c r="Y2" s="59" t="s">
-        <v>16</v>
+      <c r="Y2" s="133" t="str">
+        <f>PROPER(TEXT("1/08","MMMM"))</f>
+        <v>Agosto</v>
       </c>
       <c r="Z2" s="60"/>
       <c r="AA2" s="60"/>
-      <c r="AB2" s="62" t="s">
-        <v>17</v>
+      <c r="AB2" s="134" t="str">
+        <f>PROPER(TEXT("1/09","MMMM"))</f>
+        <v>Setembro</v>
       </c>
       <c r="AC2" s="60"/>
       <c r="AD2" s="60"/>
-      <c r="AE2" s="59" t="s">
-        <v>18</v>
+      <c r="AE2" s="133" t="str">
+        <f>PROPER(TEXT("1/10","MMMM"))</f>
+        <v>Outubro</v>
       </c>
       <c r="AF2" s="60"/>
       <c r="AG2" s="60"/>
-      <c r="AH2" s="62" t="s">
-        <v>19</v>
+      <c r="AH2" s="134" t="str">
+        <f>PROPER(TEXT("1/11","MMMM"))</f>
+        <v>Novembro</v>
       </c>
       <c r="AI2" s="60"/>
       <c r="AJ2" s="60"/>
-      <c r="AK2" s="59" t="s">
-        <v>20</v>
+      <c r="AK2" s="133" t="str">
+        <f>PROPER(TEXT("1/12","MMMM"))</f>
+        <v>Dezembro</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="45"/>
-      <c r="D3" s="91">
+      <c r="D3" s="86">
         <f>'Net Salary'!C19</f>
         <v>1135</v>
       </c>
       <c r="F3" s="45"/>
-      <c r="G3" s="91">
+      <c r="G3" s="86">
         <f>'Net Salary'!D19</f>
         <v>1105</v>
       </c>
       <c r="I3" s="45"/>
-      <c r="J3" s="91">
+      <c r="J3" s="86">
         <f>'Net Salary'!E19</f>
         <v>1105</v>
       </c>
       <c r="L3" s="45"/>
-      <c r="M3" s="91">
+      <c r="M3" s="86">
         <f>'Net Salary'!F19</f>
         <v>1105</v>
       </c>
       <c r="O3" s="45"/>
-      <c r="P3" s="91">
+      <c r="P3" s="86">
         <f>'Net Salary'!G19</f>
         <v>1105</v>
       </c>
       <c r="R3" s="45"/>
-      <c r="S3" s="91">
+      <c r="S3" s="86">
         <f>'Net Salary'!H19</f>
         <v>1125</v>
       </c>
       <c r="U3" s="45"/>
-      <c r="V3" s="91">
+      <c r="V3" s="86">
         <f>'Net Salary'!I19</f>
         <v>1035</v>
       </c>
       <c r="X3" s="45"/>
-      <c r="Y3" s="91">
+      <c r="Y3" s="86">
         <f>'Net Salary'!J19</f>
         <v>1055</v>
       </c>
       <c r="AA3" s="45"/>
-      <c r="AB3" s="91">
+      <c r="AB3" s="86">
         <f>'Net Salary'!K19</f>
         <v>1135</v>
       </c>
       <c r="AD3" s="45"/>
-      <c r="AE3" s="91">
+      <c r="AE3" s="86">
         <f>'Net Salary'!L19</f>
         <v>1125</v>
       </c>
       <c r="AG3" s="45"/>
-      <c r="AH3" s="91">
+      <c r="AH3" s="86">
         <f>'Net Salary'!M19</f>
         <v>1125</v>
       </c>
       <c r="AJ3" s="45"/>
-      <c r="AK3" s="91">
+      <c r="AK3" s="86">
         <f>'Net Salary'!N19</f>
         <v>1175</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B4" s="46"/>
-      <c r="D4" s="92">
+      <c r="D4" s="87">
         <f>D3-(SUM(D7:D20))</f>
         <v>560</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="92">
+      <c r="G4" s="87">
         <f>G3-(SUM(G7:G20))+D4</f>
         <v>750</v>
       </c>
       <c r="H4" s="47"/>
-      <c r="J4" s="92">
+      <c r="J4" s="87">
         <f>J3-(SUM(J7:J20))+G4</f>
         <v>1340</v>
       </c>
       <c r="K4" s="47"/>
-      <c r="M4" s="92">
+      <c r="M4" s="87">
         <f>M3-(SUM(M7:M20))+J4</f>
         <v>1545</v>
       </c>
       <c r="N4" s="47"/>
-      <c r="P4" s="92">
+      <c r="P4" s="87">
         <f>P3-(SUM(P7:P20))+M4</f>
         <v>2135</v>
       </c>
       <c r="Q4" s="47"/>
-      <c r="S4" s="92">
+      <c r="S4" s="87">
         <f>S3-(SUM(S7:S20))+P4</f>
         <v>2345</v>
       </c>
       <c r="T4" s="47"/>
-      <c r="V4" s="92">
+      <c r="V4" s="87">
         <f>V3-(SUM(V7:V20))+S4</f>
         <v>2805</v>
       </c>
       <c r="W4" s="47"/>
-      <c r="Y4" s="92">
+      <c r="Y4" s="87">
         <f>Y3-(SUM(Y7:Y20))+V4</f>
         <v>2935</v>
       </c>
       <c r="Z4" s="47"/>
-      <c r="AB4" s="92">
+      <c r="AB4" s="87">
         <f>AB3-(SUM(AB7:AB20))+Y4</f>
         <v>3570</v>
       </c>
       <c r="AC4" s="47"/>
-      <c r="AE4" s="92">
+      <c r="AE4" s="87">
         <f>AE3-(SUM(AE7:AE20))+AB4</f>
         <v>3795</v>
       </c>
       <c r="AF4" s="47"/>
-      <c r="AH4" s="92">
+      <c r="AH4" s="87">
         <f>AH3-(SUM(AH7:AH20))+AE4</f>
         <v>4420</v>
       </c>
       <c r="AI4" s="47"/>
-      <c r="AK4" s="92">
+      <c r="AK4" s="87">
         <f>AK3-SUM(AK7:AK20)+AH4</f>
         <v>4695</v>
       </c>
@@ -6191,15 +6159,15 @@
       <c r="AK5" s="46"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="128" t="s">
-        <v>29</v>
+      <c r="A6" s="125" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="53" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="55" t="s">
@@ -6280,12 +6248,12 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="49"/>
       <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="91">
+        <v>19</v>
+      </c>
+      <c r="D7" s="86">
         <v>50</v>
       </c>
       <c r="E7" s="43"/>
@@ -6293,7 +6261,7 @@
         <f>C7</f>
         <v>Bills</v>
       </c>
-      <c r="G7" s="93">
+      <c r="G7" s="88">
         <v>200</v>
       </c>
       <c r="H7" s="43"/>
@@ -6301,7 +6269,7 @@
         <f>C7</f>
         <v>Bills</v>
       </c>
-      <c r="J7" s="91">
+      <c r="J7" s="86">
         <v>50</v>
       </c>
       <c r="K7" s="43"/>
@@ -6309,7 +6277,7 @@
         <f>C7</f>
         <v>Bills</v>
       </c>
-      <c r="M7" s="93">
+      <c r="M7" s="88">
         <v>200</v>
       </c>
       <c r="N7" s="43"/>
@@ -6317,7 +6285,7 @@
         <f>C7</f>
         <v>Bills</v>
       </c>
-      <c r="P7" s="91">
+      <c r="P7" s="86">
         <v>50</v>
       </c>
       <c r="Q7" s="43"/>
@@ -6325,7 +6293,7 @@
         <f>C7</f>
         <v>Bills</v>
       </c>
-      <c r="S7" s="93">
+      <c r="S7" s="88">
         <v>200</v>
       </c>
       <c r="T7" s="43"/>
@@ -6333,7 +6301,7 @@
         <f>C7</f>
         <v>Bills</v>
       </c>
-      <c r="V7" s="91">
+      <c r="V7" s="86">
         <v>50</v>
       </c>
       <c r="W7" s="43"/>
@@ -6341,7 +6309,7 @@
         <f>C7</f>
         <v>Bills</v>
       </c>
-      <c r="Y7" s="93">
+      <c r="Y7" s="88">
         <v>200</v>
       </c>
       <c r="Z7" s="43"/>
@@ -6349,7 +6317,7 @@
         <f>C7</f>
         <v>Bills</v>
       </c>
-      <c r="AB7" s="91">
+      <c r="AB7" s="86">
         <v>50</v>
       </c>
       <c r="AC7" s="43"/>
@@ -6357,7 +6325,7 @@
         <f>C7</f>
         <v>Bills</v>
       </c>
-      <c r="AE7" s="93">
+      <c r="AE7" s="88">
         <v>200</v>
       </c>
       <c r="AF7" s="43"/>
@@ -6365,7 +6333,7 @@
         <f>C7</f>
         <v>Bills</v>
       </c>
-      <c r="AH7" s="91">
+      <c r="AH7" s="86">
         <v>50</v>
       </c>
       <c r="AI7" s="43"/>
@@ -6373,17 +6341,17 @@
         <f>C7</f>
         <v>Bills</v>
       </c>
-      <c r="AK7" s="93">
+      <c r="AK7" s="88">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="128"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="91">
+        <v>20</v>
+      </c>
+      <c r="D8" s="86">
         <v>80</v>
       </c>
       <c r="E8" s="43"/>
@@ -6391,7 +6359,7 @@
         <f t="shared" ref="F8:F14" si="0">C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="G8" s="93">
+      <c r="G8" s="88">
         <v>85</v>
       </c>
       <c r="H8" s="43"/>
@@ -6399,7 +6367,7 @@
         <f t="shared" ref="I8:I14" si="1">C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="J8" s="91">
+      <c r="J8" s="86">
         <v>80</v>
       </c>
       <c r="K8" s="43"/>
@@ -6407,7 +6375,7 @@
         <f t="shared" ref="L8:L14" si="2">C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="M8" s="93">
+      <c r="M8" s="88">
         <v>85</v>
       </c>
       <c r="N8" s="43"/>
@@ -6415,7 +6383,7 @@
         <f t="shared" ref="O8:O14" si="3">C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="P8" s="91">
+      <c r="P8" s="86">
         <v>80</v>
       </c>
       <c r="Q8" s="43"/>
@@ -6423,7 +6391,7 @@
         <f t="shared" ref="R8:R14" si="4">C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="S8" s="93">
+      <c r="S8" s="88">
         <v>85</v>
       </c>
       <c r="T8" s="43"/>
@@ -6431,7 +6399,7 @@
         <f t="shared" ref="U8:U14" si="5">C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="V8" s="91">
+      <c r="V8" s="86">
         <v>80</v>
       </c>
       <c r="W8" s="43"/>
@@ -6439,7 +6407,7 @@
         <f t="shared" ref="X8:X14" si="6">C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="Y8" s="93">
+      <c r="Y8" s="88">
         <v>85</v>
       </c>
       <c r="Z8" s="43"/>
@@ -6447,7 +6415,7 @@
         <f t="shared" ref="AA8:AA14" si="7">C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="AB8" s="91">
+      <c r="AB8" s="86">
         <v>80</v>
       </c>
       <c r="AC8" s="43"/>
@@ -6455,7 +6423,7 @@
         <f t="shared" ref="AD8:AD14" si="8">C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="AE8" s="93">
+      <c r="AE8" s="88">
         <v>85</v>
       </c>
       <c r="AF8" s="43"/>
@@ -6463,7 +6431,7 @@
         <f t="shared" ref="AG8:AG14" si="9">C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="AH8" s="91">
+      <c r="AH8" s="86">
         <v>80</v>
       </c>
       <c r="AI8" s="43"/>
@@ -6471,17 +6439,17 @@
         <f t="shared" ref="AJ8:AJ14" si="10">C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="AK8" s="93">
+      <c r="AK8" s="88">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="49"/>
-      <c r="C9" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="91">
+      <c r="C9" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="86">
         <v>20</v>
       </c>
       <c r="E9" s="43"/>
@@ -6489,7 +6457,7 @@
         <f t="shared" si="0"/>
         <v>Clothing</v>
       </c>
-      <c r="G9" s="93">
+      <c r="G9" s="88">
         <v>25</v>
       </c>
       <c r="H9" s="43"/>
@@ -6497,7 +6465,7 @@
         <f t="shared" si="1"/>
         <v>Clothing</v>
       </c>
-      <c r="J9" s="91">
+      <c r="J9" s="86">
         <v>20</v>
       </c>
       <c r="K9" s="43"/>
@@ -6505,7 +6473,7 @@
         <f t="shared" si="2"/>
         <v>Clothing</v>
       </c>
-      <c r="M9" s="93">
+      <c r="M9" s="88">
         <v>25</v>
       </c>
       <c r="N9" s="43"/>
@@ -6513,7 +6481,7 @@
         <f t="shared" si="3"/>
         <v>Clothing</v>
       </c>
-      <c r="P9" s="91">
+      <c r="P9" s="86">
         <v>20</v>
       </c>
       <c r="Q9" s="43"/>
@@ -6521,7 +6489,7 @@
         <f t="shared" si="4"/>
         <v>Clothing</v>
       </c>
-      <c r="S9" s="93">
+      <c r="S9" s="88">
         <v>25</v>
       </c>
       <c r="T9" s="43"/>
@@ -6529,7 +6497,7 @@
         <f t="shared" si="5"/>
         <v>Clothing</v>
       </c>
-      <c r="V9" s="91">
+      <c r="V9" s="86">
         <v>20</v>
       </c>
       <c r="W9" s="43"/>
@@ -6537,7 +6505,7 @@
         <f t="shared" si="6"/>
         <v>Clothing</v>
       </c>
-      <c r="Y9" s="93">
+      <c r="Y9" s="88">
         <v>25</v>
       </c>
       <c r="Z9" s="43"/>
@@ -6545,7 +6513,7 @@
         <f t="shared" si="7"/>
         <v>Clothing</v>
       </c>
-      <c r="AB9" s="91">
+      <c r="AB9" s="86">
         <v>20</v>
       </c>
       <c r="AC9" s="43"/>
@@ -6553,7 +6521,7 @@
         <f t="shared" si="8"/>
         <v>Clothing</v>
       </c>
-      <c r="AE9" s="93">
+      <c r="AE9" s="88">
         <v>25</v>
       </c>
       <c r="AF9" s="43"/>
@@ -6561,7 +6529,7 @@
         <f t="shared" si="9"/>
         <v>Clothing</v>
       </c>
-      <c r="AH9" s="91">
+      <c r="AH9" s="86">
         <v>20</v>
       </c>
       <c r="AI9" s="43"/>
@@ -6569,17 +6537,17 @@
         <f t="shared" si="10"/>
         <v>Clothing</v>
       </c>
-      <c r="AK9" s="93">
+      <c r="AK9" s="88">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="91">
+        <v>22</v>
+      </c>
+      <c r="D10" s="86">
         <v>30</v>
       </c>
       <c r="E10" s="43"/>
@@ -6587,7 +6555,7 @@
         <f t="shared" si="0"/>
         <v>Eletron n' games</v>
       </c>
-      <c r="G10" s="93">
+      <c r="G10" s="88">
         <v>30</v>
       </c>
       <c r="H10" s="43"/>
@@ -6595,7 +6563,7 @@
         <f t="shared" si="1"/>
         <v>Eletron n' games</v>
       </c>
-      <c r="J10" s="91">
+      <c r="J10" s="86">
         <v>30</v>
       </c>
       <c r="K10" s="43"/>
@@ -6603,7 +6571,7 @@
         <f t="shared" si="2"/>
         <v>Eletron n' games</v>
       </c>
-      <c r="M10" s="93">
+      <c r="M10" s="88">
         <v>30</v>
       </c>
       <c r="N10" s="43"/>
@@ -6611,7 +6579,7 @@
         <f t="shared" si="3"/>
         <v>Eletron n' games</v>
       </c>
-      <c r="P10" s="91">
+      <c r="P10" s="86">
         <v>30</v>
       </c>
       <c r="Q10" s="43"/>
@@ -6619,7 +6587,7 @@
         <f t="shared" si="4"/>
         <v>Eletron n' games</v>
       </c>
-      <c r="S10" s="93">
+      <c r="S10" s="88">
         <v>30</v>
       </c>
       <c r="T10" s="43"/>
@@ -6627,7 +6595,7 @@
         <f t="shared" si="5"/>
         <v>Eletron n' games</v>
       </c>
-      <c r="V10" s="91">
+      <c r="V10" s="86">
         <v>30</v>
       </c>
       <c r="W10" s="43"/>
@@ -6635,7 +6603,7 @@
         <f t="shared" si="6"/>
         <v>Eletron n' games</v>
       </c>
-      <c r="Y10" s="93">
+      <c r="Y10" s="88">
         <v>30</v>
       </c>
       <c r="Z10" s="43"/>
@@ -6643,7 +6611,7 @@
         <f t="shared" si="7"/>
         <v>Eletron n' games</v>
       </c>
-      <c r="AB10" s="91">
+      <c r="AB10" s="86">
         <v>30</v>
       </c>
       <c r="AC10" s="43"/>
@@ -6651,7 +6619,7 @@
         <f t="shared" si="8"/>
         <v>Eletron n' games</v>
       </c>
-      <c r="AE10" s="93">
+      <c r="AE10" s="88">
         <v>30</v>
       </c>
       <c r="AF10" s="43"/>
@@ -6659,7 +6627,7 @@
         <f t="shared" si="9"/>
         <v>Eletron n' games</v>
       </c>
-      <c r="AH10" s="91">
+      <c r="AH10" s="86">
         <v>30</v>
       </c>
       <c r="AI10" s="43"/>
@@ -6667,17 +6635,17 @@
         <f t="shared" si="10"/>
         <v>Eletron n' games</v>
       </c>
-      <c r="AK10" s="93">
+      <c r="AK10" s="88">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="49"/>
       <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="91">
+        <v>23</v>
+      </c>
+      <c r="D11" s="86">
         <v>40</v>
       </c>
       <c r="E11" s="43"/>
@@ -6685,7 +6653,7 @@
         <f t="shared" si="0"/>
         <v>Food</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="88">
         <v>80</v>
       </c>
       <c r="H11" s="43"/>
@@ -6693,7 +6661,7 @@
         <f t="shared" si="1"/>
         <v>Food</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="86">
         <v>40</v>
       </c>
       <c r="K11" s="43"/>
@@ -6701,7 +6669,7 @@
         <f t="shared" si="2"/>
         <v>Food</v>
       </c>
-      <c r="M11" s="93">
+      <c r="M11" s="88">
         <v>80</v>
       </c>
       <c r="N11" s="43"/>
@@ -6709,7 +6677,7 @@
         <f t="shared" si="3"/>
         <v>Food</v>
       </c>
-      <c r="P11" s="91">
+      <c r="P11" s="86">
         <v>40</v>
       </c>
       <c r="Q11" s="43"/>
@@ -6717,7 +6685,7 @@
         <f t="shared" si="4"/>
         <v>Food</v>
       </c>
-      <c r="S11" s="93">
+      <c r="S11" s="88">
         <v>80</v>
       </c>
       <c r="T11" s="43"/>
@@ -6725,7 +6693,7 @@
         <f t="shared" si="5"/>
         <v>Food</v>
       </c>
-      <c r="V11" s="91">
+      <c r="V11" s="86">
         <v>40</v>
       </c>
       <c r="W11" s="43"/>
@@ -6733,7 +6701,7 @@
         <f t="shared" si="6"/>
         <v>Food</v>
       </c>
-      <c r="Y11" s="93">
+      <c r="Y11" s="88">
         <v>80</v>
       </c>
       <c r="Z11" s="43"/>
@@ -6741,7 +6709,7 @@
         <f t="shared" si="7"/>
         <v>Food</v>
       </c>
-      <c r="AB11" s="91">
+      <c r="AB11" s="86">
         <v>40</v>
       </c>
       <c r="AC11" s="43"/>
@@ -6749,7 +6717,7 @@
         <f t="shared" si="8"/>
         <v>Food</v>
       </c>
-      <c r="AE11" s="93">
+      <c r="AE11" s="88">
         <v>80</v>
       </c>
       <c r="AF11" s="43"/>
@@ -6757,7 +6725,7 @@
         <f t="shared" si="9"/>
         <v>Food</v>
       </c>
-      <c r="AH11" s="91">
+      <c r="AH11" s="86">
         <v>40</v>
       </c>
       <c r="AI11" s="43"/>
@@ -6765,17 +6733,17 @@
         <f t="shared" si="10"/>
         <v>Food</v>
       </c>
-      <c r="AK11" s="93">
+      <c r="AK11" s="88">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
+      <c r="A12" s="125"/>
       <c r="B12" s="49"/>
-      <c r="C12" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="91">
+      <c r="C12" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="86">
         <v>80</v>
       </c>
       <c r="E12" s="43"/>
@@ -6783,7 +6751,7 @@
         <f t="shared" si="0"/>
         <v>Gas</v>
       </c>
-      <c r="G12" s="93">
+      <c r="G12" s="88">
         <v>80</v>
       </c>
       <c r="H12" s="43"/>
@@ -6791,7 +6759,7 @@
         <f t="shared" si="1"/>
         <v>Gas</v>
       </c>
-      <c r="J12" s="91">
+      <c r="J12" s="86">
         <v>80</v>
       </c>
       <c r="K12" s="43"/>
@@ -6799,7 +6767,7 @@
         <f t="shared" si="2"/>
         <v>Gas</v>
       </c>
-      <c r="M12" s="93">
+      <c r="M12" s="88">
         <v>80</v>
       </c>
       <c r="N12" s="43"/>
@@ -6807,7 +6775,7 @@
         <f t="shared" si="3"/>
         <v>Gas</v>
       </c>
-      <c r="P12" s="91">
+      <c r="P12" s="86">
         <v>80</v>
       </c>
       <c r="Q12" s="43"/>
@@ -6815,7 +6783,7 @@
         <f t="shared" si="4"/>
         <v>Gas</v>
       </c>
-      <c r="S12" s="93">
+      <c r="S12" s="88">
         <v>80</v>
       </c>
       <c r="T12" s="43"/>
@@ -6823,7 +6791,7 @@
         <f t="shared" si="5"/>
         <v>Gas</v>
       </c>
-      <c r="V12" s="91">
+      <c r="V12" s="86">
         <v>80</v>
       </c>
       <c r="W12" s="43"/>
@@ -6831,7 +6799,7 @@
         <f t="shared" si="6"/>
         <v>Gas</v>
       </c>
-      <c r="Y12" s="93">
+      <c r="Y12" s="88">
         <v>80</v>
       </c>
       <c r="Z12" s="43"/>
@@ -6839,7 +6807,7 @@
         <f t="shared" si="7"/>
         <v>Gas</v>
       </c>
-      <c r="AB12" s="91">
+      <c r="AB12" s="86">
         <v>80</v>
       </c>
       <c r="AC12" s="43"/>
@@ -6847,7 +6815,7 @@
         <f t="shared" si="8"/>
         <v>Gas</v>
       </c>
-      <c r="AE12" s="93">
+      <c r="AE12" s="88">
         <v>80</v>
       </c>
       <c r="AF12" s="43"/>
@@ -6855,7 +6823,7 @@
         <f t="shared" si="9"/>
         <v>Gas</v>
       </c>
-      <c r="AH12" s="91">
+      <c r="AH12" s="86">
         <v>80</v>
       </c>
       <c r="AI12" s="43"/>
@@ -6863,17 +6831,17 @@
         <f t="shared" si="10"/>
         <v>Gas</v>
       </c>
-      <c r="AK12" s="93">
+      <c r="AK12" s="88">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="128"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="49"/>
       <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="91">
+        <v>25</v>
+      </c>
+      <c r="D13" s="86">
         <v>100</v>
       </c>
       <c r="E13" s="43"/>
@@ -6881,7 +6849,7 @@
         <f t="shared" si="0"/>
         <v>Hang out</v>
       </c>
-      <c r="G13" s="93">
+      <c r="G13" s="88">
         <v>300</v>
       </c>
       <c r="H13" s="43"/>
@@ -6889,7 +6857,7 @@
         <f t="shared" si="1"/>
         <v>Hang out</v>
       </c>
-      <c r="J13" s="91">
+      <c r="J13" s="86">
         <v>100</v>
       </c>
       <c r="K13" s="43"/>
@@ -6897,7 +6865,7 @@
         <f t="shared" si="2"/>
         <v>Hang out</v>
       </c>
-      <c r="M13" s="93">
+      <c r="M13" s="88">
         <v>300</v>
       </c>
       <c r="N13" s="43"/>
@@ -6905,7 +6873,7 @@
         <f t="shared" si="3"/>
         <v>Hang out</v>
       </c>
-      <c r="P13" s="91">
+      <c r="P13" s="86">
         <v>100</v>
       </c>
       <c r="Q13" s="43"/>
@@ -6913,7 +6881,7 @@
         <f t="shared" si="4"/>
         <v>Hang out</v>
       </c>
-      <c r="S13" s="93">
+      <c r="S13" s="88">
         <v>300</v>
       </c>
       <c r="T13" s="43"/>
@@ -6921,7 +6889,7 @@
         <f t="shared" si="5"/>
         <v>Hang out</v>
       </c>
-      <c r="V13" s="91">
+      <c r="V13" s="86">
         <v>100</v>
       </c>
       <c r="W13" s="43"/>
@@ -6929,7 +6897,7 @@
         <f t="shared" si="6"/>
         <v>Hang out</v>
       </c>
-      <c r="Y13" s="93">
+      <c r="Y13" s="88">
         <v>300</v>
       </c>
       <c r="Z13" s="43"/>
@@ -6937,7 +6905,7 @@
         <f t="shared" si="7"/>
         <v>Hang out</v>
       </c>
-      <c r="AB13" s="91">
+      <c r="AB13" s="86">
         <v>100</v>
       </c>
       <c r="AC13" s="43"/>
@@ -6945,7 +6913,7 @@
         <f t="shared" si="8"/>
         <v>Hang out</v>
       </c>
-      <c r="AE13" s="93">
+      <c r="AE13" s="88">
         <v>300</v>
       </c>
       <c r="AF13" s="43"/>
@@ -6953,7 +6921,7 @@
         <f t="shared" si="9"/>
         <v>Hang out</v>
       </c>
-      <c r="AH13" s="91">
+      <c r="AH13" s="86">
         <v>100</v>
       </c>
       <c r="AI13" s="43"/>
@@ -6961,17 +6929,17 @@
         <f t="shared" si="10"/>
         <v>Hang out</v>
       </c>
-      <c r="AK13" s="93">
+      <c r="AK13" s="88">
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="128"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="49"/>
-      <c r="C14" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="91">
+      <c r="C14" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="86">
         <v>100</v>
       </c>
       <c r="E14" s="43"/>
@@ -6979,7 +6947,7 @@
         <f t="shared" si="0"/>
         <v>Healthcare</v>
       </c>
-      <c r="G14" s="93">
+      <c r="G14" s="88">
         <v>100</v>
       </c>
       <c r="H14" s="43"/>
@@ -6987,7 +6955,7 @@
         <f t="shared" si="1"/>
         <v>Healthcare</v>
       </c>
-      <c r="J14" s="91">
+      <c r="J14" s="86">
         <v>100</v>
       </c>
       <c r="K14" s="43"/>
@@ -6995,7 +6963,7 @@
         <f t="shared" si="2"/>
         <v>Healthcare</v>
       </c>
-      <c r="M14" s="93">
+      <c r="M14" s="88">
         <v>100</v>
       </c>
       <c r="N14" s="43"/>
@@ -7003,7 +6971,7 @@
         <f t="shared" si="3"/>
         <v>Healthcare</v>
       </c>
-      <c r="P14" s="91">
+      <c r="P14" s="86">
         <v>100</v>
       </c>
       <c r="Q14" s="43"/>
@@ -7011,7 +6979,7 @@
         <f t="shared" si="4"/>
         <v>Healthcare</v>
       </c>
-      <c r="S14" s="93">
+      <c r="S14" s="88">
         <v>100</v>
       </c>
       <c r="T14" s="43"/>
@@ -7019,7 +6987,7 @@
         <f t="shared" si="5"/>
         <v>Healthcare</v>
       </c>
-      <c r="V14" s="91">
+      <c r="V14" s="86">
         <v>100</v>
       </c>
       <c r="W14" s="43"/>
@@ -7027,7 +6995,7 @@
         <f t="shared" si="6"/>
         <v>Healthcare</v>
       </c>
-      <c r="Y14" s="93">
+      <c r="Y14" s="88">
         <v>100</v>
       </c>
       <c r="Z14" s="43"/>
@@ -7035,7 +7003,7 @@
         <f t="shared" si="7"/>
         <v>Healthcare</v>
       </c>
-      <c r="AB14" s="91">
+      <c r="AB14" s="86">
         <v>100</v>
       </c>
       <c r="AC14" s="43"/>
@@ -7043,7 +7011,7 @@
         <f t="shared" si="8"/>
         <v>Healthcare</v>
       </c>
-      <c r="AE14" s="93">
+      <c r="AE14" s="88">
         <v>100</v>
       </c>
       <c r="AF14" s="43"/>
@@ -7051,7 +7019,7 @@
         <f t="shared" si="9"/>
         <v>Healthcare</v>
       </c>
-      <c r="AH14" s="91">
+      <c r="AH14" s="86">
         <v>100</v>
       </c>
       <c r="AI14" s="43"/>
@@ -7059,350 +7027,350 @@
         <f t="shared" si="10"/>
         <v>Healthcare</v>
       </c>
-      <c r="AK14" s="93">
+      <c r="AK14" s="88">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="129" t="s">
-        <v>30</v>
+      <c r="A15" s="126" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="91">
+        <v>27</v>
+      </c>
+      <c r="D15" s="86">
         <v>75</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="93">
+        <v>28</v>
+      </c>
+      <c r="G15" s="88">
         <v>15</v>
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="91">
+        <v>31</v>
+      </c>
+      <c r="J15" s="86">
         <v>15</v>
       </c>
       <c r="K15" s="43"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="93"/>
+      <c r="M15" s="88"/>
       <c r="N15" s="43"/>
       <c r="O15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="91">
+        <v>31</v>
+      </c>
+      <c r="P15" s="86">
         <v>15</v>
       </c>
       <c r="Q15" s="43"/>
       <c r="R15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" s="93">
+        <v>31</v>
+      </c>
+      <c r="S15" s="88">
         <v>15</v>
       </c>
       <c r="T15" s="43"/>
       <c r="U15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15" s="91">
+        <v>27</v>
+      </c>
+      <c r="V15" s="86">
         <v>75</v>
       </c>
       <c r="W15" s="43"/>
       <c r="X15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y15" s="93">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="88">
         <v>25</v>
       </c>
       <c r="Z15" s="43"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="91"/>
+      <c r="AB15" s="86"/>
       <c r="AC15" s="43"/>
       <c r="AD15" s="7"/>
-      <c r="AE15" s="93"/>
+      <c r="AE15" s="88"/>
       <c r="AF15" s="43"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="91"/>
+      <c r="AH15" s="86"/>
       <c r="AI15" s="43"/>
       <c r="AJ15" s="7"/>
-      <c r="AK15" s="93"/>
+      <c r="AK15" s="88"/>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
+      <c r="A16" s="126"/>
       <c r="B16" s="50"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="91"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="43"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="93"/>
+      <c r="G16" s="88"/>
       <c r="H16" s="43"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="91"/>
+      <c r="J16" s="86"/>
       <c r="K16" s="43"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="93"/>
+      <c r="M16" s="88"/>
       <c r="N16" s="43"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="91"/>
+      <c r="P16" s="86"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="93"/>
+      <c r="S16" s="88"/>
       <c r="T16" s="43"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="91"/>
+      <c r="V16" s="86"/>
       <c r="W16" s="43"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="93"/>
+      <c r="Y16" s="88"/>
       <c r="Z16" s="43"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="91"/>
+      <c r="AB16" s="86"/>
       <c r="AC16" s="43"/>
       <c r="AD16" s="7"/>
-      <c r="AE16" s="93"/>
+      <c r="AE16" s="88"/>
       <c r="AF16" s="43"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="91"/>
+      <c r="AH16" s="86"/>
       <c r="AI16" s="43"/>
       <c r="AJ16" s="7"/>
-      <c r="AK16" s="93"/>
+      <c r="AK16" s="88"/>
     </row>
     <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
+      <c r="A17" s="126"/>
       <c r="B17" s="50"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="91"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="43"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="93"/>
+      <c r="G17" s="88"/>
       <c r="H17" s="43"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="91"/>
+      <c r="J17" s="86"/>
       <c r="K17" s="43"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="93"/>
+      <c r="M17" s="88"/>
       <c r="N17" s="43"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="91"/>
+      <c r="P17" s="86"/>
       <c r="Q17" s="43"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="93"/>
+      <c r="S17" s="88"/>
       <c r="T17" s="43"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="91"/>
+      <c r="V17" s="86"/>
       <c r="W17" s="43"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="93"/>
+      <c r="Y17" s="88"/>
       <c r="Z17" s="43"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="91"/>
+      <c r="AB17" s="86"/>
       <c r="AC17" s="43"/>
       <c r="AD17" s="7"/>
-      <c r="AE17" s="93"/>
+      <c r="AE17" s="88"/>
       <c r="AF17" s="43"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="91"/>
+      <c r="AH17" s="86"/>
       <c r="AI17" s="43"/>
       <c r="AJ17" s="7"/>
-      <c r="AK17" s="93"/>
+      <c r="AK17" s="88"/>
     </row>
     <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
+      <c r="A18" s="126"/>
       <c r="B18" s="50"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="91"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="43"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="93"/>
+      <c r="G18" s="88"/>
       <c r="H18" s="43"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="91"/>
+      <c r="J18" s="86"/>
       <c r="K18" s="43"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="93"/>
+      <c r="M18" s="88"/>
       <c r="N18" s="43"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="91"/>
+      <c r="P18" s="86"/>
       <c r="Q18" s="43"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="93"/>
+      <c r="S18" s="88"/>
       <c r="T18" s="43"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="91"/>
+      <c r="V18" s="86"/>
       <c r="W18" s="43"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="93"/>
+      <c r="Y18" s="88"/>
       <c r="Z18" s="43"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="91"/>
+      <c r="AB18" s="86"/>
       <c r="AC18" s="43"/>
       <c r="AD18" s="7"/>
-      <c r="AE18" s="93"/>
+      <c r="AE18" s="88"/>
       <c r="AF18" s="43"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="91"/>
+      <c r="AH18" s="86"/>
       <c r="AI18" s="43"/>
       <c r="AJ18" s="7"/>
-      <c r="AK18" s="93"/>
+      <c r="AK18" s="88"/>
     </row>
     <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
+      <c r="A19" s="126"/>
       <c r="B19" s="50"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="91"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="43"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="93"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="43"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="91"/>
+      <c r="J19" s="86"/>
       <c r="K19" s="43"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="93"/>
+      <c r="M19" s="88"/>
       <c r="N19" s="43"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="91"/>
+      <c r="P19" s="86"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="93"/>
+      <c r="S19" s="88"/>
       <c r="T19" s="43"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="91"/>
+      <c r="V19" s="86"/>
       <c r="W19" s="43"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="93"/>
+      <c r="Y19" s="88"/>
       <c r="Z19" s="43"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="91"/>
+      <c r="AB19" s="86"/>
       <c r="AC19" s="43"/>
       <c r="AD19" s="7"/>
-      <c r="AE19" s="93"/>
+      <c r="AE19" s="88"/>
       <c r="AF19" s="43"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="91"/>
+      <c r="AH19" s="86"/>
       <c r="AI19" s="43"/>
       <c r="AJ19" s="7"/>
-      <c r="AK19" s="93"/>
+      <c r="AK19" s="88"/>
     </row>
     <row r="20" spans="1:37" ht="15.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
+      <c r="A20" s="126"/>
       <c r="B20" s="50"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="91"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="43"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="93"/>
+      <c r="G20" s="88"/>
       <c r="H20" s="43"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="91"/>
+      <c r="J20" s="86"/>
       <c r="K20" s="43"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="93"/>
+      <c r="M20" s="88"/>
       <c r="N20" s="43"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="91"/>
+      <c r="P20" s="86"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="93"/>
+      <c r="S20" s="88"/>
       <c r="T20" s="43"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="91"/>
+      <c r="V20" s="86"/>
       <c r="W20" s="43"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="93"/>
+      <c r="Y20" s="88"/>
       <c r="Z20" s="43"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="91"/>
+      <c r="AB20" s="86"/>
       <c r="AC20" s="43"/>
       <c r="AD20" s="7"/>
-      <c r="AE20" s="93"/>
+      <c r="AE20" s="88"/>
       <c r="AF20" s="43"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="91"/>
+      <c r="AH20" s="86"/>
       <c r="AI20" s="43"/>
       <c r="AJ20" s="7"/>
-      <c r="AK20" s="93"/>
+      <c r="AK20" s="88"/>
     </row>
     <row r="21" spans="1:37" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="51"/>
-      <c r="C21" s="130">
+      <c r="C21" s="124">
         <f>SUM(D7:D20)</f>
         <v>575</v>
       </c>
-      <c r="D21" s="130"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="52"/>
-      <c r="F21" s="131">
+      <c r="F21" s="123">
         <f>SUM(G7:G20)</f>
         <v>915</v>
       </c>
-      <c r="G21" s="131"/>
+      <c r="G21" s="123"/>
       <c r="H21" s="52"/>
-      <c r="I21" s="130">
+      <c r="I21" s="124">
         <f>SUM(J7:J20)</f>
         <v>515</v>
       </c>
-      <c r="J21" s="130"/>
+      <c r="J21" s="124"/>
       <c r="K21" s="52"/>
-      <c r="L21" s="131">
+      <c r="L21" s="123">
         <f>SUM(M7:M20)</f>
         <v>900</v>
       </c>
-      <c r="M21" s="131"/>
+      <c r="M21" s="123"/>
       <c r="N21" s="52"/>
-      <c r="O21" s="130">
+      <c r="O21" s="124">
         <f>SUM(P7:P20)</f>
         <v>515</v>
       </c>
-      <c r="P21" s="130"/>
+      <c r="P21" s="124"/>
       <c r="Q21" s="52"/>
-      <c r="R21" s="131">
+      <c r="R21" s="123">
         <f>SUM(S7:S20)</f>
         <v>915</v>
       </c>
-      <c r="S21" s="131"/>
+      <c r="S21" s="123"/>
       <c r="T21" s="52"/>
-      <c r="U21" s="130">
+      <c r="U21" s="124">
         <f>SUM(V7:V20)</f>
         <v>575</v>
       </c>
-      <c r="V21" s="130"/>
+      <c r="V21" s="124"/>
       <c r="W21" s="52"/>
-      <c r="X21" s="131">
+      <c r="X21" s="123">
         <f>SUM(Y7:Y20)</f>
         <v>925</v>
       </c>
-      <c r="Y21" s="131"/>
+      <c r="Y21" s="123"/>
       <c r="Z21" s="52"/>
-      <c r="AA21" s="130">
+      <c r="AA21" s="124">
         <f>SUM(AB7:AB20)</f>
         <v>500</v>
       </c>
-      <c r="AB21" s="130"/>
+      <c r="AB21" s="124"/>
       <c r="AC21" s="52"/>
-      <c r="AD21" s="131">
+      <c r="AD21" s="123">
         <f>SUM(AE7:AE20)</f>
         <v>900</v>
       </c>
-      <c r="AE21" s="131"/>
+      <c r="AE21" s="123"/>
       <c r="AF21" s="52"/>
-      <c r="AG21" s="130">
+      <c r="AG21" s="124">
         <f>SUM(AH7:AH20)</f>
         <v>500</v>
       </c>
-      <c r="AH21" s="130"/>
+      <c r="AH21" s="124"/>
       <c r="AI21" s="52"/>
-      <c r="AJ21" s="131">
+      <c r="AJ21" s="123">
         <f>SUM(AK7:AK20)</f>
         <v>900</v>
       </c>
-      <c r="AK21" s="131"/>
+      <c r="AK21" s="123"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D17">
@@ -7417,6 +7385,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="14">
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="AG21:AH21"/>
@@ -7426,11 +7399,6 @@
     <mergeCell ref="X21:Y21"/>
     <mergeCell ref="AA21:AB21"/>
     <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="iconSet" priority="1">
@@ -7483,359 +7451,371 @@
     <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="41" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="32" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="39" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>9</v>
+      <c r="A3" s="34" t="str">
+        <f>PROPER(TEXT("01/01","MMMM"))</f>
+        <v>Janeiro</v>
       </c>
       <c r="B3" s="33"/>
-      <c r="C3" s="97">
+      <c r="C3" s="92">
         <f>'Net Salary'!C19</f>
         <v>1135</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="93">
         <f>'Net Salary'!C11</f>
         <v>0</v>
       </c>
       <c r="E3" s="35"/>
-      <c r="F3" s="103">
+      <c r="F3" s="98">
         <f>SUM(Expenses!C21:C21)</f>
         <v>575</v>
       </c>
       <c r="G3" s="36"/>
-      <c r="H3" s="97">
+      <c r="H3" s="92">
         <f>I3</f>
         <v>560</v>
       </c>
-      <c r="I3" s="100">
+      <c r="I3" s="95">
         <f>Expenses!D4</f>
         <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>10</v>
+      <c r="A4" s="34" t="str">
+        <f>PROPER(TEXT("01/02","MMMM"))</f>
+        <v>Fevereiro</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" s="97">
+      <c r="C4" s="92">
         <f>'Net Salary'!D19</f>
         <v>1105</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="93">
         <f>'Net Salary'!D11</f>
         <v>20</v>
       </c>
       <c r="E4" s="35"/>
-      <c r="F4" s="103">
+      <c r="F4" s="98">
         <f>SUM(Expenses!F21:G21)</f>
         <v>915</v>
       </c>
       <c r="G4" s="36"/>
-      <c r="H4" s="97">
+      <c r="H4" s="92">
         <f>I4-I3</f>
         <v>190</v>
       </c>
-      <c r="I4" s="100">
+      <c r="I4" s="95">
         <f>Expenses!G4</f>
         <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>11</v>
+      <c r="A5" s="34" t="str">
+        <f>PROPER(TEXT("01/03","MMMM"))</f>
+        <v>Março</v>
       </c>
       <c r="B5" s="33"/>
-      <c r="C5" s="97">
+      <c r="C5" s="92">
         <f>'Net Salary'!E19</f>
         <v>1105</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="93">
         <f>'Net Salary'!E11</f>
         <v>30</v>
       </c>
       <c r="E5" s="35"/>
-      <c r="F5" s="103">
+      <c r="F5" s="98">
         <f>SUM(Expenses!I21:J21)</f>
         <v>515</v>
       </c>
       <c r="G5" s="36"/>
-      <c r="H5" s="97">
+      <c r="H5" s="92">
         <f t="shared" ref="H5:H14" si="0">I5-I4</f>
         <v>590</v>
       </c>
-      <c r="I5" s="100">
+      <c r="I5" s="95">
         <f>Expenses!J4</f>
         <v>1340</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>12</v>
+      <c r="A6" s="34" t="str">
+        <f>PROPER(TEXT("01/04","MMMM"))</f>
+        <v>Abril</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="97">
+      <c r="C6" s="92">
         <f>'Net Salary'!F19</f>
         <v>1105</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="93">
         <f>'Net Salary'!F11</f>
         <v>50</v>
       </c>
       <c r="E6" s="35"/>
-      <c r="F6" s="103">
+      <c r="F6" s="98">
         <f>SUM(Expenses!L21:M21)</f>
         <v>900</v>
       </c>
       <c r="G6" s="36"/>
-      <c r="H6" s="97">
+      <c r="H6" s="92">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I6" s="100">
+      <c r="I6" s="95">
         <f>Expenses!M4</f>
         <v>1545</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>13</v>
+      <c r="A7" s="34" t="str">
+        <f>PROPER(TEXT("01/05","MMMM"))</f>
+        <v>Maio</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="97">
+      <c r="C7" s="92">
         <f>'Net Salary'!G19</f>
         <v>1105</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="93">
         <f>'Net Salary'!G11</f>
         <v>30</v>
       </c>
       <c r="E7" s="35"/>
-      <c r="F7" s="103">
+      <c r="F7" s="98">
         <f>SUM(Expenses!O21:P21)</f>
         <v>515</v>
       </c>
       <c r="G7" s="36"/>
-      <c r="H7" s="97">
+      <c r="H7" s="92">
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="95">
         <f>Expenses!P4</f>
         <v>2135</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
-        <v>14</v>
+      <c r="A8" s="34" t="str">
+        <f>PROPER(TEXT("01/06","MMMM"))</f>
+        <v>Junho</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="97">
+      <c r="C8" s="92">
         <f>'Net Salary'!H19</f>
         <v>1125</v>
       </c>
-      <c r="D8" s="98">
+      <c r="D8" s="93">
         <f>'Net Salary'!H11</f>
         <v>30</v>
       </c>
       <c r="E8" s="35"/>
-      <c r="F8" s="103">
+      <c r="F8" s="98">
         <f>SUM(Expenses!R21:S21)</f>
         <v>915</v>
       </c>
       <c r="G8" s="36"/>
-      <c r="H8" s="97">
+      <c r="H8" s="92">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="I8" s="100">
+      <c r="I8" s="95">
         <f>Expenses!S4</f>
         <v>2345</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
-        <v>15</v>
+      <c r="A9" s="34" t="str">
+        <f>PROPER(TEXT("01/07","MMMM"))</f>
+        <v>Julho</v>
       </c>
       <c r="B9" s="33"/>
-      <c r="C9" s="97">
+      <c r="C9" s="92">
         <f>'Net Salary'!I19</f>
         <v>1035</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="93">
         <f>'Net Salary'!I11</f>
         <v>50</v>
       </c>
       <c r="E9" s="35"/>
-      <c r="F9" s="103">
+      <c r="F9" s="98">
         <f>SUM(Expenses!U21:V21)</f>
         <v>575</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="97">
+      <c r="H9" s="92">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="I9" s="100">
+      <c r="I9" s="95">
         <f>Expenses!V4</f>
         <v>2805</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
-        <v>16</v>
+      <c r="A10" s="34" t="str">
+        <f>PROPER(TEXT("01/08","MMMM"))</f>
+        <v>Agosto</v>
       </c>
       <c r="B10" s="33"/>
-      <c r="C10" s="97">
+      <c r="C10" s="92">
         <f>'Net Salary'!J19</f>
         <v>1055</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="93">
         <f>'Net Salary'!J11</f>
         <v>100</v>
       </c>
       <c r="E10" s="35"/>
-      <c r="F10" s="103">
+      <c r="F10" s="98">
         <f>SUM(Expenses!X21:Y21)</f>
         <v>925</v>
       </c>
       <c r="G10" s="36"/>
-      <c r="H10" s="97">
+      <c r="H10" s="92">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="I10" s="100">
+      <c r="I10" s="95">
         <f>Expenses!Y4</f>
         <v>2935</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
-        <v>17</v>
+      <c r="A11" s="34" t="str">
+        <f>PROPER(TEXT("01/09","MMMM"))</f>
+        <v>Setembro</v>
       </c>
       <c r="B11" s="33"/>
-      <c r="C11" s="97">
+      <c r="C11" s="92">
         <f>'Net Salary'!K19</f>
         <v>1135</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="93">
         <f>'Net Salary'!K11</f>
         <v>40</v>
       </c>
       <c r="E11" s="35"/>
-      <c r="F11" s="103">
+      <c r="F11" s="98">
         <f>SUM(Expenses!AA21:AB21)</f>
         <v>500</v>
       </c>
       <c r="G11" s="36"/>
-      <c r="H11" s="97">
+      <c r="H11" s="92">
         <f t="shared" si="0"/>
         <v>635</v>
       </c>
-      <c r="I11" s="100">
+      <c r="I11" s="95">
         <f>Expenses!AB4</f>
         <v>3570</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>18</v>
+      <c r="A12" s="34" t="str">
+        <f>PROPER(TEXT("01/10","MMMM"))</f>
+        <v>Outubro</v>
       </c>
       <c r="B12" s="33"/>
-      <c r="C12" s="97">
+      <c r="C12" s="92">
         <f>'Net Salary'!L19</f>
         <v>1125</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="93">
         <f>'Net Salary'!L11</f>
         <v>10</v>
       </c>
       <c r="E12" s="35"/>
-      <c r="F12" s="103">
+      <c r="F12" s="98">
         <f>SUM(Expenses!AD21:AE21)</f>
         <v>900</v>
       </c>
       <c r="G12" s="36"/>
-      <c r="H12" s="97">
+      <c r="H12" s="92">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="I12" s="100">
+      <c r="I12" s="95">
         <f>Expenses!AE4</f>
         <v>3795</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
-        <v>19</v>
+      <c r="A13" s="34" t="str">
+        <f>PROPER(TEXT("01/11","MMMM"))</f>
+        <v>Novembro</v>
       </c>
       <c r="B13" s="33"/>
-      <c r="C13" s="97">
+      <c r="C13" s="92">
         <f>'Net Salary'!M19</f>
         <v>1125</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="93">
         <f>'Net Salary'!M11</f>
         <v>10</v>
       </c>
       <c r="E13" s="35"/>
-      <c r="F13" s="103">
+      <c r="F13" s="98">
         <f>SUM(Expenses!AG21:AH21)</f>
         <v>500</v>
       </c>
       <c r="G13" s="36"/>
-      <c r="H13" s="97">
+      <c r="H13" s="92">
         <f t="shared" si="0"/>
         <v>625</v>
       </c>
-      <c r="I13" s="100">
+      <c r="I13" s="95">
         <f>Expenses!AH4</f>
         <v>4420</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>20</v>
+      <c r="A14" s="34" t="str">
+        <f>PROPER(TEXT("01/12","MMMM"))</f>
+        <v>Dezembro</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="97">
+      <c r="C14" s="92">
         <f>'Net Salary'!N19</f>
         <v>1175</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="93">
         <f>'Net Salary'!N11</f>
         <v>10</v>
       </c>
       <c r="E14" s="35"/>
-      <c r="F14" s="103">
+      <c r="F14" s="98">
         <f>SUM(Expenses!AJ21:AK21)</f>
         <v>900</v>
       </c>
       <c r="G14" s="36"/>
-      <c r="H14" s="97">
+      <c r="H14" s="92">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="I14" s="100">
+      <c r="I14" s="95">
         <f>Expenses!AK4</f>
         <v>4695</v>
       </c>
@@ -7845,43 +7825,43 @@
         <v>1</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="99">
+      <c r="C15" s="94">
         <f>SUM(C3:C14)</f>
         <v>13330</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="93">
         <f t="shared" ref="D15" si="1">SUM(D3:D14)</f>
         <v>380</v>
       </c>
       <c r="E15" s="35"/>
-      <c r="F15" s="103">
+      <c r="F15" s="98">
         <f>SUM(F3:F14)</f>
         <v>8635</v>
       </c>
       <c r="G15" s="36"/>
-      <c r="H15" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="107">
+      <c r="H15" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="102">
         <f>'Annual Result'!D9</f>
         <v>4695</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" s="99">
+      <c r="C16" s="94">
         <f>AVERAGE(C3:C14)</f>
         <v>1110.8333333333333</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="93">
         <f t="shared" ref="D16" si="2">AVERAGE(D3:D14)</f>
         <v>31.666666666666668</v>
       </c>
       <c r="E16" s="35"/>
-      <c r="F16" s="104">
+      <c r="F16" s="99">
         <f>AVERAGE(F3:F14)</f>
         <v>719.58333333333337</v>
       </c>
@@ -7894,16 +7874,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="33"/>
-      <c r="C17" s="97">
+      <c r="C17" s="92">
         <f>SUM(C3:C8)</f>
         <v>6680</v>
       </c>
-      <c r="D17" s="100">
+      <c r="D17" s="95">
         <f t="shared" ref="D17" si="3">SUM(D3:D8)</f>
         <v>160</v>
       </c>
       <c r="E17" s="36"/>
-      <c r="F17" s="105">
+      <c r="F17" s="100">
         <f>SUM(F3:F8)</f>
         <v>4335</v>
       </c>
@@ -7915,16 +7895,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="C18" s="101">
+      <c r="C18" s="96">
         <f>SUM($C$9:$C$14)</f>
         <v>6650</v>
       </c>
-      <c r="D18" s="102">
+      <c r="D18" s="97">
         <f>SUM($D$9:$D$14)</f>
         <v>220</v>
       </c>
       <c r="E18" s="36"/>
-      <c r="F18" s="106">
+      <c r="F18" s="101">
         <f>SUM($F$9:$F$14)</f>
         <v>4300</v>
       </c>
@@ -7949,10 +7929,10 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="B1:J35"/>
+  <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7968,534 +7948,551 @@
     <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+    <row r="1" spans="2:10" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="2:10" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="132" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="128"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="2:10" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="82" t="str">
+      <c r="B3" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="77" t="str">
         <f ca="1">PROPER(TEXT(TODAY(),"MMMM"))</f>
-        <v>Setembro</v>
-      </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="74"/>
+        <v>Outubro</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="2:10" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="113">
+      <c r="B4" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="108">
         <v>1500</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64" t="str">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63" t="str">
         <f>Expenses!C7</f>
         <v>Bills</v>
       </c>
-      <c r="F4" s="77" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="F4" ca="1">_xlfn._xlws.FILTER(Expenses!D7:AK20,Expenses!D2:AK2=Report!C3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="66" t="str">
+      <c r="F4" s="135" cm="1">
+        <f t="array" aca="1" ref="F4:F17" ca="1">_xlfn._xlws.FILTER(Expenses!D7:AK20,Expenses!D2:AK2=Report!C3)</f>
+        <v>200</v>
+      </c>
+      <c r="G4" s="63"/>
+      <c r="H4" s="65" t="str">
         <f ca="1">PROPER(TEXT(TODAY()-30, "MMMM"))</f>
-        <v>Agosto</v>
-      </c>
-      <c r="I4" s="67" t="e">
+        <v>Setembro</v>
+      </c>
+      <c r="I4" s="137">
         <f ca="1">VLOOKUP(Report!H4,Resume!$A$3:$I$14,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J4" s="75"/>
+        <v>1135</v>
+      </c>
+      <c r="J4" s="72"/>
     </row>
     <row r="5" spans="2:10" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="113">
+      <c r="B5" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="108">
         <v>1500</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64" t="str">
+      <c r="D5" s="63"/>
+      <c r="E5" s="63" t="str">
         <f>Expenses!C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="66" t="str">
+      <c r="F5" s="135">
+        <f ca="1"/>
+        <v>85</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="65" t="str">
         <f ca="1">PROPER(TEXT(TODAY(), "MMMM"))</f>
-        <v>Setembro</v>
-      </c>
-      <c r="I5" s="67" t="e">
+        <v>Outubro</v>
+      </c>
+      <c r="I5" s="137">
         <f ca="1">VLOOKUP(Report!H5,Resume!$A$3:$I$14,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" s="75"/>
+        <v>1125</v>
+      </c>
+      <c r="J5" s="72"/>
     </row>
     <row r="6" spans="2:10" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="113">
-        <v>570</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64" t="str">
+      <c r="B6" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="108">
+        <v>795</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63" t="str">
         <f>Expenses!C9</f>
         <v>Clothing</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="66" t="str">
+      <c r="F6" s="135">
+        <f ca="1"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="65" t="str">
         <f ca="1">PROPER(TEXT(TODAY()+30, "MMMM"))</f>
-        <v>Outubro</v>
-      </c>
-      <c r="I6" s="67" t="e">
+        <v>Novembro</v>
+      </c>
+      <c r="I6" s="137">
         <f ca="1">VLOOKUP(Report!H6,Resume!$A$3:$I$14,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="75"/>
+        <v>1125</v>
+      </c>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" spans="2:10" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="114">
+      <c r="B7" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="109">
         <f>SUM(C4:C6)</f>
-        <v>3570</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64" t="str">
+        <v>3795</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63" t="str">
         <f>Expenses!C10</f>
         <v>Eletron n' games</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
+      <c r="F7" s="135">
+        <f ca="1"/>
+        <v>30</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="2:10" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64" t="str">
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63" t="str">
         <f>Expenses!C11</f>
         <v>Food</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="74"/>
+      <c r="F8" s="135">
+        <f ca="1"/>
+        <v>80</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="71"/>
     </row>
     <row r="9" spans="2:10" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="115" t="e">
+      <c r="B9" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="110">
         <f ca="1">VLOOKUP(C3,Resume!A3:I14,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64" t="str">
+        <v>3795</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63" t="str">
         <f>Expenses!C12</f>
         <v>Gas</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="66" t="str">
+      <c r="F9" s="135">
+        <f ca="1"/>
+        <v>80</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="H9" s="65" t="str">
         <f ca="1">PROPER(TEXT(TODAY()-30, "MMMM"))</f>
-        <v>Agosto</v>
-      </c>
-      <c r="I9" s="70" t="e">
+        <v>Setembro</v>
+      </c>
+      <c r="I9" s="138">
         <f ca="1">VLOOKUP(Report!H9,Resume!$A$3:$I$14,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="72"/>
+        <v>500</v>
+      </c>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="2:10" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64" t="str">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63" t="str">
         <f>Expenses!C13</f>
         <v>Hang out</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="66" t="str">
+      <c r="F10" s="135">
+        <f ca="1"/>
+        <v>300</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="65" t="str">
         <f ca="1">PROPER(TEXT(TODAY(), "MMMM"))</f>
-        <v>Setembro</v>
-      </c>
-      <c r="I10" s="70" t="e">
+        <v>Outubro</v>
+      </c>
+      <c r="I10" s="138">
         <f ca="1">VLOOKUP(Report!H10,Resume!$A$3:$I$14,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="72"/>
+        <v>900</v>
+      </c>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="2:10" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="115" t="e">
+      <c r="B11" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="110">
         <f ca="1">C7-C9</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63" t="str">
         <f>Expenses!C14</f>
         <v>Healthcare</v>
       </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="66" t="str">
+      <c r="F11" s="135">
+        <f ca="1"/>
+        <v>100</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="65" t="str">
         <f ca="1">PROPER(TEXT(TODAY()+30, "MMMM"))</f>
-        <v>Outubro</v>
-      </c>
-      <c r="I11" s="70" t="e">
+        <v>Novembro</v>
+      </c>
+      <c r="I11" s="138">
         <f ca="1">VLOOKUP(Report!H11,Resume!$A$3:$I$14,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="72"/>
+        <v>500</v>
+      </c>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="71"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="134" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="72" t="e">
+      <c r="F12" s="135">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="69" t="e">
         <f>VLOOKUP(Report!H12,Resume!$A$3:$I$14,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="72"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="71"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="72" t="e">
+      <c r="B13" s="68"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="135">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="69" t="e">
         <f>VLOOKUP(Report!H13,Resume!$A$3:$I$14,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J13" s="72"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="72" t="e">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="135">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="69" t="e">
         <f>VLOOKUP(Report!H14,Resume!$A$3:$I$14,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="72"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="72" t="e">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="135">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="69" t="e">
         <f>VLOOKUP(Report!H15,Resume!$A$3:$I$14,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="72"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="2:10" ht="14.3" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="72" t="e">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="135">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="69" t="e">
         <f>VLOOKUP(Report!H16,Resume!$A$3:$I$14,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="72"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="2:10" ht="14.3" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="72" t="e">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="135">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="69" t="e">
         <f>VLOOKUP(Report!H17,Resume!$A$3:$I$14,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J17" s="72"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="2:10" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="77">
-        <f>SUM(F12:F17)</f>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="135">
+        <f ca="1">SUM(F12:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="19" spans="2:10" ht="14.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="115">
+      <c r="B19" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="110">
         <f>Resume!I15</f>
         <v>4695</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="79" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="80" t="e" vm="2">
+      <c r="F19" s="136">
         <f ca="1">SUM(_xlfn.ANCHORARRAY(F4))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
+        <v>900</v>
+      </c>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8541,15 +8538,15 @@
     </row>
     <row r="2" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="18"/>
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="136"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="135" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="136"/>
+      <c r="F2" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="131"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -8558,9 +8555,9 @@
     <row r="3" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B3" s="18"/>
       <c r="C3" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="108">
+        <v>46</v>
+      </c>
+      <c r="D3" s="103">
         <f>SUM('Net Salary'!C3:N8)</f>
         <v>14400</v>
       </c>
@@ -8569,7 +8566,7 @@
         <f>Expenses!C7</f>
         <v>Bills</v>
       </c>
-      <c r="G3" s="111">
+      <c r="G3" s="106">
         <f>SUM(Expenses!D7,Expenses!G7,Expenses!J7,Expenses!M7,Expenses!P7,Expenses!S7,Expenses!V7,Expenses!Y7,Expenses!AB7,Expenses!AE7,Expenses!AH7,Expenses!AK7)</f>
         <v>1500</v>
       </c>
@@ -8581,9 +8578,9 @@
     <row r="4" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B4" s="18"/>
       <c r="C4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="109">
+        <v>47</v>
+      </c>
+      <c r="D4" s="104">
         <f>SUM('Net Salary'!C13:N17)</f>
         <v>180</v>
       </c>
@@ -8592,7 +8589,7 @@
         <f>Expenses!C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="G4" s="111">
+      <c r="G4" s="106">
         <f>SUM(Expenses!D8,Expenses!G8,Expenses!J8,Expenses!M8,Expenses!P8,Expenses!S8,Expenses!V8,Expenses!Y8,Expenses!AB8,Expenses!AE8,Expenses!AH8,Expenses!AK8)</f>
         <v>990</v>
       </c>
@@ -8604,9 +8601,9 @@
     <row r="5" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B5" s="18"/>
       <c r="C5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="109">
+        <v>15</v>
+      </c>
+      <c r="D5" s="104">
         <f>SUM('Net Salary'!C3:N8)-SUM('Net Salary'!C10:N11)-SUM('Net Salary'!C13:N17)</f>
         <v>13330</v>
       </c>
@@ -8615,7 +8612,7 @@
         <f>Expenses!C9</f>
         <v>Clothing</v>
       </c>
-      <c r="G5" s="111">
+      <c r="G5" s="106">
         <f>SUM(Expenses!D9,Expenses!G9,Expenses!J9,Expenses!M9,Expenses!P9,Expenses!S9,Expenses!V9,Expenses!Y9,Expenses!AB9,Expenses!AE9,Expenses!AH9,Expenses!AK9)</f>
         <v>270</v>
       </c>
@@ -8627,9 +8624,9 @@
     <row r="6" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B6" s="18"/>
       <c r="C6" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="109">
+        <v>48</v>
+      </c>
+      <c r="D6" s="104">
         <f>SUM(Expenses!D7:D14,Expenses!G7:G14,Expenses!J7:J14,Expenses!M7:M14,Expenses!P7:P14,Expenses!S7:S14,Expenses!V7:V14,Expenses!Y7:Y14,Expenses!AB7:AB14,Expenses!AE7:AE14,Expenses!AH7:AH14,Expenses!AK7:AK14)</f>
         <v>8400</v>
       </c>
@@ -8638,7 +8635,7 @@
         <f>Expenses!C10</f>
         <v>Eletron n' games</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="106">
         <f>SUM(Expenses!D10,Expenses!G10,Expenses!J10,Expenses!M10,Expenses!P10,Expenses!S10,Expenses!V10,Expenses!Y10,Expenses!AB10,Expenses!AE10,Expenses!AH10,Expenses!AK10)</f>
         <v>360</v>
       </c>
@@ -8650,9 +8647,9 @@
     <row r="7" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B7" s="18"/>
       <c r="C7" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="109">
+        <v>49</v>
+      </c>
+      <c r="D7" s="104">
         <f>SUM(Expenses!D15:D20,Expenses!G15:G20,Expenses!J15:J20,Expenses!M15:M20,Expenses!P15:P20,Expenses!S15:S20,Expenses!V15:V20,Expenses!Y15:Y20,Expenses!AB15:AB20,Expenses!AE15:AE20,Expenses!AH15:AH20,Expenses!AK15:AK20)</f>
         <v>235</v>
       </c>
@@ -8661,7 +8658,7 @@
         <f>Expenses!C11</f>
         <v>Food</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G7" s="106">
         <f>SUM(Expenses!D11,Expenses!G11,Expenses!J11,Expenses!M11,Expenses!P11,Expenses!S11,Expenses!V11,Expenses!Y11,Expenses!AB11,Expenses!AE11,Expenses!AH11,Expenses!AK11)</f>
         <v>720</v>
       </c>
@@ -8673,9 +8670,9 @@
     <row r="8" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B8" s="18"/>
       <c r="C8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="109">
+        <v>50</v>
+      </c>
+      <c r="D8" s="104">
         <f>SUM(D6:D7)</f>
         <v>8635</v>
       </c>
@@ -8684,7 +8681,7 @@
         <f>Expenses!C12</f>
         <v>Gas</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="106">
         <f>SUM(Expenses!D12,Expenses!G12,Expenses!J12,Expenses!M12,Expenses!P12,Expenses!S12,Expenses!V12,Expenses!Y12,Expenses!AB12,Expenses!AE12,Expenses!AH12,Expenses!AK12)</f>
         <v>960</v>
       </c>
@@ -8696,9 +8693,9 @@
     <row r="9" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B9" s="18"/>
       <c r="C9" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="110">
+        <v>51</v>
+      </c>
+      <c r="D9" s="105">
         <f>Expenses!AK4</f>
         <v>4695</v>
       </c>
@@ -8707,7 +8704,7 @@
         <f>Expenses!C13</f>
         <v>Hang out</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="106">
         <f>SUM(Expenses!D13,Expenses!G13,Expenses!J13,Expenses!M13,Expenses!P13,Expenses!S13,Expenses!V13,Expenses!Y13,Expenses!AB13,Expenses!AE13,Expenses!AH13,Expenses!AK13)</f>
         <v>2400</v>
       </c>
@@ -8719,9 +8716,9 @@
     <row r="10" spans="2:13" ht="19.25" x14ac:dyDescent="0.4">
       <c r="B10" s="18"/>
       <c r="C10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="110">
+        <v>11</v>
+      </c>
+      <c r="D10" s="105">
         <f>SUM('Net Salary'!C11:N11)</f>
         <v>380</v>
       </c>
@@ -8730,7 +8727,7 @@
         <f>Expenses!C14</f>
         <v>Healthcare</v>
       </c>
-      <c r="G10" s="111">
+      <c r="G10" s="106">
         <f>SUM(Expenses!D14,Expenses!G14,Expenses!J14,Expenses!M14,Expenses!P14,Expenses!S14,Expenses!V14,Expenses!Y14,Expenses!AB14,Expenses!AE14,Expenses!AH14,Expenses!AK14)</f>
         <v>1200</v>
       </c>
@@ -8747,7 +8744,7 @@
       <c r="F11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="112">
+      <c r="G11" s="107">
         <f>SUM(G3:G10)</f>
         <v>8400</v>
       </c>

--- a/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
+++ b/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Python\Python\Projects\Automate_Python\Report_Budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Personal_Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12AD0CF-BC6B-4CD5-B8D5-C60DA41D855B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E7866B-FD13-42E3-AADD-1D04383DE004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,18 +72,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>Total</t>
   </si>
   <si>
     <t xml:space="preserve">Total </t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Valor</t>
   </si>
   <si>
     <t>1º Sem.</t>
@@ -170,12 +164,6 @@
     <t>Healthcare</t>
   </si>
   <si>
-    <t>G. Expenses</t>
-  </si>
-  <si>
-    <t>Months</t>
-  </si>
-  <si>
     <t>Net Salary</t>
   </si>
   <si>
@@ -241,6 +229,9 @@
   <si>
     <t>Dezembro</t>
   </si>
+  <si>
+    <t>General expen.</t>
+  </si>
 </sst>
 </file>
 
@@ -250,7 +241,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="mmmm"/>
     <numFmt numFmtId="165" formatCode="dd/mm"/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -565,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -722,47 +713,38 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -808,51 +790,48 @@
     <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -880,32 +859,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Comic Sans MS"/>
-        <family val="4"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -924,6 +877,32 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1418,7 +1397,7 @@
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,7 +2219,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>G. Expenses</c:v>
+                  <c:v>General expen.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2357,7 +2336,7 @@
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3461,10 +3440,10 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3778,7 +3757,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6576,8 +6555,8 @@
     <tableColumn id="6" xr3:uid="{23818CCC-08C7-4066-9B86-98D831460C75}" name="Operation" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{78815540-1C3C-4370-A3E4-1C8E033CFC39}" name="Category" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{F153B94E-6C60-4C63-A86C-8519A94E1F13}" name="Allocation" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{EE54C9A2-2D53-4D6A-93DF-88B691A8C3D9}" name="Amount" dataDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{28149A80-D409-4A63-B4C2-6EDA92C21F54}" name="Description" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{EE54C9A2-2D53-4D6A-93DF-88B691A8C3D9}" name="Amount" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{28149A80-D409-4A63-B4C2-6EDA92C21F54}" name="Description" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6895,30 +6874,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62" t="str">
+      <c r="B2" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111" t="str">
         <f ca="1">PROPER(TEXT(TODAY(),"MMMM"))</f>
         <v>Outubro</v>
       </c>
-      <c r="E2" s="62"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="48"/>
       <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="111" cm="1">
+        <v>33</v>
+      </c>
+      <c r="C3" s="105" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Allocation],B3,Tabela1[Date],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Allocation],B3,Tabela1[Date],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Amount],Tabela1[Category],B3,Tabela1[Date],"&lt;="&amp;(TODAY()))</f>
         <v>250</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="112">
+        <v>7</v>
+      </c>
+      <c r="E3" s="106">
         <f ca="1">VLOOKUP(D2,'Graphic - Annual'!A3:I14,8,FALSE)</f>
         <v>250</v>
       </c>
@@ -6926,16 +6905,16 @@
     </row>
     <row r="4" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="111" cm="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="105" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Allocation],B4,Tabela1[Date],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Allocation],B4,Tabela1[Date],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Amount],Tabela1[Category],B4,Tabela1[Date],"&lt;="&amp;(TODAY()))</f>
         <v>0</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="112">
+        <v>8</v>
+      </c>
+      <c r="E4" s="106">
         <f>'Graphic - Annual'!I15</f>
         <v>150</v>
       </c>
@@ -6944,16 +6923,16 @@
     </row>
     <row r="5" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="111" cm="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="105" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Allocation],B5,Tabela1[Date],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Allocation],B5,Tabela1[Date],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Amount],Tabela1[Category],B5,Tabela1[Date],"&lt;="&amp;(TODAY()))</f>
         <v>0</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="112">
+        <v>9</v>
+      </c>
+      <c r="E5" s="106">
         <f ca="1">VLOOKUP(D2,'Graphic - Annual'!A3:I14,9,FALSE)</f>
         <v>250</v>
       </c>
@@ -6964,14 +6943,14 @@
       <c r="B6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="105">
         <f ca="1">SUM(C3:C5)</f>
         <v>250</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="112">
+        <v>10</v>
+      </c>
+      <c r="E6" s="106">
         <f ca="1">ROUND(C6-E5,2)</f>
         <v>0</v>
       </c>
@@ -6989,7 +6968,7 @@
         <f>SUBTOTAL(2,Tabela1[Date])</f>
         <v>3</v>
       </c>
-      <c r="G8" s="120">
+      <c r="G8" s="110">
         <f>SUBTOTAL(9,Tabela1[Amount])</f>
         <v>350</v>
       </c>
@@ -6997,25 +6976,25 @@
     </row>
     <row r="9" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -7027,15 +7006,15 @@
         <v>Outubro</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="113">
+        <v>33</v>
+      </c>
+      <c r="G10" s="107">
         <v>250</v>
       </c>
       <c r="H10" s="46"/>
@@ -7049,15 +7028,15 @@
         <v>Dezembro</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="113">
+        <v>33</v>
+      </c>
+      <c r="G11" s="107">
         <v>50</v>
       </c>
       <c r="H11" s="46"/>
@@ -7071,30 +7050,30 @@
         <v>Dezembro</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="114">
+        <v>33</v>
+      </c>
+      <c r="G12" s="108">
         <v>50</v>
       </c>
       <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="116"/>
-      <c r="C13" s="117" t="str">
+      <c r="B13" s="43"/>
+      <c r="C13" s="44" t="str">
         <f>IF(ISBLANK(B13),"",PROPER(TEXT(B13,"MMMM")))</f>
         <v/>
       </c>
       <c r="D13" s="44"/>
-      <c r="E13" s="118"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="119"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="49" t="str">
@@ -9956,164 +9935,164 @@
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="111">
+        <v>13</v>
+      </c>
+      <c r="B4" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="111">
+      <c r="C4" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="111">
+      <c r="D4" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="111">
+      <c r="E4" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="111">
+      <c r="F4" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="111">
+      <c r="G4" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="115">
+      <c r="H4" s="109">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="111">
+      <c r="I4" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="111">
+      <c r="J4" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="111">
+      <c r="K4" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A4)</f>
         <v>250</v>
       </c>
-      <c r="L4" s="111">
+      <c r="L4" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="111">
+      <c r="M4" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="111">
+        <v>14</v>
+      </c>
+      <c r="B5" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="111">
+      <c r="D5" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="111">
+      <c r="E5" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="111">
+      <c r="F5" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="111">
+      <c r="G5" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="115">
+      <c r="H5" s="109">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="111">
+      <c r="I5" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="111">
+      <c r="J5" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="111">
+      <c r="K5" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="111">
+      <c r="L5" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="111">
+      <c r="M5" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="111">
+        <v>15</v>
+      </c>
+      <c r="B6" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="111">
+      <c r="D6" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="111">
+      <c r="F6" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="115">
+      <c r="H6" s="109">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="111">
+      <c r="J6" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="111">
+      <c r="L6" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="111">
+      <c r="M6" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
@@ -10135,7 +10114,7 @@
     </row>
     <row r="8" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -10152,159 +10131,159 @@
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="111">
+        <v>17</v>
+      </c>
+      <c r="B9" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="111">
+      <c r="D9" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="111">
+      <c r="E9" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="111">
+      <c r="F9" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="115">
+      <c r="H9" s="109">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="111">
+      <c r="I9" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="111">
+      <c r="J9" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="111">
+      <c r="K9" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="111">
+      <c r="L9" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="111">
+      <c r="M9" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="111">
+        <v>18</v>
+      </c>
+      <c r="B10" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="111">
+      <c r="D10" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="111">
+      <c r="E10" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="111">
+      <c r="F10" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="111">
+      <c r="G10" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="115">
+      <c r="H10" s="109">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="111">
+      <c r="I10" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="111">
+      <c r="J10" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="111">
+      <c r="K10" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="111">
+      <c r="L10" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="111">
+      <c r="M10" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="111">
+        <v>19</v>
+      </c>
+      <c r="B11" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="111">
+      <c r="D11" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="111">
+      <c r="E11" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="111">
+      <c r="F11" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="111">
+      <c r="G11" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="111">
+      <c r="H11" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="111">
+      <c r="I11" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="111">
+      <c r="J11" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="111">
+      <c r="K11" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="111">
+      <c r="L11" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="111">
+      <c r="M11" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
@@ -10326,7 +10305,7 @@
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -10343,106 +10322,106 @@
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="111">
+        <v>20</v>
+      </c>
+      <c r="B14" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="111">
+      <c r="C14" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="111">
+      <c r="D14" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="111">
+      <c r="E14" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="111">
+      <c r="F14" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="111">
+      <c r="I14" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="111">
+      <c r="J14" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="111">
+      <c r="K14" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="111">
+      <c r="L14" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="111">
+      <c r="M14" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="111">
+        <v>21</v>
+      </c>
+      <c r="B15" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="111">
+      <c r="C15" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="111">
+      <c r="D15" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="111">
+      <c r="E15" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="111">
+      <c r="F15" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="115">
+      <c r="H15" s="109">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="111">
+      <c r="I15" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="111">
+      <c r="J15" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="111">
+      <c r="K15" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="111">
+      <c r="L15" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="111">
+      <c r="M15" s="105">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
@@ -10466,52 +10445,52 @@
       <c r="A17" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="111">
-        <f>ROUND(SUM(B4:B6)-SUM(B14:B15)-SUM(B9:B11),2)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="111">
-        <f>ROUND(SUM(C4:C6)-SUM(C14:C15)-SUM(C9:C11),2)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="111">
-        <f>ROUND(SUM(D4:D6)-SUM(D14:D15)-SUM(D9:D11),2)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="111">
-        <f>ROUND(SUM(E4:E6)-SUM(E14:E15)-SUM(E9:E11),2)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="111">
-        <f>ROUND(SUM(F4:F6)-SUM(F14:F15)-SUM(F9:F11),2)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="111">
-        <f>ROUND(SUM(G4:G6)-SUM(G14:G15)-SUM(G9:G11),2)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="111">
-        <f>ROUND(SUM(H4:H6)-SUM(H14:H15)-SUM(H9:H11),2)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="111">
-        <f>ROUND(SUM(I4:I6)-SUM(I14:I15)-SUM(I9:I11),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="111">
-        <f>ROUND(SUM(J4:J6)-SUM(J14:J15)-SUM(J9:J11),2)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="111">
-        <f>ROUND(SUM(K4:K6)-SUM(K14:K15)-SUM(K9:K11),2)</f>
+      <c r="B17" s="105">
+        <f t="shared" ref="B17:M17" si="0">ROUND(SUM(B4:B6)-SUM(B14:B15)-SUM(B9:B11),2)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="105">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="L17" s="111">
-        <f>ROUND(SUM(L4:L6)-SUM(L14:L15)-SUM(L9:L11),2)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="111">
-        <f>ROUND(SUM(M4:M6)-SUM(M14:M15)-SUM(M9:M11),2)</f>
+      <c r="L17" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="105">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10570,232 +10549,232 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:37" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
-        <v>33</v>
+      <c r="A2" s="102" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="28"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80" t="str">
+      <c r="C2" s="76"/>
+      <c r="D2" s="77" t="str">
         <f>PROPER(TEXT("01/01","MMMM"))</f>
         <v>Janeiro</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82" t="str">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79" t="str">
         <f>PROPER(TEXT("1/02","MMMM"))</f>
         <v>Fevereiro</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="83" t="str">
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="80" t="str">
         <f>PROPER(TEXT("1/03","MMMM"))</f>
         <v>Março</v>
       </c>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82" t="str">
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79" t="str">
         <f>PROPER(TEXT("1/04","MMMM"))</f>
         <v>Abril</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="83" t="str">
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="80" t="str">
         <f>PROPER(TEXT("1/05","MMMM"))</f>
         <v>Maio</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="82" t="str">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79" t="str">
         <f>PROPER(TEXT("1/06","MMMM"))</f>
         <v>Junho</v>
       </c>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="83" t="str">
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="80" t="str">
         <f>PROPER(TEXT("1/07","MMMM"))</f>
         <v>Julho</v>
       </c>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="82" t="str">
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="79" t="str">
         <f>PROPER(TEXT("1/08","MMMM"))</f>
         <v>Agosto</v>
       </c>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="83" t="str">
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="80" t="str">
         <f>PROPER(TEXT("1/09","MMMM"))</f>
         <v>Setembro</v>
       </c>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82" t="str">
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="79" t="str">
         <f>PROPER(TEXT("1/10","MMMM"))</f>
         <v>Outubro</v>
       </c>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="83" t="str">
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="80" t="str">
         <f>PROPER(TEXT("1/11","MMMM"))</f>
         <v>Novembro</v>
       </c>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="82" t="str">
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="79" t="str">
         <f>PROPER(TEXT("1/12","MMMM"))</f>
         <v>Dezembro</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
-        <v>34</v>
+      <c r="A3" s="103" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="102">
+      <c r="C3" s="81"/>
+      <c r="D3" s="99">
         <f>'Map - Net Salary'!B17</f>
         <v>0</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="102">
+      <c r="E3" s="82"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="99">
         <f>'Map - Net Salary'!C17</f>
         <v>0</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="102">
+      <c r="H3" s="82"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="99">
         <f>'Map - Net Salary'!D17</f>
         <v>0</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="102">
+      <c r="K3" s="82"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="99">
         <f>'Map - Net Salary'!E17</f>
         <v>0</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="102">
+      <c r="N3" s="82"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="99">
         <f>'Map - Net Salary'!F17</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="102">
+      <c r="Q3" s="82"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="99">
         <f>'Map - Net Salary'!G17</f>
         <v>0</v>
       </c>
-      <c r="T3" s="85"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="102">
+      <c r="T3" s="82"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="99">
         <f>'Map - Net Salary'!H17</f>
         <v>0</v>
       </c>
-      <c r="W3" s="85"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="102">
+      <c r="W3" s="82"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="99">
         <f>'Map - Net Salary'!I17</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="102">
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="99">
         <f>'Map - Net Salary'!J17</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="102">
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="99">
         <f>'Map - Net Salary'!K17</f>
         <v>250</v>
       </c>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="102">
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="99">
         <f>'Map - Net Salary'!L17</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="102">
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="99">
         <f>'Map - Net Salary'!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
-        <v>6</v>
+      <c r="A4" s="103" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="103">
+      <c r="C4" s="83"/>
+      <c r="D4" s="100">
         <f>D3-(SUM(D7:D15))</f>
         <v>0</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="103">
+      <c r="E4" s="84"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="100">
         <f>G3-(SUM(G7:G15))+D4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="103">
+      <c r="H4" s="84"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="100">
         <f>J3-(SUM(J7:J15))+G4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="103">
+      <c r="K4" s="84"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="100">
         <f>M3-(SUM(M7:M15))+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="87"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="103">
+      <c r="N4" s="84"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="100">
         <f>P3-(SUM(P7:P15))+M4</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="103">
+      <c r="Q4" s="84"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="100">
         <f>S3-(SUM(S7:S15))+P4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="87"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="103">
+      <c r="T4" s="84"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="100">
         <f>V3-(SUM(V7:V15))+S4</f>
         <v>0</v>
       </c>
-      <c r="W4" s="87"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="103">
+      <c r="W4" s="84"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="100">
         <f>Y3-(SUM(Y7:Y15))+V4</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="103">
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="100">
         <f>AB3-(SUM(AB7:AB15))+Y4</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="103">
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="100">
         <f>AE3-(SUM(AE7:AE15))+AB4</f>
         <v>250</v>
       </c>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="103">
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="100">
         <f>AH3-(SUM(AH7:AH15))+AE4</f>
         <v>250</v>
       </c>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="103">
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="100">
         <f>AK3-SUM(AK7:AK15)+AH4</f>
         <v>150</v>
       </c>
@@ -10803,930 +10782,930 @@
     <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="88"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="88"/>
-      <c r="O6" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" s="88"/>
-      <c r="U6" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="V6" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="W6" s="88"/>
-      <c r="X6" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="88"/>
-      <c r="AJ6" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK6" s="92" t="s">
-        <v>3</v>
+      <c r="E6" s="85"/>
+      <c r="F6" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="85"/>
+      <c r="L6" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="85"/>
+      <c r="O6" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="85"/>
+      <c r="U6" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="85"/>
+      <c r="X6" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE6" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH6" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI6" s="85"/>
+      <c r="AJ6" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK6" s="89" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="102">
+      <c r="C7" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="94" t="str" cm="1">
+      <c r="E7" s="82"/>
+      <c r="F7" s="91" t="str" cm="1">
         <f t="array" ref="F7:F15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="G7" s="105">
+      <c r="G7" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="93" t="str" cm="1">
+      <c r="H7" s="82"/>
+      <c r="I7" s="90" t="str" cm="1">
         <f t="array" ref="I7:I15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="J7" s="102">
+      <c r="J7" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="85"/>
-      <c r="L7" s="94" t="str" cm="1">
+      <c r="K7" s="82"/>
+      <c r="L7" s="91" t="str" cm="1">
         <f t="array" ref="L7:L15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="M7" s="105">
+      <c r="M7" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="85"/>
-      <c r="O7" s="93" t="str" cm="1">
+      <c r="N7" s="82"/>
+      <c r="O7" s="90" t="str" cm="1">
         <f t="array" ref="O7:O15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="P7" s="102">
+      <c r="P7" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O7)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="94" t="str" cm="1">
+      <c r="Q7" s="82"/>
+      <c r="R7" s="91" t="str" cm="1">
         <f t="array" ref="R7:R15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="S7" s="105">
+      <c r="S7" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R7)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="85"/>
-      <c r="U7" s="93" t="str" cm="1">
+      <c r="T7" s="82"/>
+      <c r="U7" s="90" t="str" cm="1">
         <f t="array" ref="U7:U15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="V7" s="102">
+      <c r="V7" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U7)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="85"/>
-      <c r="X7" s="94" t="str" cm="1">
+      <c r="W7" s="82"/>
+      <c r="X7" s="91" t="str" cm="1">
         <f t="array" ref="X7:X15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="Y7" s="105">
+      <c r="Y7" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X7)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="93" t="str" cm="1">
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="90" t="str" cm="1">
         <f t="array" ref="AA7:AA15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="AB7" s="102">
+      <c r="AB7" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA7)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="94" t="str" cm="1">
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="91" t="str" cm="1">
         <f t="array" ref="AD7:AD15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="AE7" s="105">
+      <c r="AE7" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD7)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="93" t="str" cm="1">
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="90" t="str" cm="1">
         <f t="array" ref="AG7:AG15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="AH7" s="102">
+      <c r="AH7" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG7)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="94" t="str" cm="1">
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="91" t="str" cm="1">
         <f t="array" ref="AJ7:AJ15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="AK7" s="105">
+      <c r="AK7" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ7)</f>
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="25"/>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="82"/>
+      <c r="F8" s="91" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="G8" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="82"/>
+      <c r="I8" s="90" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="J8" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="82"/>
+      <c r="L8" s="91" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="M8" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="82"/>
+      <c r="O8" s="90" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="P8" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="91" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="S8" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R8)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="82"/>
+      <c r="U8" s="90" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="V8" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U8)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="82"/>
+      <c r="X8" s="91" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="Y8" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="90" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="AB8" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="91" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="AE8" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="90" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="AH8" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG8)</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="91" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="AK8" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="114"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="82"/>
+      <c r="F9" s="91" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="G9" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="82"/>
+      <c r="I9" s="90" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="J9" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="82"/>
+      <c r="L9" s="91" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="M9" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L9)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="82"/>
+      <c r="O9" s="90" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="P9" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="91" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="S9" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R9)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="82"/>
+      <c r="U9" s="90" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="V9" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U9)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="82"/>
+      <c r="X9" s="91" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="Y9" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X9)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="90" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="AB9" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="91" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="AE9" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD9)</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="90" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="AH9" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG9)</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="91" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="AK9" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C8)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="94" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="G8" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F8)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="93" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="J8" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I8)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="85"/>
-      <c r="L8" s="94" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="M8" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L8)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="85"/>
-      <c r="O8" s="93" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="P8" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O8)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="94" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="S8" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R8)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="85"/>
-      <c r="U8" s="93" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="V8" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U8)</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="85"/>
-      <c r="X8" s="94" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="Y8" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X8)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="93" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="AB8" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA8)</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="94" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="AE8" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD8)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="93" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="AH8" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG8)</f>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="94" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="AK8" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ8)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="96" t="s">
+      <c r="D10" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="82"/>
+      <c r="F10" s="91" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="G10" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="82"/>
+      <c r="I10" s="90" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="J10" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="82"/>
+      <c r="L10" s="91" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="M10" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L10)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="82"/>
+      <c r="O10" s="90" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="P10" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="91" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="S10" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R10)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="82"/>
+      <c r="U10" s="90" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="V10" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U10)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="82"/>
+      <c r="X10" s="91" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="Y10" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="90" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="AB10" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="91" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="AE10" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="90" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="AH10" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="91" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="AK10" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="114"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="94" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="G9" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F9)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="93" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="J9" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I9)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="94" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="M9" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L9)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="85"/>
-      <c r="O9" s="93" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="P9" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O9)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="94" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="S9" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R9)</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="85"/>
-      <c r="U9" s="93" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="V9" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U9)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="85"/>
-      <c r="X9" s="94" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="Y9" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X9)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="93" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="AB9" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA9)</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="94" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="AE9" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD9)</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="93" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="AH9" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG9)</f>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="85"/>
-      <c r="AJ9" s="94" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="AK9" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="95" t="s">
+      <c r="D11" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="82"/>
+      <c r="F11" s="91" t="str">
+        <v>Food</v>
+      </c>
+      <c r="G11" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="82"/>
+      <c r="I11" s="90" t="str">
+        <v>Food</v>
+      </c>
+      <c r="J11" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="82"/>
+      <c r="L11" s="91" t="str">
+        <v>Food</v>
+      </c>
+      <c r="M11" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="82"/>
+      <c r="O11" s="90" t="str">
+        <v>Food</v>
+      </c>
+      <c r="P11" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="91" t="str">
+        <v>Food</v>
+      </c>
+      <c r="S11" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R11)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="82"/>
+      <c r="U11" s="90" t="str">
+        <v>Food</v>
+      </c>
+      <c r="V11" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U11)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="82"/>
+      <c r="X11" s="91" t="str">
+        <v>Food</v>
+      </c>
+      <c r="Y11" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X11)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="90" t="str">
+        <v>Food</v>
+      </c>
+      <c r="AB11" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="91" t="str">
+        <v>Food</v>
+      </c>
+      <c r="AE11" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD11)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="90" t="str">
+        <v>Food</v>
+      </c>
+      <c r="AH11" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG11)</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="91" t="str">
+        <v>Food</v>
+      </c>
+      <c r="AK11" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="114"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C10)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="94" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="G10" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F10)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="93" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="J10" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I10)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="94" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="M10" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L10)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="85"/>
-      <c r="O10" s="93" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="P10" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="94" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="S10" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R10)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="85"/>
-      <c r="U10" s="93" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="V10" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U10)</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="85"/>
-      <c r="X10" s="94" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="Y10" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="93" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="AB10" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA10)</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="94" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="AE10" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD10)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="93" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="AH10" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG10)</f>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="85"/>
-      <c r="AJ10" s="94" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="AK10" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="93" t="s">
+      <c r="D12" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="82"/>
+      <c r="F12" s="91" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="G12" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="82"/>
+      <c r="I12" s="90" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="J12" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="82"/>
+      <c r="L12" s="91" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="M12" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="82"/>
+      <c r="O12" s="90" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="P12" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="91" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="S12" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R12)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="82"/>
+      <c r="U12" s="90" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="V12" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U12)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="82"/>
+      <c r="X12" s="91" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="Y12" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="90" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="AB12" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="91" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="AE12" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD12)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="90" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="AH12" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG12)</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="91" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="AK12" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="114"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="94" t="str">
-        <v>Food</v>
-      </c>
-      <c r="G11" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="93" t="str">
-        <v>Food</v>
-      </c>
-      <c r="J11" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I11)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="85"/>
-      <c r="L11" s="94" t="str">
-        <v>Food</v>
-      </c>
-      <c r="M11" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L11)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="85"/>
-      <c r="O11" s="93" t="str">
-        <v>Food</v>
-      </c>
-      <c r="P11" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="94" t="str">
-        <v>Food</v>
-      </c>
-      <c r="S11" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R11)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="85"/>
-      <c r="U11" s="93" t="str">
-        <v>Food</v>
-      </c>
-      <c r="V11" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U11)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="85"/>
-      <c r="X11" s="94" t="str">
-        <v>Food</v>
-      </c>
-      <c r="Y11" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="93" t="str">
-        <v>Food</v>
-      </c>
-      <c r="AB11" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="94" t="str">
-        <v>Food</v>
-      </c>
-      <c r="AE11" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="93" t="str">
-        <v>Food</v>
-      </c>
-      <c r="AH11" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG11)</f>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="94" t="str">
-        <v>Food</v>
-      </c>
-      <c r="AK11" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="96" t="s">
+      <c r="D13" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="82"/>
+      <c r="F13" s="91" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="G13" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="82"/>
+      <c r="I13" s="90" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="J13" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="82"/>
+      <c r="L13" s="91" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="M13" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L13)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="82"/>
+      <c r="O13" s="90" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="P13" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="91" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="S13" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R13)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="82"/>
+      <c r="U13" s="90" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="V13" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U13)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="82"/>
+      <c r="X13" s="91" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="Y13" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="90" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="AB13" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="91" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="AE13" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD13)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="90" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="AH13" s="99">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="91" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="AK13" s="101">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="114"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C12)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="94" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="G12" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F12)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="93" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="J12" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="85"/>
-      <c r="L12" s="94" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="M12" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L12)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="85"/>
-      <c r="O12" s="93" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="P12" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="94" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="S12" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R12)</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="85"/>
-      <c r="U12" s="93" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="V12" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U12)</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="85"/>
-      <c r="X12" s="94" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="Y12" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X12)</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="93" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="AB12" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA12)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="94" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="AE12" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD12)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="93" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="AH12" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG12)</f>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="94" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="AK12" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C13)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="94" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="G13" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F13)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="85"/>
-      <c r="I13" s="93" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="J13" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I13)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="85"/>
-      <c r="L13" s="94" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="M13" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L13)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="85"/>
-      <c r="O13" s="93" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="P13" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O13)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="94" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="S13" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R13)</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="85"/>
-      <c r="U13" s="93" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="V13" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U13)</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="85"/>
-      <c r="X13" s="94" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="Y13" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X13)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="93" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="AB13" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA13)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="94" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="AE13" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD13)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="93" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="AH13" s="102">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG13)</f>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="85"/>
-      <c r="AJ13" s="94" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="AK13" s="105">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="102">
+      <c r="D14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="94" t="str">
+      <c r="E14" s="82"/>
+      <c r="F14" s="91" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="G14" s="105">
+      <c r="G14" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="93" t="str">
+      <c r="H14" s="82"/>
+      <c r="I14" s="90" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="J14" s="102">
+      <c r="J14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I14)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="85"/>
-      <c r="L14" s="94" t="str">
+      <c r="K14" s="82"/>
+      <c r="L14" s="91" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="M14" s="105">
+      <c r="M14" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="85"/>
-      <c r="O14" s="93" t="str">
+      <c r="N14" s="82"/>
+      <c r="O14" s="90" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="P14" s="102">
+      <c r="P14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O14)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="94" t="str">
+      <c r="Q14" s="82"/>
+      <c r="R14" s="91" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="S14" s="105">
+      <c r="S14" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R14)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="85"/>
-      <c r="U14" s="93" t="str">
+      <c r="T14" s="82"/>
+      <c r="U14" s="90" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="V14" s="102">
+      <c r="V14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U14)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="85"/>
-      <c r="X14" s="94" t="str">
+      <c r="W14" s="82"/>
+      <c r="X14" s="91" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="Y14" s="105">
+      <c r="Y14" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X14)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="93" t="str">
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="90" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="AB14" s="102">
+      <c r="AB14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA14)</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="94" t="str">
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="91" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="AE14" s="105">
+      <c r="AE14" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD14)</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="93" t="str">
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="90" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="AH14" s="102">
+      <c r="AH14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG14)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="85"/>
-      <c r="AJ14" s="94" t="str">
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="91" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="AK14" s="105">
+      <c r="AK14" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ14)</f>
         <v>0</v>
       </c>
@@ -11734,217 +11713,217 @@
     <row r="15" spans="1:37" ht="17.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="102">
+      <c r="C15" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="94" t="str">
-        <v>G. Expenses</v>
-      </c>
-      <c r="G15" s="105">
+      <c r="E15" s="82"/>
+      <c r="F15" s="91" t="str">
+        <v>General expen.</v>
+      </c>
+      <c r="G15" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="93" t="str">
-        <v>G. Expenses</v>
-      </c>
-      <c r="J15" s="102">
+      <c r="H15" s="82"/>
+      <c r="I15" s="90" t="str">
+        <v>General expen.</v>
+      </c>
+      <c r="J15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I15)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="85"/>
-      <c r="L15" s="94" t="str">
-        <v>G. Expenses</v>
-      </c>
-      <c r="M15" s="105">
+      <c r="K15" s="82"/>
+      <c r="L15" s="91" t="str">
+        <v>General expen.</v>
+      </c>
+      <c r="M15" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L15)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="85"/>
-      <c r="O15" s="93" t="str">
-        <v>G. Expenses</v>
-      </c>
-      <c r="P15" s="102">
+      <c r="N15" s="82"/>
+      <c r="O15" s="90" t="str">
+        <v>General expen.</v>
+      </c>
+      <c r="P15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O15)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="94" t="str">
-        <v>G. Expenses</v>
-      </c>
-      <c r="S15" s="105">
+      <c r="Q15" s="82"/>
+      <c r="R15" s="91" t="str">
+        <v>General expen.</v>
+      </c>
+      <c r="S15" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R15)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="85"/>
-      <c r="U15" s="93" t="str">
-        <v>G. Expenses</v>
-      </c>
-      <c r="V15" s="102">
+      <c r="T15" s="82"/>
+      <c r="U15" s="90" t="str">
+        <v>General expen.</v>
+      </c>
+      <c r="V15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U15)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="85"/>
-      <c r="X15" s="94" t="str">
-        <v>G. Expenses</v>
-      </c>
-      <c r="Y15" s="105">
+      <c r="W15" s="82"/>
+      <c r="X15" s="91" t="str">
+        <v>General expen.</v>
+      </c>
+      <c r="Y15" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X15)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="93" t="str">
-        <v>G. Expenses</v>
-      </c>
-      <c r="AB15" s="102">
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="90" t="str">
+        <v>General expen.</v>
+      </c>
+      <c r="AB15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA15)</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="94" t="str">
-        <v>G. Expenses</v>
-      </c>
-      <c r="AE15" s="105">
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="91" t="str">
+        <v>General expen.</v>
+      </c>
+      <c r="AE15" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD15)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="93" t="str">
-        <v>G. Expenses</v>
-      </c>
-      <c r="AH15" s="102">
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="90" t="str">
+        <v>General expen.</v>
+      </c>
+      <c r="AH15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG15)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="85"/>
-      <c r="AJ15" s="94" t="str">
-        <v>G. Expenses</v>
-      </c>
-      <c r="AK15" s="105">
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="91" t="str">
+        <v>General expen.</v>
+      </c>
+      <c r="AK15" s="101">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ15)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="100"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="98"/>
-      <c r="AK16" s="99"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="96"/>
     </row>
     <row r="17" spans="1:37" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="104" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="104">
+      <c r="C17" s="112">
         <f>SUM(D7:D15)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="106">
+      <c r="D17" s="112"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="113">
         <f>SUM(G7:G15)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="104">
+      <c r="G17" s="113"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="112">
         <f>SUM(J7:J15)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="104"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="106">
+      <c r="J17" s="112"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="113">
         <f>SUM(M7:M15)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="106"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="104">
+      <c r="M17" s="113"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="112">
         <f>SUM(P7:P15)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="106">
+      <c r="P17" s="112"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="113">
         <f>SUM(S7:S15)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="106"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="104">
+      <c r="S17" s="113"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="112">
         <f>SUM(V7:V15)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="104"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="106">
+      <c r="V17" s="112"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="113">
         <f>SUM(Y7:Y15)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="104">
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="112">
         <f>SUM(AB7:AB15)</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="106">
+      <c r="AB17" s="112"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="113">
         <f>SUM(AE7:AE15)</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="106"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="104">
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="112">
         <f>SUM(AH7:AH15)</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="104"/>
-      <c r="AI17" s="101"/>
-      <c r="AJ17" s="106">
+      <c r="AH17" s="112"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="113">
         <f>SUM(AK7:AK15)</f>
         <v>100</v>
       </c>
-      <c r="AK17" s="106"/>
+      <c r="AK17" s="113"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D15">
@@ -11959,6 +11938,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AJ17:AK17"/>
@@ -11967,11 +11951,6 @@
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="iconSet" priority="1">
@@ -12020,19 +11999,19 @@
   <sheetData>
     <row r="2" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="59" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="61" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="23"/>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
@@ -12043,28 +12022,28 @@
         <f t="array" ref="E4:E12">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="F4" s="65" cm="1">
+      <c r="F4" s="62" cm="1">
         <f t="array" ref="F4:F12">_xlfn._xlws.FILTER('Map - Expenses'!D7:AK15,'Map - Expenses'!D2:AK2=B3)</f>
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="13.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="66">
+      <c r="B5" s="63">
         <f>SUM(F4:F12)</f>
         <v>100</v>
       </c>
       <c r="E5" s="2" t="str">
         <v>Car maintenance</v>
       </c>
-      <c r="F5" s="65">
-        <v>50</v>
+      <c r="F5" s="62">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="str">
         <v>Clothing</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="62">
         <v>0</v>
       </c>
     </row>
@@ -12072,7 +12051,7 @@
       <c r="E7" s="2" t="str">
         <v>Eletron n' games</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="62">
         <v>0</v>
       </c>
     </row>
@@ -12080,7 +12059,7 @@
       <c r="E8" s="2" t="str">
         <v>Food</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="62">
         <v>0</v>
       </c>
     </row>
@@ -12088,7 +12067,7 @@
       <c r="E9" s="2" t="str">
         <v>Gas</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="62">
         <v>0</v>
       </c>
     </row>
@@ -12096,7 +12075,7 @@
       <c r="E10" s="2" t="str">
         <v>Hang out</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="62">
         <v>0</v>
       </c>
     </row>
@@ -12104,16 +12083,16 @@
       <c r="E11" s="2" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="str">
-        <v>G. Expenses</v>
-      </c>
-      <c r="F12" s="65">
-        <v>0</v>
+        <v>General expen.</v>
+      </c>
+      <c r="F12" s="62">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -12168,36 +12147,36 @@
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="64"/>
+      <c r="K2" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="116"/>
       <c r="M2" s="52"/>
-      <c r="N2" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="64"/>
+      <c r="N2" s="115" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="116"/>
       <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
@@ -12206,33 +12185,33 @@
         <v>Janeiro</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="67">
+      <c r="C3" s="64">
         <f>'Map - Net Salary'!B17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="65">
         <f>SUM('Map - Net Salary'!B14:B15)</f>
         <v>0</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="69">
+      <c r="F3" s="66">
         <f>SUM('Map - Expenses'!C17:C17)</f>
         <v>0</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="67">
+      <c r="H3" s="64">
         <f>I3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="67">
         <f>'Map - Expenses'!D4</f>
         <v>0</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="68">
+        <v>42</v>
+      </c>
+      <c r="L3" s="65">
         <f>SUM('Map - Net Salary'!B4:M6)</f>
         <v>250</v>
       </c>
@@ -12241,7 +12220,7 @@
         <f>'Map - Expenses'!C7</f>
         <v>Bills</v>
       </c>
-      <c r="O3" s="71">
+      <c r="O3" s="68">
         <f>SUM('Map - Expenses'!D7,'Map - Expenses'!G7,'Map - Expenses'!J7,'Map - Expenses'!M7,'Map - Expenses'!P7,'Map - Expenses'!S7,'Map - Expenses'!V7,'Map - Expenses'!Y7,'Map - Expenses'!AB7,'Map - Expenses'!AE7,'Map - Expenses'!AH7,'Map - Expenses'!AK7)</f>
         <v>50</v>
       </c>
@@ -12253,33 +12232,33 @@
         <v>Fevereiro</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="67">
+      <c r="C4" s="64">
         <f>'Map - Net Salary'!C17</f>
         <v>0</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="65">
         <f>SUM('Map - Net Salary'!C14:C15)</f>
         <v>0</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="69">
+      <c r="F4" s="66">
         <f>SUM('Map - Expenses'!F17:G17)</f>
         <v>0</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="67">
+      <c r="H4" s="64">
         <f t="shared" ref="H4:H14" si="0">I4-I3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="67">
         <f>'Map - Expenses'!G4</f>
         <v>0</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="68">
+        <v>16</v>
+      </c>
+      <c r="L4" s="65">
         <f>SUM('Map - Net Salary'!B9:M11)</f>
         <v>0</v>
       </c>
@@ -12288,9 +12267,9 @@
         <f>'Map - Expenses'!C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="O4" s="71">
+      <c r="O4" s="68">
         <f>SUM('Map - Expenses'!D8,'Map - Expenses'!G8,'Map - Expenses'!J8,'Map - Expenses'!M8,'Map - Expenses'!P8,'Map - Expenses'!S8,'Map - Expenses'!V8,'Map - Expenses'!Y8,'Map - Expenses'!AB8,'Map - Expenses'!AE8,'Map - Expenses'!AH8,'Map - Expenses'!AK8)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P4" s="53"/>
     </row>
@@ -12300,33 +12279,33 @@
         <v>Março</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="67">
+      <c r="C5" s="64">
         <f>'Map - Net Salary'!D17</f>
         <v>0</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="65">
         <f>SUM('Map - Net Salary'!D14:D15)</f>
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="69">
+      <c r="F5" s="66">
         <f>SUM('Map - Expenses'!I17:J17)</f>
         <v>0</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="67">
+      <c r="H5" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="67">
         <f>'Map - Expenses'!J4</f>
         <v>0</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="68">
+        <v>38</v>
+      </c>
+      <c r="L5" s="65">
         <f>SUM('Map - Net Salary'!B4:M6)-SUM('Map - Net Salary'!B13:M15)-SUM('Map - Net Salary'!B9:M11)</f>
         <v>250</v>
       </c>
@@ -12335,7 +12314,7 @@
         <f>'Map - Expenses'!C9</f>
         <v>Clothing</v>
       </c>
-      <c r="O5" s="71">
+      <c r="O5" s="68">
         <f>SUM('Map - Expenses'!D9,'Map - Expenses'!G9,'Map - Expenses'!J9,'Map - Expenses'!M9,'Map - Expenses'!P9,'Map - Expenses'!S9,'Map - Expenses'!V9,'Map - Expenses'!Y9,'Map - Expenses'!AB9,'Map - Expenses'!AE9,'Map - Expenses'!AH9,'Map - Expenses'!AK9)</f>
         <v>0</v>
       </c>
@@ -12347,42 +12326,42 @@
         <v>Abril</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="67">
+      <c r="C6" s="64">
         <f>'Map - Net Salary'!E17</f>
         <v>0</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="65">
         <f>SUM('Map - Net Salary'!E14:E15)</f>
         <v>0</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="69">
+      <c r="F6" s="66">
         <f>SUM('Map - Expenses'!L17:M17)</f>
         <v>0</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="67">
+      <c r="H6" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="67">
         <f>'Map - Expenses'!M4</f>
         <v>0</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="68">
+        <v>43</v>
+      </c>
+      <c r="L6" s="65">
         <f>SUM('Map - Expenses'!D7:D14,'Map - Expenses'!G7:G14,'Map - Expenses'!J7:J14,'Map - Expenses'!M7:M14,'Map - Expenses'!P7:P14,'Map - Expenses'!S7:S14,'Map - Expenses'!V7:V14,'Map - Expenses'!Y7:Y14,'Map - Expenses'!AB7:AB14,'Map - Expenses'!AE7:AE14,'Map - Expenses'!AH7:AH14,'Map - Expenses'!AK7:AK14)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="57" t="str">
         <f>'Map - Expenses'!C10</f>
         <v>Eletron n' games</v>
       </c>
-      <c r="O6" s="71">
+      <c r="O6" s="68">
         <f>SUM('Map - Expenses'!D10,'Map - Expenses'!G10,'Map - Expenses'!J10,'Map - Expenses'!M10,'Map - Expenses'!P10,'Map - Expenses'!S10,'Map - Expenses'!V10,'Map - Expenses'!Y10,'Map - Expenses'!AB10,'Map - Expenses'!AE10,'Map - Expenses'!AH10,'Map - Expenses'!AK10)</f>
         <v>0</v>
       </c>
@@ -12394,42 +12373,42 @@
         <v>Maio</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="67">
+      <c r="C7" s="64">
         <f>'Map - Net Salary'!F17</f>
         <v>0</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="65">
         <f>SUM('Map - Net Salary'!F14:F15)</f>
         <v>0</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="69">
+      <c r="F7" s="66">
         <f>SUM('Map - Expenses'!O17:P17)</f>
         <v>0</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="67">
+      <c r="H7" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="67">
         <f>'Map - Expenses'!P4</f>
         <v>0</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="68">
+        <v>44</v>
+      </c>
+      <c r="L7" s="65">
         <f>SUM('Map - Expenses'!D15:D15,'Map - Expenses'!G15:G15,'Map - Expenses'!J15:J15,'Map - Expenses'!M15:M15,'Map - Expenses'!P15:P15,'Map - Expenses'!S15:S15,'Map - Expenses'!V15:V15,'Map - Expenses'!Y15:Y15,'Map - Expenses'!AB15:AB15,'Map - Expenses'!AE15:AE15,'Map - Expenses'!AH15:AH15,'Map - Expenses'!AK15:AK15)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="57" t="str">
         <f>'Map - Expenses'!C11</f>
         <v>Food</v>
       </c>
-      <c r="O7" s="71">
+      <c r="O7" s="68">
         <f>SUM('Map - Expenses'!D11,'Map - Expenses'!G11,'Map - Expenses'!J11,'Map - Expenses'!M11,'Map - Expenses'!P11,'Map - Expenses'!S11,'Map - Expenses'!V11,'Map - Expenses'!Y11,'Map - Expenses'!AB11,'Map - Expenses'!AE11,'Map - Expenses'!AH11,'Map - Expenses'!AK11)</f>
         <v>0</v>
       </c>
@@ -12441,33 +12420,33 @@
         <v>Junho</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="67">
+      <c r="C8" s="64">
         <f>'Map - Net Salary'!G17</f>
         <v>0</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="65">
         <f>SUM('Map - Net Salary'!G15:G49)</f>
         <v>0</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="69">
+      <c r="F8" s="66">
         <f>SUM('Map - Expenses'!R17:S17)</f>
         <v>0</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="67">
+      <c r="H8" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="70">
+      <c r="I8" s="67">
         <f>'Map - Expenses'!S4</f>
         <v>0</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="68">
+        <v>45</v>
+      </c>
+      <c r="L8" s="65">
         <f>SUM(L6:L7)</f>
         <v>100</v>
       </c>
@@ -12476,7 +12455,7 @@
         <f>'Map - Expenses'!C12</f>
         <v>Gas</v>
       </c>
-      <c r="O8" s="71">
+      <c r="O8" s="68">
         <f>SUM('Map - Expenses'!D12,'Map - Expenses'!G12,'Map - Expenses'!J12,'Map - Expenses'!M12,'Map - Expenses'!P12,'Map - Expenses'!S12,'Map - Expenses'!V12,'Map - Expenses'!Y12,'Map - Expenses'!AB12,'Map - Expenses'!AE12,'Map - Expenses'!AH12,'Map - Expenses'!AK12)</f>
         <v>0</v>
       </c>
@@ -12488,33 +12467,33 @@
         <v>Julho</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="67">
+      <c r="C9" s="64">
         <f>'Map - Net Salary'!H17</f>
         <v>0</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="65">
         <f>SUM('Map - Net Salary'!H14:H15)</f>
         <v>0</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="69">
+      <c r="F9" s="66">
         <f>SUM('Map - Expenses'!U17:V17)</f>
         <v>0</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="67">
+      <c r="H9" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="67">
         <f>'Map - Expenses'!V4</f>
         <v>0</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="70">
+        <v>46</v>
+      </c>
+      <c r="L9" s="67">
         <f>'Map - Expenses'!AK4</f>
         <v>150</v>
       </c>
@@ -12523,7 +12502,7 @@
         <f>'Map - Expenses'!C13</f>
         <v>Hang out</v>
       </c>
-      <c r="O9" s="71">
+      <c r="O9" s="68">
         <f>SUM('Map - Expenses'!D13,'Map - Expenses'!G13,'Map - Expenses'!J13,'Map - Expenses'!M13,'Map - Expenses'!P13,'Map - Expenses'!S13,'Map - Expenses'!V13,'Map - Expenses'!Y13,'Map - Expenses'!AB13,'Map - Expenses'!AE13,'Map - Expenses'!AH13,'Map - Expenses'!AK13)</f>
         <v>0</v>
       </c>
@@ -12535,33 +12514,33 @@
         <v>Agosto</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="67">
+      <c r="C10" s="64">
         <f>'Map - Net Salary'!I17</f>
         <v>0</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="65">
         <f>SUM('Map - Net Salary'!I14:I15)</f>
         <v>0</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="69">
+      <c r="F10" s="66">
         <f>SUM('Map - Expenses'!X17:Y17)</f>
         <v>0</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="67">
+      <c r="H10" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="67">
         <f>'Map - Expenses'!Y4</f>
         <v>0</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="72">
+        <v>11</v>
+      </c>
+      <c r="L10" s="69">
         <f>'Graphic - Annual'!D15</f>
         <v>0</v>
       </c>
@@ -12570,7 +12549,7 @@
         <f>'Map - Expenses'!C14</f>
         <v>Healthcare</v>
       </c>
-      <c r="O10" s="71">
+      <c r="O10" s="68">
         <f>SUM('Map - Expenses'!D14,'Map - Expenses'!G14,'Map - Expenses'!J14,'Map - Expenses'!M14,'Map - Expenses'!P14,'Map - Expenses'!S14,'Map - Expenses'!V14,'Map - Expenses'!Y14,'Map - Expenses'!AB14,'Map - Expenses'!AE14,'Map - Expenses'!AH14,'Map - Expenses'!AK14)</f>
         <v>0</v>
       </c>
@@ -12582,25 +12561,25 @@
         <v>Setembro</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="67">
+      <c r="C11" s="64">
         <f>'Map - Net Salary'!J17</f>
         <v>0</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="65">
         <f>SUM('Map - Net Salary'!J14:J15)</f>
         <v>0</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="69">
+      <c r="F11" s="66">
         <f>SUM('Map - Expenses'!AA17:AB17)</f>
         <v>0</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="67">
+      <c r="H11" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="67">
         <f>'Map - Expenses'!AB4</f>
         <v>0</v>
       </c>
@@ -12611,9 +12590,9 @@
       <c r="N11" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="73">
+      <c r="O11" s="70">
         <f>SUM(O3:O10)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P11" s="53"/>
     </row>
@@ -12623,25 +12602,25 @@
         <v>Outubro</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="67">
+      <c r="C12" s="64">
         <f>'Map - Net Salary'!K17</f>
         <v>250</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="65">
         <f>SUM('Map - Net Salary'!K14:K15)</f>
         <v>0</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="69">
+      <c r="F12" s="66">
         <f>SUM('Map - Expenses'!AD17:AE17)</f>
         <v>0</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="67">
+      <c r="H12" s="64">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="67">
         <f>'Map - Expenses'!AE4</f>
         <v>250</v>
       </c>
@@ -12659,25 +12638,25 @@
         <v>Novembro</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="67">
+      <c r="C13" s="64">
         <f>'Map - Net Salary'!L17</f>
         <v>0</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="65">
         <f>SUM('Map - Net Salary'!L14:L15)</f>
         <v>0</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="69">
+      <c r="F13" s="66">
         <f>SUM('Map - Expenses'!AG17:AH17)</f>
         <v>0</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="67">
+      <c r="H13" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="67">
         <f>'Map - Expenses'!AH4</f>
         <v>250</v>
       </c>
@@ -12695,25 +12674,25 @@
         <v>Dezembro</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="67">
+      <c r="C14" s="64">
         <f>'Map - Net Salary'!M17</f>
         <v>0</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="65">
         <f>SUM('Map - Net Salary'!M14:M15)</f>
         <v>0</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="69">
+      <c r="F14" s="66">
         <f>SUM('Map - Expenses'!AJ17:AK17)</f>
         <v>100</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="67">
+      <c r="H14" s="64">
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="I14" s="70">
+      <c r="I14" s="67">
         <f>'Map - Expenses'!AK4</f>
         <v>150</v>
       </c>
@@ -12730,24 +12709,24 @@
         <v>1</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="74">
+      <c r="C15" s="71">
         <f>SUM(C3:C14)</f>
         <v>250</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="65">
         <f>SUM(D3:D14)</f>
         <v>0</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="69">
+      <c r="F15" s="66">
         <f>SUM(F3:F14)</f>
         <v>100</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="72">
+        <v>46</v>
+      </c>
+      <c r="I15" s="69">
         <f>'Graphic - Annual'!L9</f>
         <v>150</v>
       </c>
@@ -12761,19 +12740,19 @@
     </row>
     <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="74">
+      <c r="C16" s="71">
         <f>AVERAGE(C3:C14)</f>
         <v>20.833333333333332</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="65">
         <f>AVERAGE(D3:D14)</f>
         <v>0</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="76">
+      <c r="F16" s="73">
         <f>AVERAGE(F3:F14)</f>
         <v>8.3333333333333339</v>
       </c>
@@ -12790,19 +12769,19 @@
     </row>
     <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="67">
+      <c r="C17" s="64">
         <f>SUM(C3:C8)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="67">
         <f>SUM(D3:D8)</f>
         <v>0</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="77">
+      <c r="F17" s="74">
         <f>SUM(F3:F8)</f>
         <v>0</v>
       </c>
@@ -12819,19 +12798,19 @@
     </row>
     <row r="18" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="75">
+      <c r="C18" s="72">
         <f>SUM($C$9:$C$14)</f>
         <v>250</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="69">
         <f>SUM($D$9:$D$14)</f>
         <v>0</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="78">
+      <c r="F18" s="75">
         <f>SUM($F$9:$F$14)</f>
         <v>100</v>
       </c>

--- a/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
+++ b/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Personal_Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Python\Python\Projects\Automate_Python\Report_Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E7866B-FD13-42E3-AADD-1D04383DE004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867C794-77F0-44FC-AD02-4A0671B5406A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t>Total</t>
   </si>
@@ -227,21 +227,55 @@
     <t>Allocation</t>
   </si>
   <si>
-    <t>Dezembro</t>
+    <t>General expen.</t>
   </si>
   <si>
-    <t>General expen.</t>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="mmmm"/>
     <numFmt numFmtId="165" formatCode="dd/mm"/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="mm/dd"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -666,9 +700,6 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,19 +850,22 @@
     <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -840,6 +874,50 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="mm/dd"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="mmmm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -962,50 +1040,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="mmmm"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Comic Sans MS"/>
-        <family val="4"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="mmmm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Comic Sans MS"/>
-        <family val="4"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd/mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1265,7 +1299,7 @@
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2336,7 +2370,7 @@
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2617,40 +2651,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Janeiro</c:v>
+                  <c:v>January</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fevereiro</c:v>
+                  <c:v>February</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Março</c:v>
+                  <c:v>March</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Abril</c:v>
+                  <c:v>April</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maio</c:v>
+                  <c:v>May</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Junho</c:v>
+                  <c:v>June</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Julho</c:v>
+                  <c:v>July</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Agosto</c:v>
+                  <c:v>August</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Setembro</c:v>
+                  <c:v>September</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Outubro</c:v>
+                  <c:v>October</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Novembro</c:v>
+                  <c:v>November</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Dezembro</c:v>
+                  <c:v>December</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2689,7 +2723,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>250</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2828,40 +2862,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Janeiro</c:v>
+                  <c:v>January</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fevereiro</c:v>
+                  <c:v>February</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Março</c:v>
+                  <c:v>March</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Abril</c:v>
+                  <c:v>April</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maio</c:v>
+                  <c:v>May</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Junho</c:v>
+                  <c:v>June</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Julho</c:v>
+                  <c:v>July</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Agosto</c:v>
+                  <c:v>August</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Setembro</c:v>
+                  <c:v>September</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Outubro</c:v>
+                  <c:v>October</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Novembro</c:v>
+                  <c:v>November</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Dezembro</c:v>
+                  <c:v>December</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2906,7 +2940,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2970,40 +3004,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Janeiro</c:v>
+                  <c:v>January</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Fevereiro</c:v>
+                  <c:v>February</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Março</c:v>
+                  <c:v>March</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Abril</c:v>
+                  <c:v>April</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Maio</c:v>
+                  <c:v>May</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Junho</c:v>
+                  <c:v>June</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Julho</c:v>
+                  <c:v>July</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Agosto</c:v>
+                  <c:v>August</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Setembro</c:v>
+                  <c:v>September</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Outubro</c:v>
+                  <c:v>October</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Novembro</c:v>
+                  <c:v>November</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Dezembro</c:v>
+                  <c:v>December</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3431,19 +3465,19 @@
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3754,7 +3788,7 @@
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6548,15 +6582,15 @@
     <sortCondition ref="B9:B22"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F0A7AC4E-C2B6-48F0-8ABD-146393E8FC69}" name="Date" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{684795FD-753E-4C1F-B63E-5EE124E9D624}" name="Month" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{F0A7AC4E-C2B6-48F0-8ABD-146393E8FC69}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{684795FD-753E-4C1F-B63E-5EE124E9D624}" name="Month" dataDxfId="1">
       <calculatedColumnFormula>IF(ISBLANK(B10),"",PROPER(TEXT(B10,"MMMM")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{23818CCC-08C7-4066-9B86-98D831460C75}" name="Operation" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{78815540-1C3C-4370-A3E4-1C8E033CFC39}" name="Category" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F153B94E-6C60-4C63-A86C-8519A94E1F13}" name="Allocation" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{EE54C9A2-2D53-4D6A-93DF-88B691A8C3D9}" name="Amount" dataDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{28149A80-D409-4A63-B4C2-6EDA92C21F54}" name="Description" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{23818CCC-08C7-4066-9B86-98D831460C75}" name="Operation" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{78815540-1C3C-4370-A3E4-1C8E033CFC39}" name="Category" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{F153B94E-6C60-4C63-A86C-8519A94E1F13}" name="Allocation" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{EE54C9A2-2D53-4D6A-93DF-88B691A8C3D9}" name="Amount" dataDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{28149A80-D409-4A63-B4C2-6EDA92C21F54}" name="Description" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6856,111 +6890,111 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="47" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="50" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="49" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="47" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="51" customWidth="1"/>
-    <col min="9" max="9" width="6" style="47" customWidth="1"/>
-    <col min="10" max="10" width="10" style="47" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="1" width="6" style="46" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="49" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="48" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="50" customWidth="1"/>
+    <col min="9" max="9" width="6" style="46" customWidth="1"/>
+    <col min="10" max="10" width="10" style="46" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111" t="str">
+      <c r="C2" s="110"/>
+      <c r="D2" s="110" t="str">
         <f ca="1">PROPER(TEXT(TODAY(),"MMMM"))</f>
         <v>Outubro</v>
       </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="48"/>
-      <c r="H2" s="47"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="47"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="105" cm="1">
+      <c r="C3" s="104" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Allocation],B3,Tabela1[Date],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Allocation],B3,Tabela1[Date],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Amount],Tabela1[Category],B3,Tabela1[Date],"&lt;="&amp;(TODAY()))</f>
         <v>250</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="106">
+      <c r="E3" s="105" t="e">
         <f ca="1">VLOOKUP(D2,'Graphic - Annual'!A3:I14,8,FALSE)</f>
-        <v>250</v>
-      </c>
-      <c r="H3" s="47"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="105" cm="1">
+      <c r="C4" s="104" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Allocation],B4,Tabela1[Date],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Allocation],B4,Tabela1[Date],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Amount],Tabela1[Category],B4,Tabela1[Date],"&lt;="&amp;(TODAY()))</f>
         <v>0</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="105">
         <f>'Graphic - Annual'!I15</f>
-        <v>150</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="H4" s="47"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="105" cm="1">
+      <c r="C5" s="104" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Allocation],B5,Tabela1[Date],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Allocation],B5,Tabela1[Date],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Amount],Tabela1[Category],B5,Tabela1[Date],"&lt;="&amp;(TODAY()))</f>
         <v>0</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="106">
+      <c r="E5" s="105" t="e">
         <f ca="1">VLOOKUP(D2,'Graphic - Annual'!A3:I14,9,FALSE)</f>
-        <v>250</v>
-      </c>
-      <c r="F5" s="48"/>
-      <c r="H5" s="47"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="105">
+      <c r="C6" s="104">
         <f ca="1">SUM(C3:C5)</f>
         <v>250</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="106">
+      <c r="E6" s="105" t="e">
         <f ca="1">ROUND(C6-E5,2)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="H6" s="47"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
-      <c r="E7" s="49"/>
-      <c r="H7" s="47"/>
+      <c r="B7" s="46"/>
+      <c r="E7" s="48"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36"/>
@@ -6968,11 +7002,11 @@
         <f>SUBTOTAL(2,Tabela1[Date])</f>
         <v>3</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="109">
         <f>SUBTOTAL(9,Tabela1[Amount])</f>
         <v>350</v>
       </c>
-      <c r="H8" s="47"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
@@ -6998,2833 +7032,2833 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43">
+      <c r="B10" s="116">
         <v>45200</v>
       </c>
-      <c r="C10" s="44" t="str">
+      <c r="C10" s="43" t="str">
         <f t="shared" ref="C10:C12" si="0">IF(ISBLANK(B10),"",PROPER(TEXT(B10,"MMMM")))</f>
         <v>Outubro</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="106">
         <v>250</v>
       </c>
-      <c r="H10" s="46"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="43">
+      <c r="B11" s="116">
         <v>45262</v>
       </c>
-      <c r="C11" s="44" t="str">
+      <c r="C11" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Dezembro</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="107">
+      <c r="G11" s="106">
         <v>50</v>
       </c>
-      <c r="H11" s="46"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="43">
+      <c r="B12" s="116">
         <v>45263</v>
       </c>
-      <c r="C12" s="44" t="str">
+      <c r="C12" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Dezembro</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="45" t="s">
+      <c r="E12" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="108">
+      <c r="G12" s="107">
         <v>50</v>
       </c>
-      <c r="H12" s="46"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="43"/>
-      <c r="C13" s="44" t="str">
+      <c r="B13" s="116"/>
+      <c r="C13" s="43" t="str">
         <f>IF(ISBLANK(B13),"",PROPER(TEXT(B13,"MMMM")))</f>
         <v/>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="46"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="49" t="str">
+      <c r="C14" s="48" t="str">
         <f t="shared" ref="C14:C39" si="1">IF(ISBLANK(B14),"",PROPER(TEXT(B14,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="49" t="str">
+      <c r="C15" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="49" t="str">
+      <c r="C16" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="49" t="str">
+      <c r="C17" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="49" t="str">
+      <c r="C18" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="49" t="str">
+      <c r="C19" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="49" t="str">
+      <c r="C20" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="49" t="str">
+      <c r="C21" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="49" t="str">
+      <c r="C22" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="49" t="str">
+      <c r="C23" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="49" t="str">
+      <c r="C24" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="49" t="str">
+      <c r="C25" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="49" t="str">
+      <c r="C26" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="49" t="str">
+      <c r="C27" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="49" t="str">
+      <c r="C28" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="49" t="str">
+      <c r="C29" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="49" t="str">
+      <c r="C30" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="49" t="str">
+      <c r="C31" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="49" t="str">
+      <c r="C32" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="49" t="str">
+      <c r="C33" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="49" t="str">
+      <c r="C34" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="49" t="str">
+      <c r="C35" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="49" t="str">
+      <c r="C36" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="49" t="str">
+      <c r="C37" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="49" t="str">
+      <c r="C38" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="49" t="str">
+      <c r="C39" s="48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="49" t="str">
+      <c r="C40" s="48" t="str">
         <f t="shared" ref="C40:C103" si="2">IF(ISBLANK(B40),"",PROPER(TEXT(B40,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="49" t="str">
+      <c r="C41" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="49" t="str">
+      <c r="C42" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="49" t="str">
+      <c r="C43" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="49" t="str">
+      <c r="C44" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="49" t="str">
+      <c r="C45" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="49" t="str">
+      <c r="C46" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="49" t="str">
+      <c r="C47" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="49" t="str">
+      <c r="C48" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="49" t="str">
+      <c r="C49" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="49" t="str">
+      <c r="C50" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="49" t="str">
+      <c r="C51" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="49" t="str">
+      <c r="C52" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="49" t="str">
+      <c r="C53" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="49" t="str">
+      <c r="C54" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="49" t="str">
+      <c r="C55" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="49" t="str">
+      <c r="C56" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="49" t="str">
+      <c r="C57" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="49" t="str">
+      <c r="C58" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="49" t="str">
+      <c r="C59" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="49" t="str">
+      <c r="C60" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="49" t="str">
+      <c r="C61" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="49" t="str">
+      <c r="C62" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="49" t="str">
+      <c r="C63" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="49" t="str">
+      <c r="C64" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="49" t="str">
+      <c r="C65" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="49" t="str">
+      <c r="C66" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="49" t="str">
+      <c r="C67" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="49" t="str">
+      <c r="C68" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="49" t="str">
+      <c r="C69" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="49" t="str">
+      <c r="C70" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="49" t="str">
+      <c r="C71" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="49" t="str">
+      <c r="C72" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="49" t="str">
+      <c r="C73" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="49" t="str">
+      <c r="C74" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="49" t="str">
+      <c r="C75" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="49" t="str">
+      <c r="C76" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="49" t="str">
+      <c r="C77" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="49" t="str">
+      <c r="C78" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="49" t="str">
+      <c r="C79" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="49" t="str">
+      <c r="C80" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="49" t="str">
+      <c r="C81" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="49" t="str">
+      <c r="C82" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="49" t="str">
+      <c r="C83" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="49" t="str">
+      <c r="C84" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="49" t="str">
+      <c r="C85" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="49" t="str">
+      <c r="C86" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="49" t="str">
+      <c r="C87" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="49" t="str">
+      <c r="C88" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="49" t="str">
+      <c r="C89" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="49" t="str">
+      <c r="C90" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="49" t="str">
+      <c r="C91" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="49" t="str">
+      <c r="C92" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="49" t="str">
+      <c r="C93" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="49" t="str">
+      <c r="C94" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="49" t="str">
+      <c r="C95" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="49" t="str">
+      <c r="C96" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="49" t="str">
+      <c r="C97" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="49" t="str">
+      <c r="C98" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="49" t="str">
+      <c r="C99" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="49" t="str">
+      <c r="C100" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C101" s="49" t="str">
+      <c r="C101" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" s="49" t="str">
+      <c r="C102" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C103" s="49" t="str">
+      <c r="C103" s="48" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C104" s="49" t="str">
+      <c r="C104" s="48" t="str">
         <f t="shared" ref="C104:C167" si="3">IF(ISBLANK(B104),"",PROPER(TEXT(B104,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C105" s="49" t="str">
+      <c r="C105" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C106" s="49" t="str">
+      <c r="C106" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C107" s="49" t="str">
+      <c r="C107" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C108" s="49" t="str">
+      <c r="C108" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C109" s="49" t="str">
+      <c r="C109" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C110" s="49" t="str">
+      <c r="C110" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C111" s="49" t="str">
+      <c r="C111" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C112" s="49" t="str">
+      <c r="C112" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C113" s="49" t="str">
+      <c r="C113" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C114" s="49" t="str">
+      <c r="C114" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C115" s="49" t="str">
+      <c r="C115" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C116" s="49" t="str">
+      <c r="C116" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C117" s="49" t="str">
+      <c r="C117" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="49" t="str">
+      <c r="C118" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C119" s="49" t="str">
+      <c r="C119" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C120" s="49" t="str">
+      <c r="C120" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C121" s="49" t="str">
+      <c r="C121" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C122" s="49" t="str">
+      <c r="C122" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C123" s="49" t="str">
+      <c r="C123" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C124" s="49" t="str">
+      <c r="C124" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C125" s="49" t="str">
+      <c r="C125" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C126" s="49" t="str">
+      <c r="C126" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C127" s="49" t="str">
+      <c r="C127" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C128" s="49" t="str">
+      <c r="C128" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="49" t="str">
+      <c r="C129" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C130" s="49" t="str">
+      <c r="C130" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C131" s="49" t="str">
+      <c r="C131" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C132" s="49" t="str">
+      <c r="C132" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C133" s="49" t="str">
+      <c r="C133" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C134" s="49" t="str">
+      <c r="C134" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C135" s="49" t="str">
+      <c r="C135" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C136" s="49" t="str">
+      <c r="C136" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C137" s="49" t="str">
+      <c r="C137" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C138" s="49" t="str">
+      <c r="C138" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C139" s="49" t="str">
+      <c r="C139" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C140" s="49" t="str">
+      <c r="C140" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C141" s="49" t="str">
+      <c r="C141" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C142" s="49" t="str">
+      <c r="C142" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C143" s="49" t="str">
+      <c r="C143" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C144" s="49" t="str">
+      <c r="C144" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C145" s="49" t="str">
+      <c r="C145" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C146" s="49" t="str">
+      <c r="C146" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C147" s="49" t="str">
+      <c r="C147" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C148" s="49" t="str">
+      <c r="C148" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="49" t="str">
+      <c r="C149" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C150" s="49" t="str">
+      <c r="C150" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C151" s="49" t="str">
+      <c r="C151" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C152" s="49" t="str">
+      <c r="C152" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C153" s="49" t="str">
+      <c r="C153" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C154" s="49" t="str">
+      <c r="C154" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C155" s="49" t="str">
+      <c r="C155" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C156" s="49" t="str">
+      <c r="C156" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C157" s="49" t="str">
+      <c r="C157" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C158" s="49" t="str">
+      <c r="C158" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C159" s="49" t="str">
+      <c r="C159" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C160" s="49" t="str">
+      <c r="C160" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C161" s="49" t="str">
+      <c r="C161" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C162" s="49" t="str">
+      <c r="C162" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C163" s="49" t="str">
+      <c r="C163" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C164" s="49" t="str">
+      <c r="C164" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C165" s="49" t="str">
+      <c r="C165" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C166" s="49" t="str">
+      <c r="C166" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C167" s="49" t="str">
+      <c r="C167" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C168" s="49" t="str">
+      <c r="C168" s="48" t="str">
         <f t="shared" ref="C168:C231" si="4">IF(ISBLANK(B168),"",PROPER(TEXT(B168,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C169" s="49" t="str">
+      <c r="C169" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C170" s="49" t="str">
+      <c r="C170" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C171" s="49" t="str">
+      <c r="C171" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C172" s="49" t="str">
+      <c r="C172" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C173" s="49" t="str">
+      <c r="C173" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C174" s="49" t="str">
+      <c r="C174" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C175" s="49" t="str">
+      <c r="C175" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C176" s="49" t="str">
+      <c r="C176" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C177" s="49" t="str">
+      <c r="C177" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C178" s="49" t="str">
+      <c r="C178" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C179" s="49" t="str">
+      <c r="C179" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C180" s="49" t="str">
+      <c r="C180" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C181" s="49" t="str">
+      <c r="C181" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C182" s="49" t="str">
+      <c r="C182" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C183" s="49" t="str">
+      <c r="C183" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C184" s="49" t="str">
+      <c r="C184" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C185" s="49" t="str">
+      <c r="C185" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C186" s="49" t="str">
+      <c r="C186" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C187" s="49" t="str">
+      <c r="C187" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C188" s="49" t="str">
+      <c r="C188" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C189" s="49" t="str">
+      <c r="C189" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C190" s="49" t="str">
+      <c r="C190" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C191" s="49" t="str">
+      <c r="C191" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C192" s="49" t="str">
+      <c r="C192" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C193" s="49" t="str">
+      <c r="C193" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C194" s="49" t="str">
+      <c r="C194" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C195" s="49" t="str">
+      <c r="C195" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C196" s="49" t="str">
+      <c r="C196" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C197" s="49" t="str">
+      <c r="C197" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C198" s="49" t="str">
+      <c r="C198" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C199" s="49" t="str">
+      <c r="C199" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C200" s="49" t="str">
+      <c r="C200" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C201" s="49" t="str">
+      <c r="C201" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C202" s="49" t="str">
+      <c r="C202" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C203" s="49" t="str">
+      <c r="C203" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C204" s="49" t="str">
+      <c r="C204" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C205" s="49" t="str">
+      <c r="C205" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C206" s="49" t="str">
+      <c r="C206" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C207" s="49" t="str">
+      <c r="C207" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C208" s="49" t="str">
+      <c r="C208" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C209" s="49" t="str">
+      <c r="C209" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C210" s="49" t="str">
+      <c r="C210" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C211" s="49" t="str">
+      <c r="C211" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C212" s="49" t="str">
+      <c r="C212" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C213" s="49" t="str">
+      <c r="C213" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C214" s="49" t="str">
+      <c r="C214" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C215" s="49" t="str">
+      <c r="C215" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C216" s="49" t="str">
+      <c r="C216" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C217" s="49" t="str">
+      <c r="C217" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C218" s="49" t="str">
+      <c r="C218" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C219" s="49" t="str">
+      <c r="C219" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C220" s="49" t="str">
+      <c r="C220" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C221" s="49" t="str">
+      <c r="C221" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C222" s="49" t="str">
+      <c r="C222" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C223" s="49" t="str">
+      <c r="C223" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C224" s="49" t="str">
+      <c r="C224" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C225" s="49" t="str">
+      <c r="C225" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C226" s="49" t="str">
+      <c r="C226" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C227" s="49" t="str">
+      <c r="C227" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C228" s="49" t="str">
+      <c r="C228" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C229" s="49" t="str">
+      <c r="C229" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C230" s="49" t="str">
+      <c r="C230" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C231" s="49" t="str">
+      <c r="C231" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C232" s="49" t="str">
+      <c r="C232" s="48" t="str">
         <f t="shared" ref="C232:C295" si="5">IF(ISBLANK(B232),"",PROPER(TEXT(B232,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C233" s="49" t="str">
+      <c r="C233" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C234" s="49" t="str">
+      <c r="C234" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C235" s="49" t="str">
+      <c r="C235" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C236" s="49" t="str">
+      <c r="C236" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C237" s="49" t="str">
+      <c r="C237" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C238" s="49" t="str">
+      <c r="C238" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C239" s="49" t="str">
+      <c r="C239" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C240" s="49" t="str">
+      <c r="C240" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C241" s="49" t="str">
+      <c r="C241" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C242" s="49" t="str">
+      <c r="C242" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C243" s="49" t="str">
+      <c r="C243" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C244" s="49" t="str">
+      <c r="C244" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C245" s="49" t="str">
+      <c r="C245" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C246" s="49" t="str">
+      <c r="C246" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C247" s="49" t="str">
+      <c r="C247" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C248" s="49" t="str">
+      <c r="C248" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C249" s="49" t="str">
+      <c r="C249" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C250" s="49" t="str">
+      <c r="C250" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C251" s="49" t="str">
+      <c r="C251" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C252" s="49" t="str">
+      <c r="C252" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C253" s="49" t="str">
+      <c r="C253" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C254" s="49" t="str">
+      <c r="C254" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C255" s="49" t="str">
+      <c r="C255" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C256" s="49" t="str">
+      <c r="C256" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C257" s="49" t="str">
+      <c r="C257" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C258" s="49" t="str">
+      <c r="C258" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C259" s="49" t="str">
+      <c r="C259" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C260" s="49" t="str">
+      <c r="C260" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C261" s="49" t="str">
+      <c r="C261" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C262" s="49" t="str">
+      <c r="C262" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C263" s="49" t="str">
+      <c r="C263" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C264" s="49" t="str">
+      <c r="C264" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C265" s="49" t="str">
+      <c r="C265" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C266" s="49" t="str">
+      <c r="C266" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C267" s="49" t="str">
+      <c r="C267" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C268" s="49" t="str">
+      <c r="C268" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C269" s="49" t="str">
+      <c r="C269" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C270" s="49" t="str">
+      <c r="C270" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C271" s="49" t="str">
+      <c r="C271" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C272" s="49" t="str">
+      <c r="C272" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C273" s="49" t="str">
+      <c r="C273" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C274" s="49" t="str">
+      <c r="C274" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C275" s="49" t="str">
+      <c r="C275" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C276" s="49" t="str">
+      <c r="C276" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C277" s="49" t="str">
+      <c r="C277" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C278" s="49" t="str">
+      <c r="C278" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C279" s="49" t="str">
+      <c r="C279" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C280" s="49" t="str">
+      <c r="C280" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C281" s="49" t="str">
+      <c r="C281" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C282" s="49" t="str">
+      <c r="C282" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C283" s="49" t="str">
+      <c r="C283" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C284" s="49" t="str">
+      <c r="C284" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C285" s="49" t="str">
+      <c r="C285" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C286" s="49" t="str">
+      <c r="C286" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C287" s="49" t="str">
+      <c r="C287" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C288" s="49" t="str">
+      <c r="C288" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C289" s="49" t="str">
+      <c r="C289" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C290" s="49" t="str">
+      <c r="C290" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C291" s="49" t="str">
+      <c r="C291" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C292" s="49" t="str">
+      <c r="C292" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C293" s="49" t="str">
+      <c r="C293" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C294" s="49" t="str">
+      <c r="C294" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C295" s="49" t="str">
+      <c r="C295" s="48" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C296" s="49" t="str">
+      <c r="C296" s="48" t="str">
         <f t="shared" ref="C296:C359" si="6">IF(ISBLANK(B296),"",PROPER(TEXT(B296,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C297" s="49" t="str">
+      <c r="C297" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C298" s="49" t="str">
+      <c r="C298" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C299" s="49" t="str">
+      <c r="C299" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C300" s="49" t="str">
+      <c r="C300" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C301" s="49" t="str">
+      <c r="C301" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C302" s="49" t="str">
+      <c r="C302" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C303" s="49" t="str">
+      <c r="C303" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C304" s="49" t="str">
+      <c r="C304" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C305" s="49" t="str">
+      <c r="C305" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C306" s="49" t="str">
+      <c r="C306" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C307" s="49" t="str">
+      <c r="C307" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C308" s="49" t="str">
+      <c r="C308" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C309" s="49" t="str">
+      <c r="C309" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C310" s="49" t="str">
+      <c r="C310" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C311" s="49" t="str">
+      <c r="C311" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C312" s="49" t="str">
+      <c r="C312" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C313" s="49" t="str">
+      <c r="C313" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C314" s="49" t="str">
+      <c r="C314" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C315" s="49" t="str">
+      <c r="C315" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C316" s="49" t="str">
+      <c r="C316" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C317" s="49" t="str">
+      <c r="C317" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C318" s="49" t="str">
+      <c r="C318" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C319" s="49" t="str">
+      <c r="C319" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C320" s="49" t="str">
+      <c r="C320" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C321" s="49" t="str">
+      <c r="C321" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C322" s="49" t="str">
+      <c r="C322" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C323" s="49" t="str">
+      <c r="C323" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C324" s="49" t="str">
+      <c r="C324" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C325" s="49" t="str">
+      <c r="C325" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C326" s="49" t="str">
+      <c r="C326" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C327" s="49" t="str">
+      <c r="C327" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C328" s="49" t="str">
+      <c r="C328" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C329" s="49" t="str">
+      <c r="C329" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C330" s="49" t="str">
+      <c r="C330" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="331" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C331" s="49" t="str">
+      <c r="C331" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="332" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C332" s="49" t="str">
+      <c r="C332" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="333" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C333" s="49" t="str">
+      <c r="C333" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="334" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C334" s="49" t="str">
+      <c r="C334" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="335" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C335" s="49" t="str">
+      <c r="C335" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="336" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C336" s="49" t="str">
+      <c r="C336" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="337" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C337" s="49" t="str">
+      <c r="C337" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="338" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C338" s="49" t="str">
+      <c r="C338" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="339" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C339" s="49" t="str">
+      <c r="C339" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="340" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C340" s="49" t="str">
+      <c r="C340" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="341" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C341" s="49" t="str">
+      <c r="C341" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="342" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C342" s="49" t="str">
+      <c r="C342" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="343" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C343" s="49" t="str">
+      <c r="C343" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="344" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C344" s="49" t="str">
+      <c r="C344" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="345" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C345" s="49" t="str">
+      <c r="C345" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="346" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C346" s="49" t="str">
+      <c r="C346" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="347" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C347" s="49" t="str">
+      <c r="C347" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="348" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C348" s="49" t="str">
+      <c r="C348" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="349" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C349" s="49" t="str">
+      <c r="C349" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="350" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C350" s="49" t="str">
+      <c r="C350" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="351" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C351" s="49" t="str">
+      <c r="C351" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="352" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C352" s="49" t="str">
+      <c r="C352" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C353" s="49" t="str">
+      <c r="C353" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C354" s="49" t="str">
+      <c r="C354" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C355" s="49" t="str">
+      <c r="C355" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C356" s="49" t="str">
+      <c r="C356" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C357" s="49" t="str">
+      <c r="C357" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C358" s="49" t="str">
+      <c r="C358" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C359" s="49" t="str">
+      <c r="C359" s="48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C360" s="49" t="str">
+      <c r="C360" s="48" t="str">
         <f t="shared" ref="C360:C423" si="7">IF(ISBLANK(B360),"",PROPER(TEXT(B360,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C361" s="49" t="str">
+      <c r="C361" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C362" s="49" t="str">
+      <c r="C362" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C363" s="49" t="str">
+      <c r="C363" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C364" s="49" t="str">
+      <c r="C364" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C365" s="49" t="str">
+      <c r="C365" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C366" s="49" t="str">
+      <c r="C366" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C367" s="49" t="str">
+      <c r="C367" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C368" s="49" t="str">
+      <c r="C368" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C369" s="49" t="str">
+      <c r="C369" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C370" s="49" t="str">
+      <c r="C370" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C371" s="49" t="str">
+      <c r="C371" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C372" s="49" t="str">
+      <c r="C372" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C373" s="49" t="str">
+      <c r="C373" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C374" s="49" t="str">
+      <c r="C374" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C375" s="49" t="str">
+      <c r="C375" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C376" s="49" t="str">
+      <c r="C376" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C377" s="49" t="str">
+      <c r="C377" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C378" s="49" t="str">
+      <c r="C378" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C379" s="49" t="str">
+      <c r="C379" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C380" s="49" t="str">
+      <c r="C380" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C381" s="49" t="str">
+      <c r="C381" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C382" s="49" t="str">
+      <c r="C382" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C383" s="49" t="str">
+      <c r="C383" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C384" s="49" t="str">
+      <c r="C384" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C385" s="49" t="str">
+      <c r="C385" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C386" s="49" t="str">
+      <c r="C386" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C387" s="49" t="str">
+      <c r="C387" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C388" s="49" t="str">
+      <c r="C388" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C389" s="49" t="str">
+      <c r="C389" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C390" s="49" t="str">
+      <c r="C390" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C391" s="49" t="str">
+      <c r="C391" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C392" s="49" t="str">
+      <c r="C392" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C393" s="49" t="str">
+      <c r="C393" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C394" s="49" t="str">
+      <c r="C394" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C395" s="49" t="str">
+      <c r="C395" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C396" s="49" t="str">
+      <c r="C396" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C397" s="49" t="str">
+      <c r="C397" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C398" s="49" t="str">
+      <c r="C398" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C399" s="49" t="str">
+      <c r="C399" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C400" s="49" t="str">
+      <c r="C400" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C401" s="49" t="str">
+      <c r="C401" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C402" s="49" t="str">
+      <c r="C402" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C403" s="49" t="str">
+      <c r="C403" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C404" s="49" t="str">
+      <c r="C404" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C405" s="49" t="str">
+      <c r="C405" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C406" s="49" t="str">
+      <c r="C406" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C407" s="49" t="str">
+      <c r="C407" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C408" s="49" t="str">
+      <c r="C408" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C409" s="49" t="str">
+      <c r="C409" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C410" s="49" t="str">
+      <c r="C410" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C411" s="49" t="str">
+      <c r="C411" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C412" s="49" t="str">
+      <c r="C412" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C413" s="49" t="str">
+      <c r="C413" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C414" s="49" t="str">
+      <c r="C414" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="415" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C415" s="49" t="str">
+      <c r="C415" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="416" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C416" s="49" t="str">
+      <c r="C416" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="417" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C417" s="49" t="str">
+      <c r="C417" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="418" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C418" s="49" t="str">
+      <c r="C418" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="419" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C419" s="49" t="str">
+      <c r="C419" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="420" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C420" s="49" t="str">
+      <c r="C420" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="421" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C421" s="49" t="str">
+      <c r="C421" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="422" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C422" s="49" t="str">
+      <c r="C422" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="423" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C423" s="49" t="str">
+      <c r="C423" s="48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="424" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C424" s="49" t="str">
+      <c r="C424" s="48" t="str">
         <f t="shared" ref="C424:C472" si="8">IF(ISBLANK(B424),"",PROPER(TEXT(B424,"MMMM")))</f>
         <v/>
       </c>
     </row>
     <row r="425" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C425" s="49" t="str">
+      <c r="C425" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="426" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C426" s="49" t="str">
+      <c r="C426" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="427" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C427" s="49" t="str">
+      <c r="C427" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="428" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C428" s="49" t="str">
+      <c r="C428" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="429" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C429" s="49" t="str">
+      <c r="C429" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="430" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C430" s="49" t="str">
+      <c r="C430" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="431" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C431" s="49" t="str">
+      <c r="C431" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="432" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C432" s="49" t="str">
+      <c r="C432" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C433" s="49" t="str">
+      <c r="C433" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C434" s="49" t="str">
+      <c r="C434" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C435" s="49" t="str">
+      <c r="C435" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C436" s="49" t="str">
+      <c r="C436" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C437" s="49" t="str">
+      <c r="C437" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C438" s="49" t="str">
+      <c r="C438" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C439" s="49" t="str">
+      <c r="C439" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C440" s="49" t="str">
+      <c r="C440" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C441" s="49" t="str">
+      <c r="C441" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C442" s="49" t="str">
+      <c r="C442" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C443" s="49" t="str">
+      <c r="C443" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C444" s="49" t="str">
+      <c r="C444" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C445" s="49" t="str">
+      <c r="C445" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C446" s="49" t="str">
+      <c r="C446" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C447" s="49" t="str">
+      <c r="C447" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C448" s="49" t="str">
+      <c r="C448" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C449" s="49" t="str">
+      <c r="C449" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C450" s="49" t="str">
+      <c r="C450" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C451" s="49" t="str">
+      <c r="C451" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C452" s="49" t="str">
+      <c r="C452" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C453" s="49" t="str">
+      <c r="C453" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C454" s="49" t="str">
+      <c r="C454" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C455" s="49" t="str">
+      <c r="C455" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C456" s="49" t="str">
+      <c r="C456" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C457" s="49" t="str">
+      <c r="C457" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C458" s="49" t="str">
+      <c r="C458" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C459" s="49" t="str">
+      <c r="C459" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C460" s="49" t="str">
+      <c r="C460" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C461" s="49" t="str">
+      <c r="C461" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C462" s="49" t="str">
+      <c r="C462" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C463" s="49" t="str">
+      <c r="C463" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C464" s="49" t="str">
+      <c r="C464" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C465" s="49" t="str">
+      <c r="C465" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C466" s="49" t="str">
+      <c r="C466" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C467" s="49" t="str">
+      <c r="C467" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C468" s="49" t="str">
+      <c r="C468" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C469" s="49" t="str">
+      <c r="C469" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C470" s="49" t="str">
+      <c r="C470" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C471" s="49" t="str">
+      <c r="C471" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C472" s="49" t="str">
+      <c r="C472" s="48" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -9836,10 +9870,10 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9871,7 +9905,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -9884,53 +9918,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="str">
-        <f>PROPER(TEXT("01/01","MMMM"))</f>
-        <v>Janeiro</v>
-      </c>
-      <c r="C2" s="6" t="str">
-        <f>PROPER(TEXT("01/02","MMMM"))</f>
-        <v>Fevereiro</v>
-      </c>
-      <c r="D2" s="6" t="str">
-        <f>PROPER(TEXT("01/03","MMMM"))</f>
-        <v>Março</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <f>PROPER(TEXT("01/04","MMMM"))</f>
-        <v>Abril</v>
-      </c>
-      <c r="F2" s="6" t="str">
-        <f>PROPER(TEXT("01/05","MMMM"))</f>
-        <v>Maio</v>
-      </c>
-      <c r="G2" s="6" t="str">
-        <f>PROPER(TEXT("01/06","MMMM"))</f>
-        <v>Junho</v>
-      </c>
-      <c r="H2" s="6" t="str">
-        <f>PROPER(TEXT("01/07","MMMM"))</f>
-        <v>Julho</v>
-      </c>
-      <c r="I2" s="6" t="str">
-        <f>PROPER(TEXT("01/08","MMMM"))</f>
-        <v>Agosto</v>
-      </c>
-      <c r="J2" s="6" t="str">
-        <f>PROPER(TEXT("01/09","MMMM"))</f>
-        <v>Setembro</v>
-      </c>
-      <c r="K2" s="6" t="str">
-        <f>PROPER(TEXT("01/10","MMMM"))</f>
-        <v>Outubro</v>
-      </c>
-      <c r="L2" s="6" t="str">
-        <f>PROPER(TEXT("01/11","MMMM"))</f>
-        <v>Novembro</v>
-      </c>
-      <c r="M2" s="6" t="str">
-        <f>PROPER(TEXT("01/12","MMMM"))</f>
-        <v>Dezembro</v>
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9942,51 +9964,51 @@
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="105">
+      <c r="B4" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="105">
+      <c r="D4" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="105">
+      <c r="E4" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="105">
+      <c r="G4" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="109">
+      <c r="H4" s="108">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="105">
+      <c r="I4" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="105">
+      <c r="J4" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="105">
+      <c r="K4" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A4)</f>
-        <v>250</v>
-      </c>
-      <c r="L4" s="105">
+        <v>0</v>
+      </c>
+      <c r="L4" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="105">
+      <c r="M4" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
@@ -9995,51 +10017,51 @@
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="105">
+      <c r="B5" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="105">
+      <c r="D5" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="105">
+      <c r="E5" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="105">
+      <c r="G5" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="109">
+      <c r="H5" s="108">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="105">
+      <c r="I5" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="105">
+      <c r="K5" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="105">
+      <c r="L5" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="105">
+      <c r="M5" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
@@ -10048,51 +10070,51 @@
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="105">
+      <c r="B6" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="105">
+      <c r="C6" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="105">
+      <c r="E6" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="105">
+      <c r="F6" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="105">
+      <c r="G6" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="109">
+      <c r="H6" s="108">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="105">
+      <c r="I6" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="105">
+      <c r="J6" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="105">
+      <c r="K6" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="105">
+      <c r="L6" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="105">
+      <c r="M6" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
@@ -10133,51 +10155,51 @@
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="105">
+      <c r="B9" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="105">
+      <c r="C9" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="105">
+      <c r="D9" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="105">
+      <c r="F9" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="105">
+      <c r="G9" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="109">
+      <c r="H9" s="108">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="105">
+      <c r="I9" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="105">
+      <c r="J9" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="105">
+      <c r="K9" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="105">
+      <c r="L9" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="105">
+      <c r="M9" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
@@ -10186,51 +10208,51 @@
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="105">
+      <c r="B10" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="105">
+      <c r="C10" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D10" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E10" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="105">
+      <c r="F10" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="105">
+      <c r="G10" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="109">
+      <c r="H10" s="108">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="105">
+      <c r="I10" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="105">
+      <c r="J10" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="105">
+      <c r="K10" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="105">
+      <c r="L10" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="105">
+      <c r="M10" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
@@ -10239,51 +10261,51 @@
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="105">
+      <c r="B11" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="105">
+      <c r="C11" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="105">
+      <c r="E11" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="105">
+      <c r="F11" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="105">
+      <c r="G11" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="105">
+      <c r="H11" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="105">
+      <c r="I11" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="105">
+      <c r="J11" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="105">
+      <c r="K11" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="105">
+      <c r="L11" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="105">
+      <c r="M11" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
@@ -10324,51 +10346,51 @@
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="105">
+      <c r="B14" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="105">
+      <c r="C14" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="105">
+      <c r="D14" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="105">
+      <c r="E14" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="105">
+      <c r="F14" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="105">
+      <c r="G14" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="105">
+      <c r="H14" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="105">
+      <c r="I14" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="105">
+      <c r="J14" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="105">
+      <c r="K14" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="105">
+      <c r="L14" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="105">
+      <c r="M14" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
@@ -10377,51 +10399,51 @@
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="105">
+      <c r="B15" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="105">
+      <c r="C15" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="105">
+      <c r="D15" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="105">
+      <c r="E15" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="105">
+      <c r="F15" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="105">
+      <c r="G15" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="108">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="105">
+      <c r="I15" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="105">
+      <c r="J15" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="105">
+      <c r="K15" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="105">
+      <c r="L15" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="105">
+      <c r="M15" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
@@ -10445,51 +10467,51 @@
       <c r="A17" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="105">
+      <c r="B17" s="104">
         <f t="shared" ref="B17:M17" si="0">ROUND(SUM(B4:B6)-SUM(B14:B15)-SUM(B9:B11),2)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="105">
+      <c r="C17" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="105">
+      <c r="D17" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="105">
+      <c r="E17" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="105">
+      <c r="F17" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="105">
+      <c r="G17" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="105">
+      <c r="H17" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="105">
+      <c r="I17" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="105">
+      <c r="J17" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="105">
+      <c r="K17" s="104">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="L17" s="105">
+        <v>0</v>
+      </c>
+      <c r="L17" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="105">
+      <c r="M17" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10549,1163 +10571,1151 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:37" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="101" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="28"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77" t="str">
-        <f>PROPER(TEXT("01/01","MMMM"))</f>
-        <v>Janeiro</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79" t="str">
-        <f>PROPER(TEXT("1/02","MMMM"))</f>
-        <v>Fevereiro</v>
-      </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="80" t="str">
-        <f>PROPER(TEXT("1/03","MMMM"))</f>
-        <v>Março</v>
-      </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79" t="str">
-        <f>PROPER(TEXT("1/04","MMMM"))</f>
-        <v>Abril</v>
-      </c>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="80" t="str">
-        <f>PROPER(TEXT("1/05","MMMM"))</f>
-        <v>Maio</v>
-      </c>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79" t="str">
-        <f>PROPER(TEXT("1/06","MMMM"))</f>
-        <v>Junho</v>
-      </c>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="80" t="str">
-        <f>PROPER(TEXT("1/07","MMMM"))</f>
-        <v>Julho</v>
-      </c>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="79" t="str">
-        <f>PROPER(TEXT("1/08","MMMM"))</f>
-        <v>Agosto</v>
-      </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="80" t="str">
-        <f>PROPER(TEXT("1/09","MMMM"))</f>
-        <v>Setembro</v>
-      </c>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79" t="str">
-        <f>PROPER(TEXT("1/10","MMMM"))</f>
-        <v>Outubro</v>
-      </c>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="80" t="str">
-        <f>PROPER(TEXT("1/11","MMMM"))</f>
-        <v>Novembro</v>
-      </c>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="79" t="str">
-        <f>PROPER(TEXT("1/12","MMMM"))</f>
-        <v>Dezembro</v>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="78" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="102" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="99">
+      <c r="C3" s="80"/>
+      <c r="D3" s="98">
         <f>'Map - Net Salary'!B17</f>
         <v>0</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="99">
+      <c r="E3" s="81"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="98">
         <f>'Map - Net Salary'!C17</f>
         <v>0</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="99">
+      <c r="H3" s="81"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="98">
         <f>'Map - Net Salary'!D17</f>
         <v>0</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="99">
+      <c r="K3" s="81"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="98">
         <f>'Map - Net Salary'!E17</f>
         <v>0</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="99">
+      <c r="N3" s="81"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="98">
         <f>'Map - Net Salary'!F17</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="99">
+      <c r="Q3" s="81"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="98">
         <f>'Map - Net Salary'!G17</f>
         <v>0</v>
       </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="99">
+      <c r="T3" s="81"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="98">
         <f>'Map - Net Salary'!H17</f>
         <v>0</v>
       </c>
-      <c r="W3" s="82"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="99">
+      <c r="W3" s="81"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="98">
         <f>'Map - Net Salary'!I17</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="99">
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="98">
         <f>'Map - Net Salary'!J17</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="99">
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="98">
         <f>'Map - Net Salary'!K17</f>
-        <v>250</v>
-      </c>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="99">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="98">
         <f>'Map - Net Salary'!L17</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="99">
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="98">
         <f>'Map - Net Salary'!M17</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="102" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="100">
+      <c r="C4" s="82"/>
+      <c r="D4" s="99">
         <f>D3-(SUM(D7:D15))</f>
         <v>0</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="100">
+      <c r="E4" s="83"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="99">
         <f>G3-(SUM(G7:G15))+D4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="100">
+      <c r="H4" s="83"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="99">
         <f>J3-(SUM(J7:J15))+G4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="100">
+      <c r="K4" s="83"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="99">
         <f>M3-(SUM(M7:M15))+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="100">
+      <c r="N4" s="83"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="99">
         <f>P3-(SUM(P7:P15))+M4</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="100">
+      <c r="Q4" s="83"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="99">
         <f>S3-(SUM(S7:S15))+P4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="84"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="100">
+      <c r="T4" s="83"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="99">
         <f>V3-(SUM(V7:V15))+S4</f>
         <v>0</v>
       </c>
-      <c r="W4" s="84"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="100">
+      <c r="W4" s="83"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="99">
         <f>Y3-(SUM(Y7:Y15))+V4</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="100">
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="99">
         <f>AB3-(SUM(AB7:AB15))+Y4</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="100">
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="99">
         <f>AE3-(SUM(AE7:AE15))+AB4</f>
-        <v>250</v>
-      </c>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="100">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="99">
         <f>AH3-(SUM(AH7:AH15))+AE4</f>
-        <v>250</v>
-      </c>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="83"/>
-      <c r="AK4" s="100">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="99">
         <f>AK3-SUM(AK7:AK15)+AH4</f>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="85"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="84"/>
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="84"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="111" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="25"/>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="88" t="s">
+      <c r="E6" s="84"/>
+      <c r="F6" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86" t="s">
+      <c r="H6" s="84"/>
+      <c r="I6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="87" t="s">
+      <c r="J6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="88" t="s">
+      <c r="K6" s="84"/>
+      <c r="L6" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="89" t="s">
+      <c r="M6" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="86" t="s">
+      <c r="N6" s="84"/>
+      <c r="O6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="87" t="s">
+      <c r="P6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="88" t="s">
+      <c r="Q6" s="84"/>
+      <c r="R6" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="89" t="s">
+      <c r="S6" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="85"/>
-      <c r="U6" s="86" t="s">
+      <c r="T6" s="84"/>
+      <c r="U6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="87" t="s">
+      <c r="V6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="85"/>
-      <c r="X6" s="88" t="s">
+      <c r="W6" s="84"/>
+      <c r="X6" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" s="89" t="s">
+      <c r="Y6" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="86" t="s">
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="AB6" s="87" t="s">
+      <c r="AB6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="88" t="s">
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="AE6" s="89" t="s">
+      <c r="AE6" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="86" t="s">
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="AH6" s="87" t="s">
+      <c r="AH6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="88" t="s">
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="AK6" s="89" t="s">
+      <c r="AK6" s="88" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="91" t="str" cm="1">
+      <c r="E7" s="81"/>
+      <c r="F7" s="90" t="str" cm="1">
         <f t="array" ref="F7:F15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="90" t="str" cm="1">
+      <c r="H7" s="81"/>
+      <c r="I7" s="89" t="str" cm="1">
         <f t="array" ref="I7:I15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="J7" s="99">
+      <c r="J7" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="91" t="str" cm="1">
+      <c r="K7" s="81"/>
+      <c r="L7" s="90" t="str" cm="1">
         <f t="array" ref="L7:L15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="M7" s="101">
+      <c r="M7" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="82"/>
-      <c r="O7" s="90" t="str" cm="1">
+      <c r="N7" s="81"/>
+      <c r="O7" s="89" t="str" cm="1">
         <f t="array" ref="O7:O15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="P7" s="99">
+      <c r="P7" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O7)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="91" t="str" cm="1">
+      <c r="Q7" s="81"/>
+      <c r="R7" s="90" t="str" cm="1">
         <f t="array" ref="R7:R15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="S7" s="101">
+      <c r="S7" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R7)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="82"/>
-      <c r="U7" s="90" t="str" cm="1">
+      <c r="T7" s="81"/>
+      <c r="U7" s="89" t="str" cm="1">
         <f t="array" ref="U7:U15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="V7" s="99">
+      <c r="V7" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U7)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="82"/>
-      <c r="X7" s="91" t="str" cm="1">
+      <c r="W7" s="81"/>
+      <c r="X7" s="90" t="str" cm="1">
         <f t="array" ref="X7:X15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="Y7" s="101">
+      <c r="Y7" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X7)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="90" t="str" cm="1">
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="89" t="str" cm="1">
         <f t="array" ref="AA7:AA15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="AB7" s="99">
+      <c r="AB7" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA7)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="91" t="str" cm="1">
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="90" t="str" cm="1">
         <f t="array" ref="AD7:AD15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="AE7" s="101">
+      <c r="AE7" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD7)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="90" t="str" cm="1">
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="89" t="str" cm="1">
         <f t="array" ref="AG7:AG15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="AH7" s="99">
+      <c r="AH7" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG7)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="91" t="str" cm="1">
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="90" t="str" cm="1">
         <f t="array" ref="AJ7:AJ15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="AK7" s="101">
+      <c r="AK7" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ7)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="25"/>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="99">
+      <c r="D8" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C8)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="91" t="str">
+      <c r="E8" s="81"/>
+      <c r="F8" s="90" t="str">
         <v>Car maintenance</v>
       </c>
-      <c r="G8" s="101">
+      <c r="G8" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="90" t="str">
+      <c r="H8" s="81"/>
+      <c r="I8" s="89" t="str">
         <v>Car maintenance</v>
       </c>
-      <c r="J8" s="99">
+      <c r="J8" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I8)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="82"/>
-      <c r="L8" s="91" t="str">
+      <c r="K8" s="81"/>
+      <c r="L8" s="90" t="str">
         <v>Car maintenance</v>
       </c>
-      <c r="M8" s="101">
+      <c r="M8" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L8)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="82"/>
-      <c r="O8" s="90" t="str">
+      <c r="N8" s="81"/>
+      <c r="O8" s="89" t="str">
         <v>Car maintenance</v>
       </c>
-      <c r="P8" s="99">
+      <c r="P8" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O8)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="91" t="str">
+      <c r="Q8" s="81"/>
+      <c r="R8" s="90" t="str">
         <v>Car maintenance</v>
       </c>
-      <c r="S8" s="101">
+      <c r="S8" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R8)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="82"/>
-      <c r="U8" s="90" t="str">
+      <c r="T8" s="81"/>
+      <c r="U8" s="89" t="str">
         <v>Car maintenance</v>
       </c>
-      <c r="V8" s="99">
+      <c r="V8" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U8)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="82"/>
-      <c r="X8" s="91" t="str">
+      <c r="W8" s="81"/>
+      <c r="X8" s="90" t="str">
         <v>Car maintenance</v>
       </c>
-      <c r="Y8" s="101">
+      <c r="Y8" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X8)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="90" t="str">
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="89" t="str">
         <v>Car maintenance</v>
       </c>
-      <c r="AB8" s="99">
+      <c r="AB8" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA8)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="91" t="str">
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="90" t="str">
         <v>Car maintenance</v>
       </c>
-      <c r="AE8" s="101">
+      <c r="AE8" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD8)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="90" t="str">
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="89" t="str">
         <v>Car maintenance</v>
       </c>
-      <c r="AH8" s="99">
+      <c r="AH8" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG8)</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="91" t="str">
+      <c r="AI8" s="81"/>
+      <c r="AJ8" s="90" t="str">
         <v>Car maintenance</v>
       </c>
-      <c r="AK8" s="101">
+      <c r="AK8" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="99">
+      <c r="D9" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="91" t="str">
+      <c r="E9" s="81"/>
+      <c r="F9" s="90" t="str">
         <v>Clothing</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="90" t="str">
+      <c r="H9" s="81"/>
+      <c r="I9" s="89" t="str">
         <v>Clothing</v>
       </c>
-      <c r="J9" s="99">
+      <c r="J9" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="82"/>
-      <c r="L9" s="91" t="str">
+      <c r="K9" s="81"/>
+      <c r="L9" s="90" t="str">
         <v>Clothing</v>
       </c>
-      <c r="M9" s="101">
+      <c r="M9" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L9)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="82"/>
-      <c r="O9" s="90" t="str">
+      <c r="N9" s="81"/>
+      <c r="O9" s="89" t="str">
         <v>Clothing</v>
       </c>
-      <c r="P9" s="99">
+      <c r="P9" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O9)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="91" t="str">
+      <c r="Q9" s="81"/>
+      <c r="R9" s="90" t="str">
         <v>Clothing</v>
       </c>
-      <c r="S9" s="101">
+      <c r="S9" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R9)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="82"/>
-      <c r="U9" s="90" t="str">
+      <c r="T9" s="81"/>
+      <c r="U9" s="89" t="str">
         <v>Clothing</v>
       </c>
-      <c r="V9" s="99">
+      <c r="V9" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U9)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="82"/>
-      <c r="X9" s="91" t="str">
+      <c r="W9" s="81"/>
+      <c r="X9" s="90" t="str">
         <v>Clothing</v>
       </c>
-      <c r="Y9" s="101">
+      <c r="Y9" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X9)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="90" t="str">
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="89" t="str">
         <v>Clothing</v>
       </c>
-      <c r="AB9" s="99">
+      <c r="AB9" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA9)</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="91" t="str">
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="90" t="str">
         <v>Clothing</v>
       </c>
-      <c r="AE9" s="101">
+      <c r="AE9" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD9)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="90" t="str">
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="89" t="str">
         <v>Clothing</v>
       </c>
-      <c r="AH9" s="99">
+      <c r="AH9" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG9)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="91" t="str">
+      <c r="AI9" s="81"/>
+      <c r="AJ9" s="90" t="str">
         <v>Clothing</v>
       </c>
-      <c r="AK9" s="101">
+      <c r="AK9" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="25"/>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="99">
+      <c r="D10" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="91" t="str">
+      <c r="E10" s="81"/>
+      <c r="F10" s="90" t="str">
         <v>Eletron n' games</v>
       </c>
-      <c r="G10" s="101">
+      <c r="G10" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="90" t="str">
+      <c r="H10" s="81"/>
+      <c r="I10" s="89" t="str">
         <v>Eletron n' games</v>
       </c>
-      <c r="J10" s="99">
+      <c r="J10" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="82"/>
-      <c r="L10" s="91" t="str">
+      <c r="K10" s="81"/>
+      <c r="L10" s="90" t="str">
         <v>Eletron n' games</v>
       </c>
-      <c r="M10" s="101">
+      <c r="M10" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="90" t="str">
+      <c r="N10" s="81"/>
+      <c r="O10" s="89" t="str">
         <v>Eletron n' games</v>
       </c>
-      <c r="P10" s="99">
+      <c r="P10" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O10)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="91" t="str">
+      <c r="Q10" s="81"/>
+      <c r="R10" s="90" t="str">
         <v>Eletron n' games</v>
       </c>
-      <c r="S10" s="101">
+      <c r="S10" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R10)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="82"/>
-      <c r="U10" s="90" t="str">
+      <c r="T10" s="81"/>
+      <c r="U10" s="89" t="str">
         <v>Eletron n' games</v>
       </c>
-      <c r="V10" s="99">
+      <c r="V10" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U10)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="82"/>
-      <c r="X10" s="91" t="str">
+      <c r="W10" s="81"/>
+      <c r="X10" s="90" t="str">
         <v>Eletron n' games</v>
       </c>
-      <c r="Y10" s="101">
+      <c r="Y10" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X10)</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="90" t="str">
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="89" t="str">
         <v>Eletron n' games</v>
       </c>
-      <c r="AB10" s="99">
+      <c r="AB10" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA10)</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="91" t="str">
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="90" t="str">
         <v>Eletron n' games</v>
       </c>
-      <c r="AE10" s="101">
+      <c r="AE10" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD10)</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="90" t="str">
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="89" t="str">
         <v>Eletron n' games</v>
       </c>
-      <c r="AH10" s="99">
+      <c r="AH10" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG10)</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="91" t="str">
+      <c r="AI10" s="81"/>
+      <c r="AJ10" s="90" t="str">
         <v>Eletron n' games</v>
       </c>
-      <c r="AK10" s="101">
+      <c r="AK10" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="91" t="str">
+      <c r="E11" s="81"/>
+      <c r="F11" s="90" t="str">
         <v>Food</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="90" t="str">
+      <c r="H11" s="81"/>
+      <c r="I11" s="89" t="str">
         <v>Food</v>
       </c>
-      <c r="J11" s="99">
+      <c r="J11" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="82"/>
-      <c r="L11" s="91" t="str">
+      <c r="K11" s="81"/>
+      <c r="L11" s="90" t="str">
         <v>Food</v>
       </c>
-      <c r="M11" s="101">
+      <c r="M11" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="82"/>
-      <c r="O11" s="90" t="str">
+      <c r="N11" s="81"/>
+      <c r="O11" s="89" t="str">
         <v>Food</v>
       </c>
-      <c r="P11" s="99">
+      <c r="P11" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O11)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="91" t="str">
+      <c r="Q11" s="81"/>
+      <c r="R11" s="90" t="str">
         <v>Food</v>
       </c>
-      <c r="S11" s="101">
+      <c r="S11" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R11)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="82"/>
-      <c r="U11" s="90" t="str">
+      <c r="T11" s="81"/>
+      <c r="U11" s="89" t="str">
         <v>Food</v>
       </c>
-      <c r="V11" s="99">
+      <c r="V11" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U11)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="82"/>
-      <c r="X11" s="91" t="str">
+      <c r="W11" s="81"/>
+      <c r="X11" s="90" t="str">
         <v>Food</v>
       </c>
-      <c r="Y11" s="101">
+      <c r="Y11" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X11)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="90" t="str">
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="89" t="str">
         <v>Food</v>
       </c>
-      <c r="AB11" s="99">
+      <c r="AB11" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA11)</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="91" t="str">
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="90" t="str">
         <v>Food</v>
       </c>
-      <c r="AE11" s="101">
+      <c r="AE11" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD11)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="90" t="str">
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="89" t="str">
         <v>Food</v>
       </c>
-      <c r="AH11" s="99">
+      <c r="AH11" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG11)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="82"/>
-      <c r="AJ11" s="91" t="str">
+      <c r="AI11" s="81"/>
+      <c r="AJ11" s="90" t="str">
         <v>Food</v>
       </c>
-      <c r="AK11" s="101">
+      <c r="AK11" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="25"/>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="99">
+      <c r="D12" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C12)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="82"/>
-      <c r="F12" s="91" t="str">
+      <c r="E12" s="81"/>
+      <c r="F12" s="90" t="str">
         <v>Gas</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F12)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="90" t="str">
+      <c r="H12" s="81"/>
+      <c r="I12" s="89" t="str">
         <v>Gas</v>
       </c>
-      <c r="J12" s="99">
+      <c r="J12" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I12)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="82"/>
-      <c r="L12" s="91" t="str">
+      <c r="K12" s="81"/>
+      <c r="L12" s="90" t="str">
         <v>Gas</v>
       </c>
-      <c r="M12" s="101">
+      <c r="M12" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L12)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="82"/>
-      <c r="O12" s="90" t="str">
+      <c r="N12" s="81"/>
+      <c r="O12" s="89" t="str">
         <v>Gas</v>
       </c>
-      <c r="P12" s="99">
+      <c r="P12" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O12)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="91" t="str">
+      <c r="Q12" s="81"/>
+      <c r="R12" s="90" t="str">
         <v>Gas</v>
       </c>
-      <c r="S12" s="101">
+      <c r="S12" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R12)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="82"/>
-      <c r="U12" s="90" t="str">
+      <c r="T12" s="81"/>
+      <c r="U12" s="89" t="str">
         <v>Gas</v>
       </c>
-      <c r="V12" s="99">
+      <c r="V12" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U12)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="82"/>
-      <c r="X12" s="91" t="str">
+      <c r="W12" s="81"/>
+      <c r="X12" s="90" t="str">
         <v>Gas</v>
       </c>
-      <c r="Y12" s="101">
+      <c r="Y12" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X12)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="90" t="str">
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="89" t="str">
         <v>Gas</v>
       </c>
-      <c r="AB12" s="99">
+      <c r="AB12" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA12)</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="91" t="str">
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="90" t="str">
         <v>Gas</v>
       </c>
-      <c r="AE12" s="101">
+      <c r="AE12" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD12)</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="90" t="str">
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="89" t="str">
         <v>Gas</v>
       </c>
-      <c r="AH12" s="99">
+      <c r="AH12" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG12)</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="82"/>
-      <c r="AJ12" s="91" t="str">
+      <c r="AI12" s="81"/>
+      <c r="AJ12" s="90" t="str">
         <v>Gas</v>
       </c>
-      <c r="AK12" s="101">
+      <c r="AK12" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="99">
+      <c r="D13" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="91" t="str">
+      <c r="E13" s="81"/>
+      <c r="F13" s="90" t="str">
         <v>Hang out</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F13)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="82"/>
-      <c r="I13" s="90" t="str">
+      <c r="H13" s="81"/>
+      <c r="I13" s="89" t="str">
         <v>Hang out</v>
       </c>
-      <c r="J13" s="99">
+      <c r="J13" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I13)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="82"/>
-      <c r="L13" s="91" t="str">
+      <c r="K13" s="81"/>
+      <c r="L13" s="90" t="str">
         <v>Hang out</v>
       </c>
-      <c r="M13" s="101">
+      <c r="M13" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L13)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="82"/>
-      <c r="O13" s="90" t="str">
+      <c r="N13" s="81"/>
+      <c r="O13" s="89" t="str">
         <v>Hang out</v>
       </c>
-      <c r="P13" s="99">
+      <c r="P13" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O13)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="91" t="str">
+      <c r="Q13" s="81"/>
+      <c r="R13" s="90" t="str">
         <v>Hang out</v>
       </c>
-      <c r="S13" s="101">
+      <c r="S13" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R13)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="82"/>
-      <c r="U13" s="90" t="str">
+      <c r="T13" s="81"/>
+      <c r="U13" s="89" t="str">
         <v>Hang out</v>
       </c>
-      <c r="V13" s="99">
+      <c r="V13" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U13)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="82"/>
-      <c r="X13" s="91" t="str">
+      <c r="W13" s="81"/>
+      <c r="X13" s="90" t="str">
         <v>Hang out</v>
       </c>
-      <c r="Y13" s="101">
+      <c r="Y13" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X13)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="90" t="str">
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="89" t="str">
         <v>Hang out</v>
       </c>
-      <c r="AB13" s="99">
+      <c r="AB13" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA13)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="91" t="str">
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="90" t="str">
         <v>Hang out</v>
       </c>
-      <c r="AE13" s="101">
+      <c r="AE13" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD13)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="90" t="str">
+      <c r="AF13" s="81"/>
+      <c r="AG13" s="89" t="str">
         <v>Hang out</v>
       </c>
-      <c r="AH13" s="99">
+      <c r="AH13" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG13)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="91" t="str">
+      <c r="AI13" s="81"/>
+      <c r="AJ13" s="90" t="str">
         <v>Hang out</v>
       </c>
-      <c r="AK13" s="101">
+      <c r="AK13" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="99">
+      <c r="D14" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="91" t="str">
+      <c r="E14" s="81"/>
+      <c r="F14" s="90" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="90" t="str">
+      <c r="H14" s="81"/>
+      <c r="I14" s="89" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="J14" s="99">
+      <c r="J14" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I14)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="82"/>
-      <c r="L14" s="91" t="str">
+      <c r="K14" s="81"/>
+      <c r="L14" s="90" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="M14" s="101">
+      <c r="M14" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="82"/>
-      <c r="O14" s="90" t="str">
+      <c r="N14" s="81"/>
+      <c r="O14" s="89" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="P14" s="99">
+      <c r="P14" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O14)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="91" t="str">
+      <c r="Q14" s="81"/>
+      <c r="R14" s="90" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="S14" s="101">
+      <c r="S14" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R14)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="82"/>
-      <c r="U14" s="90" t="str">
+      <c r="T14" s="81"/>
+      <c r="U14" s="89" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="V14" s="99">
+      <c r="V14" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U14)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="82"/>
-      <c r="X14" s="91" t="str">
+      <c r="W14" s="81"/>
+      <c r="X14" s="90" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="Y14" s="101">
+      <c r="Y14" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X14)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="90" t="str">
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="89" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="AB14" s="99">
+      <c r="AB14" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA14)</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="91" t="str">
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="90" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="AE14" s="101">
+      <c r="AE14" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD14)</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="90" t="str">
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="89" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="AH14" s="99">
+      <c r="AH14" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG14)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="82"/>
-      <c r="AJ14" s="91" t="str">
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="90" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="AK14" s="101">
+      <c r="AK14" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ14)</f>
         <v>0</v>
       </c>
@@ -11713,143 +11723,143 @@
     <row r="15" spans="1:37" ht="17.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="99">
+      <c r="C15" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="91" t="str">
+      <c r="E15" s="81"/>
+      <c r="F15" s="90" t="str">
         <v>General expen.</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="90" t="str">
+      <c r="H15" s="81"/>
+      <c r="I15" s="89" t="str">
         <v>General expen.</v>
       </c>
-      <c r="J15" s="99">
+      <c r="J15" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I15)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="82"/>
-      <c r="L15" s="91" t="str">
+      <c r="K15" s="81"/>
+      <c r="L15" s="90" t="str">
         <v>General expen.</v>
       </c>
-      <c r="M15" s="101">
+      <c r="M15" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L15)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="82"/>
-      <c r="O15" s="90" t="str">
+      <c r="N15" s="81"/>
+      <c r="O15" s="89" t="str">
         <v>General expen.</v>
       </c>
-      <c r="P15" s="99">
+      <c r="P15" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O15)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="91" t="str">
+      <c r="Q15" s="81"/>
+      <c r="R15" s="90" t="str">
         <v>General expen.</v>
       </c>
-      <c r="S15" s="101">
+      <c r="S15" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R15)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="82"/>
-      <c r="U15" s="90" t="str">
+      <c r="T15" s="81"/>
+      <c r="U15" s="89" t="str">
         <v>General expen.</v>
       </c>
-      <c r="V15" s="99">
+      <c r="V15" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U15)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="82"/>
-      <c r="X15" s="91" t="str">
+      <c r="W15" s="81"/>
+      <c r="X15" s="90" t="str">
         <v>General expen.</v>
       </c>
-      <c r="Y15" s="101">
+      <c r="Y15" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X15)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="90" t="str">
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="89" t="str">
         <v>General expen.</v>
       </c>
-      <c r="AB15" s="99">
+      <c r="AB15" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA15)</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="82"/>
-      <c r="AD15" s="91" t="str">
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="90" t="str">
         <v>General expen.</v>
       </c>
-      <c r="AE15" s="101">
+      <c r="AE15" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD15)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="90" t="str">
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="89" t="str">
         <v>General expen.</v>
       </c>
-      <c r="AH15" s="99">
+      <c r="AH15" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG15)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="91" t="str">
+      <c r="AI15" s="81"/>
+      <c r="AJ15" s="90" t="str">
         <v>General expen.</v>
       </c>
-      <c r="AK15" s="101">
+      <c r="AK15" s="100">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ15)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="82"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="96"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="95"/>
     </row>
     <row r="17" spans="1:37" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="103" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="27"/>
@@ -11858,70 +11868,70 @@
         <v>0</v>
       </c>
       <c r="D17" s="112"/>
-      <c r="E17" s="98"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="113">
         <f>SUM(G7:G15)</f>
         <v>0</v>
       </c>
       <c r="G17" s="113"/>
-      <c r="H17" s="98"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="112">
         <f>SUM(J7:J15)</f>
         <v>0</v>
       </c>
       <c r="J17" s="112"/>
-      <c r="K17" s="98"/>
+      <c r="K17" s="97"/>
       <c r="L17" s="113">
         <f>SUM(M7:M15)</f>
         <v>0</v>
       </c>
       <c r="M17" s="113"/>
-      <c r="N17" s="98"/>
+      <c r="N17" s="97"/>
       <c r="O17" s="112">
         <f>SUM(P7:P15)</f>
         <v>0</v>
       </c>
       <c r="P17" s="112"/>
-      <c r="Q17" s="98"/>
+      <c r="Q17" s="97"/>
       <c r="R17" s="113">
         <f>SUM(S7:S15)</f>
         <v>0</v>
       </c>
       <c r="S17" s="113"/>
-      <c r="T17" s="98"/>
+      <c r="T17" s="97"/>
       <c r="U17" s="112">
         <f>SUM(V7:V15)</f>
         <v>0</v>
       </c>
       <c r="V17" s="112"/>
-      <c r="W17" s="98"/>
+      <c r="W17" s="97"/>
       <c r="X17" s="113">
         <f>SUM(Y7:Y15)</f>
         <v>0</v>
       </c>
       <c r="Y17" s="113"/>
-      <c r="Z17" s="98"/>
+      <c r="Z17" s="97"/>
       <c r="AA17" s="112">
         <f>SUM(AB7:AB15)</f>
         <v>0</v>
       </c>
       <c r="AB17" s="112"/>
-      <c r="AC17" s="98"/>
+      <c r="AC17" s="97"/>
       <c r="AD17" s="113">
         <f>SUM(AE7:AE15)</f>
         <v>0</v>
       </c>
       <c r="AE17" s="113"/>
-      <c r="AF17" s="98"/>
+      <c r="AF17" s="97"/>
       <c r="AG17" s="112">
         <f>SUM(AH7:AH15)</f>
         <v>0</v>
       </c>
       <c r="AH17" s="112"/>
-      <c r="AI17" s="98"/>
+      <c r="AI17" s="97"/>
       <c r="AJ17" s="113">
         <f>SUM(AK7:AK15)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="113"/>
     </row>
@@ -11938,11 +11948,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AJ17:AK17"/>
@@ -11951,6 +11956,11 @@
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="iconSet" priority="1">
@@ -11993,49 +12003,49 @@
     <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="58"/>
+    <col min="6" max="6" width="9.140625" style="57"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
-        <v>51</v>
+      <c r="B3" s="60" t="s">
+        <v>63</v>
       </c>
       <c r="C3" s="23"/>
       <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="57" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="str" cm="1">
         <f t="array" ref="E4:E12">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="F4" s="62" cm="1">
+      <c r="F4" s="61" cm="1">
         <f t="array" ref="F4:F12">_xlfn._xlws.FILTER('Map - Expenses'!D7:AK15,'Map - Expenses'!D2:AK2=B3)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="13.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="63">
+      <c r="B5" s="62">
         <f>SUM(F4:F12)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="str">
         <v>Car maintenance</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="61">
         <v>0</v>
       </c>
     </row>
@@ -12043,7 +12053,7 @@
       <c r="E6" s="2" t="str">
         <v>Clothing</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="61">
         <v>0</v>
       </c>
     </row>
@@ -12051,7 +12061,7 @@
       <c r="E7" s="2" t="str">
         <v>Eletron n' games</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="61">
         <v>0</v>
       </c>
     </row>
@@ -12059,7 +12069,7 @@
       <c r="E8" s="2" t="str">
         <v>Food</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="61">
         <v>0</v>
       </c>
     </row>
@@ -12067,7 +12077,7 @@
       <c r="E9" s="2" t="str">
         <v>Gas</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="61">
         <v>0</v>
       </c>
     </row>
@@ -12075,7 +12085,7 @@
       <c r="E10" s="2" t="str">
         <v>Hang out</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="61">
         <v>0</v>
       </c>
     </row>
@@ -12083,7 +12093,7 @@
       <c r="E11" s="2" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="61">
         <v>0</v>
       </c>
     </row>
@@ -12091,8 +12101,8 @@
       <c r="E12" s="2" t="str">
         <v>General expen.</v>
       </c>
-      <c r="F12" s="62">
-        <v>50</v>
+      <c r="F12" s="61">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12168,418 +12178,409 @@
         <v>40</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="115" t="s">
+      <c r="L2" s="115"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="116"/>
-      <c r="P2" s="53"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="str">
-        <f>PROPER(TEXT("01/01","MMMM"))</f>
-        <v>Janeiro</v>
+      <c r="A3" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="64">
+      <c r="C3" s="63">
         <f>'Map - Net Salary'!B17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="65">
+      <c r="D3" s="64">
         <f>SUM('Map - Net Salary'!B14:B15)</f>
         <v>0</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="66">
+      <c r="F3" s="65">
         <f>SUM('Map - Expenses'!C17:C17)</f>
         <v>0</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="64">
+      <c r="H3" s="63">
         <f>I3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="66">
         <f>'Map - Expenses'!D4</f>
         <v>0</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="65">
+      <c r="L3" s="64">
         <f>SUM('Map - Net Salary'!B4:M6)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="M3" s="10"/>
-      <c r="N3" s="57" t="str">
+      <c r="N3" s="56" t="str">
         <f>'Map - Expenses'!C7</f>
         <v>Bills</v>
       </c>
-      <c r="O3" s="68">
+      <c r="O3" s="67">
         <f>SUM('Map - Expenses'!D7,'Map - Expenses'!G7,'Map - Expenses'!J7,'Map - Expenses'!M7,'Map - Expenses'!P7,'Map - Expenses'!S7,'Map - Expenses'!V7,'Map - Expenses'!Y7,'Map - Expenses'!AB7,'Map - Expenses'!AE7,'Map - Expenses'!AH7,'Map - Expenses'!AK7)</f>
-        <v>50</v>
-      </c>
-      <c r="P3" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="52"/>
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="str">
-        <f>PROPER(TEXT("01/02","MMMM"))</f>
-        <v>Fevereiro</v>
+      <c r="A4" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="64">
+      <c r="C4" s="63">
         <f>'Map - Net Salary'!C17</f>
         <v>0</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="64">
         <f>SUM('Map - Net Salary'!C14:C15)</f>
         <v>0</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="66">
+      <c r="F4" s="65">
         <f>SUM('Map - Expenses'!F17:G17)</f>
         <v>0</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="64">
+      <c r="H4" s="63">
         <f t="shared" ref="H4:H14" si="0">I4-I3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="66">
         <f>'Map - Expenses'!G4</f>
         <v>0</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="64">
         <f>SUM('Map - Net Salary'!B9:M11)</f>
         <v>0</v>
       </c>
       <c r="M4" s="10"/>
-      <c r="N4" s="57" t="str">
+      <c r="N4" s="56" t="str">
         <f>'Map - Expenses'!C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="O4" s="68">
+      <c r="O4" s="67">
         <f>SUM('Map - Expenses'!D8,'Map - Expenses'!G8,'Map - Expenses'!J8,'Map - Expenses'!M8,'Map - Expenses'!P8,'Map - Expenses'!S8,'Map - Expenses'!V8,'Map - Expenses'!Y8,'Map - Expenses'!AB8,'Map - Expenses'!AE8,'Map - Expenses'!AH8,'Map - Expenses'!AK8)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="53"/>
+      <c r="P4" s="52"/>
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="str">
-        <f>PROPER(TEXT("01/03","MMMM"))</f>
-        <v>Março</v>
+      <c r="A5" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="64">
+      <c r="C5" s="63">
         <f>'Map - Net Salary'!D17</f>
         <v>0</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="64">
         <f>SUM('Map - Net Salary'!D14:D15)</f>
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="66">
+      <c r="F5" s="65">
         <f>SUM('Map - Expenses'!I17:J17)</f>
         <v>0</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="64">
+      <c r="H5" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="66">
         <f>'Map - Expenses'!J4</f>
         <v>0</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="65">
+      <c r="L5" s="64">
         <f>SUM('Map - Net Salary'!B4:M6)-SUM('Map - Net Salary'!B13:M15)-SUM('Map - Net Salary'!B9:M11)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="57" t="str">
+      <c r="N5" s="56" t="str">
         <f>'Map - Expenses'!C9</f>
         <v>Clothing</v>
       </c>
-      <c r="O5" s="68">
+      <c r="O5" s="67">
         <f>SUM('Map - Expenses'!D9,'Map - Expenses'!G9,'Map - Expenses'!J9,'Map - Expenses'!M9,'Map - Expenses'!P9,'Map - Expenses'!S9,'Map - Expenses'!V9,'Map - Expenses'!Y9,'Map - Expenses'!AB9,'Map - Expenses'!AE9,'Map - Expenses'!AH9,'Map - Expenses'!AK9)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="53"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="str">
-        <f>PROPER(TEXT("01/04","MMMM"))</f>
-        <v>Abril</v>
+      <c r="A6" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="64">
+      <c r="C6" s="63">
         <f>'Map - Net Salary'!E17</f>
         <v>0</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="64">
         <f>SUM('Map - Net Salary'!E14:E15)</f>
         <v>0</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="66">
+      <c r="F6" s="65">
         <f>SUM('Map - Expenses'!L17:M17)</f>
         <v>0</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="64">
+      <c r="H6" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="66">
         <f>'Map - Expenses'!M4</f>
         <v>0</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="64">
         <f>SUM('Map - Expenses'!D7:D14,'Map - Expenses'!G7:G14,'Map - Expenses'!J7:J14,'Map - Expenses'!M7:M14,'Map - Expenses'!P7:P14,'Map - Expenses'!S7:S14,'Map - Expenses'!V7:V14,'Map - Expenses'!Y7:Y14,'Map - Expenses'!AB7:AB14,'Map - Expenses'!AE7:AE14,'Map - Expenses'!AH7:AH14,'Map - Expenses'!AK7:AK14)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="57" t="str">
+      <c r="N6" s="56" t="str">
         <f>'Map - Expenses'!C10</f>
         <v>Eletron n' games</v>
       </c>
-      <c r="O6" s="68">
+      <c r="O6" s="67">
         <f>SUM('Map - Expenses'!D10,'Map - Expenses'!G10,'Map - Expenses'!J10,'Map - Expenses'!M10,'Map - Expenses'!P10,'Map - Expenses'!S10,'Map - Expenses'!V10,'Map - Expenses'!Y10,'Map - Expenses'!AB10,'Map - Expenses'!AE10,'Map - Expenses'!AH10,'Map - Expenses'!AK10)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="53"/>
+      <c r="P6" s="52"/>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="str">
-        <f>PROPER(TEXT("01/05","MMMM"))</f>
-        <v>Maio</v>
+      <c r="A7" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="64">
+      <c r="C7" s="63">
         <f>'Map - Net Salary'!F17</f>
         <v>0</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="64">
         <f>SUM('Map - Net Salary'!F14:F15)</f>
         <v>0</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="66">
+      <c r="F7" s="65">
         <f>SUM('Map - Expenses'!O17:P17)</f>
         <v>0</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="64">
+      <c r="H7" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="66">
         <f>'Map - Expenses'!P4</f>
         <v>0</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="64">
         <f>SUM('Map - Expenses'!D15:D15,'Map - Expenses'!G15:G15,'Map - Expenses'!J15:J15,'Map - Expenses'!M15:M15,'Map - Expenses'!P15:P15,'Map - Expenses'!S15:S15,'Map - Expenses'!V15:V15,'Map - Expenses'!Y15:Y15,'Map - Expenses'!AB15:AB15,'Map - Expenses'!AE15:AE15,'Map - Expenses'!AH15:AH15,'Map - Expenses'!AK15:AK15)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="57" t="str">
+      <c r="N7" s="56" t="str">
         <f>'Map - Expenses'!C11</f>
         <v>Food</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="67">
         <f>SUM('Map - Expenses'!D11,'Map - Expenses'!G11,'Map - Expenses'!J11,'Map - Expenses'!M11,'Map - Expenses'!P11,'Map - Expenses'!S11,'Map - Expenses'!V11,'Map - Expenses'!Y11,'Map - Expenses'!AB11,'Map - Expenses'!AE11,'Map - Expenses'!AH11,'Map - Expenses'!AK11)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="53"/>
+      <c r="P7" s="52"/>
     </row>
     <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="str">
-        <f>PROPER(TEXT("01/06","MMMM"))</f>
-        <v>Junho</v>
+      <c r="A8" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="64">
+      <c r="C8" s="63">
         <f>'Map - Net Salary'!G17</f>
         <v>0</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="64">
         <f>SUM('Map - Net Salary'!G15:G49)</f>
         <v>0</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="66">
+      <c r="F8" s="65">
         <f>SUM('Map - Expenses'!R17:S17)</f>
         <v>0</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="64">
+      <c r="H8" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="66">
         <f>'Map - Expenses'!S4</f>
         <v>0</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="64">
         <f>SUM(L6:L7)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="57" t="str">
+      <c r="N8" s="56" t="str">
         <f>'Map - Expenses'!C12</f>
         <v>Gas</v>
       </c>
-      <c r="O8" s="68">
+      <c r="O8" s="67">
         <f>SUM('Map - Expenses'!D12,'Map - Expenses'!G12,'Map - Expenses'!J12,'Map - Expenses'!M12,'Map - Expenses'!P12,'Map - Expenses'!S12,'Map - Expenses'!V12,'Map - Expenses'!Y12,'Map - Expenses'!AB12,'Map - Expenses'!AE12,'Map - Expenses'!AH12,'Map - Expenses'!AK12)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="53"/>
+      <c r="P8" s="52"/>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="str">
-        <f>PROPER(TEXT("01/07","MMMM"))</f>
-        <v>Julho</v>
+      <c r="A9" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="64">
+      <c r="C9" s="63">
         <f>'Map - Net Salary'!H17</f>
         <v>0</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="64">
         <f>SUM('Map - Net Salary'!H14:H15)</f>
         <v>0</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="66">
+      <c r="F9" s="65">
         <f>SUM('Map - Expenses'!U17:V17)</f>
         <v>0</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="64">
+      <c r="H9" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="66">
         <f>'Map - Expenses'!V4</f>
         <v>0</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="67">
+      <c r="L9" s="66">
         <f>'Map - Expenses'!AK4</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M9" s="11"/>
-      <c r="N9" s="57" t="str">
+      <c r="N9" s="56" t="str">
         <f>'Map - Expenses'!C13</f>
         <v>Hang out</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="67">
         <f>SUM('Map - Expenses'!D13,'Map - Expenses'!G13,'Map - Expenses'!J13,'Map - Expenses'!M13,'Map - Expenses'!P13,'Map - Expenses'!S13,'Map - Expenses'!V13,'Map - Expenses'!Y13,'Map - Expenses'!AB13,'Map - Expenses'!AE13,'Map - Expenses'!AH13,'Map - Expenses'!AK13)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="53"/>
+      <c r="P9" s="52"/>
     </row>
     <row r="10" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="str">
-        <f>PROPER(TEXT("01/08","MMMM"))</f>
-        <v>Agosto</v>
+      <c r="A10" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="64">
+      <c r="C10" s="63">
         <f>'Map - Net Salary'!I17</f>
         <v>0</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="64">
         <f>SUM('Map - Net Salary'!I14:I15)</f>
         <v>0</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="66">
+      <c r="F10" s="65">
         <f>SUM('Map - Expenses'!X17:Y17)</f>
         <v>0</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="64">
+      <c r="H10" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="66">
         <f>'Map - Expenses'!Y4</f>
         <v>0</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="69">
+      <c r="L10" s="68">
         <f>'Graphic - Annual'!D15</f>
         <v>0</v>
       </c>
       <c r="M10" s="11"/>
-      <c r="N10" s="57" t="str">
+      <c r="N10" s="56" t="str">
         <f>'Map - Expenses'!C14</f>
         <v>Healthcare</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="67">
         <f>SUM('Map - Expenses'!D14,'Map - Expenses'!G14,'Map - Expenses'!J14,'Map - Expenses'!M14,'Map - Expenses'!P14,'Map - Expenses'!S14,'Map - Expenses'!V14,'Map - Expenses'!Y14,'Map - Expenses'!AB14,'Map - Expenses'!AE14,'Map - Expenses'!AH14,'Map - Expenses'!AK14)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="53"/>
+      <c r="P10" s="52"/>
     </row>
     <row r="11" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="str">
-        <f>PROPER(TEXT("01/09","MMMM"))</f>
-        <v>Setembro</v>
+      <c r="A11" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="64">
+      <c r="C11" s="63">
         <f>'Map - Net Salary'!J17</f>
         <v>0</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="64">
         <f>SUM('Map - Net Salary'!J14:J15)</f>
         <v>0</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="66">
+      <c r="F11" s="65">
         <f>SUM('Map - Expenses'!AA17:AB17)</f>
         <v>0</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="64">
+      <c r="H11" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="66">
         <f>'Map - Expenses'!AB4</f>
         <v>0</v>
       </c>
@@ -12587,201 +12588,198 @@
       <c r="K11" s="3"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="70">
+      <c r="N11" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="69">
         <f>SUM(O3:O10)</f>
-        <v>50</v>
-      </c>
-      <c r="P11" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="52"/>
     </row>
     <row r="12" spans="1:16" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="str">
-        <f>PROPER(TEXT("01/10","MMMM"))</f>
-        <v>Outubro</v>
+      <c r="A12" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="64">
+      <c r="C12" s="63">
         <f>'Map - Net Salary'!K17</f>
-        <v>250</v>
-      </c>
-      <c r="D12" s="65">
+        <v>0</v>
+      </c>
+      <c r="D12" s="64">
         <f>SUM('Map - Net Salary'!K14:K15)</f>
         <v>0</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="66">
+      <c r="F12" s="65">
         <f>SUM('Map - Expenses'!AD17:AE17)</f>
         <v>0</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="64">
+      <c r="H12" s="63">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="I12" s="67">
+        <v>0</v>
+      </c>
+      <c r="I12" s="66">
         <f>'Map - Expenses'!AE4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="54"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
     </row>
     <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="str">
-        <f>PROPER(TEXT("01/11","MMMM"))</f>
-        <v>Novembro</v>
+      <c r="A13" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="64">
+      <c r="C13" s="63">
         <f>'Map - Net Salary'!L17</f>
         <v>0</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="64">
         <f>SUM('Map - Net Salary'!L14:L15)</f>
         <v>0</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="66">
+      <c r="F13" s="65">
         <f>SUM('Map - Expenses'!AG17:AH17)</f>
         <v>0</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="64">
+      <c r="H13" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="66">
         <f>'Map - Expenses'!AH4</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="53"/>
     </row>
     <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="str">
-        <f>PROPER(TEXT("01/12","MMMM"))</f>
-        <v>Dezembro</v>
+      <c r="A14" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="64">
+      <c r="C14" s="63">
         <f>'Map - Net Salary'!M17</f>
         <v>0</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="64">
         <f>SUM('Map - Net Salary'!M14:M15)</f>
         <v>0</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="66">
+      <c r="F14" s="65">
         <f>SUM('Map - Expenses'!AJ17:AK17)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="64">
+      <c r="H14" s="63">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="I14" s="67">
+        <v>0</v>
+      </c>
+      <c r="I14" s="66">
         <f>'Map - Expenses'!AK4</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
     </row>
     <row r="15" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="71">
+      <c r="C15" s="70">
         <f>SUM(C3:C14)</f>
-        <v>250</v>
-      </c>
-      <c r="D15" s="65">
+        <v>0</v>
+      </c>
+      <c r="D15" s="64">
         <f>SUM(D3:D14)</f>
         <v>0</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="66">
+      <c r="F15" s="65">
         <f>SUM(F3:F14)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="68">
         <f>'Graphic - Annual'!L9</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
     </row>
     <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="71">
+      <c r="C16" s="70">
         <f>AVERAGE(C3:C14)</f>
-        <v>20.833333333333332</v>
-      </c>
-      <c r="D16" s="65">
+        <v>0</v>
+      </c>
+      <c r="D16" s="64">
         <f>AVERAGE(D3:D14)</f>
         <v>0</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="73">
+      <c r="F16" s="72">
         <f>AVERAGE(F3:F14)</f>
-        <v>8.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="8"/>
       <c r="I16" s="13"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
     </row>
     <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="64">
+      <c r="C17" s="63">
         <f>SUM(C3:C8)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="66">
         <f>SUM(D3:D8)</f>
         <v>0</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="74">
+      <c r="F17" s="73">
         <f>SUM(F3:F8)</f>
         <v>0</v>
       </c>
@@ -12789,41 +12787,41 @@
       <c r="H17" s="10"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
     </row>
     <row r="18" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="72">
+      <c r="C18" s="71">
         <f>SUM($C$9:$C$14)</f>
-        <v>250</v>
-      </c>
-      <c r="D18" s="69">
+        <v>0</v>
+      </c>
+      <c r="D18" s="68">
         <f>SUM($D$9:$D$14)</f>
         <v>0</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="75">
+      <c r="F18" s="74">
         <f>SUM($F$9:$F$14)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
     </row>
     <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -12836,48 +12834,48 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
     </row>
     <row r="26" spans="1:16" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:16" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
+++ b/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Python\Python\Projects\Automate_Python\Report_Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867C794-77F0-44FC-AD02-4A0671B5406A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C612D97D-86D8-4129-AD28-CCE67C305C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -847,11 +847,11 @@
     <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,13 +859,13 @@
     <xf numFmtId="166" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -874,50 +874,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Comic Sans MS"/>
-        <family val="4"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="mm/dd"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Comic Sans MS"/>
-        <family val="4"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="mmmm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1040,6 +996,50 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="mmmm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="mmmm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Comic Sans MS"/>
+        <family val="4"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="mm/dd"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6582,15 +6582,15 @@
     <sortCondition ref="B9:B22"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F0A7AC4E-C2B6-48F0-8ABD-146393E8FC69}" name="Date" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{684795FD-753E-4C1F-B63E-5EE124E9D624}" name="Month" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{F0A7AC4E-C2B6-48F0-8ABD-146393E8FC69}" name="Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{684795FD-753E-4C1F-B63E-5EE124E9D624}" name="Month" dataDxfId="7">
       <calculatedColumnFormula>IF(ISBLANK(B10),"",PROPER(TEXT(B10,"MMMM")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{23818CCC-08C7-4066-9B86-98D831460C75}" name="Operation" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{78815540-1C3C-4370-A3E4-1C8E033CFC39}" name="Category" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{F153B94E-6C60-4C63-A86C-8519A94E1F13}" name="Allocation" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{EE54C9A2-2D53-4D6A-93DF-88B691A8C3D9}" name="Amount" dataDxfId="5" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{28149A80-D409-4A63-B4C2-6EDA92C21F54}" name="Description" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{23818CCC-08C7-4066-9B86-98D831460C75}" name="Operation" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{78815540-1C3C-4370-A3E4-1C8E033CFC39}" name="Category" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F153B94E-6C60-4C63-A86C-8519A94E1F13}" name="Allocation" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{EE54C9A2-2D53-4D6A-93DF-88B691A8C3D9}" name="Amount" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{28149A80-D409-4A63-B4C2-6EDA92C21F54}" name="Description" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6890,7 +6890,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:E2"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6908,15 +6908,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110" t="str">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111" t="str">
         <f ca="1">PROPER(TEXT(TODAY(),"MMMM"))</f>
         <v>Outubro</v>
       </c>
-      <c r="E2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="47"/>
       <c r="H2" s="46"/>
     </row>
@@ -7032,7 +7032,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="116">
+      <c r="B10" s="110">
         <v>45200</v>
       </c>
       <c r="C10" s="43" t="str">
@@ -7054,7 +7054,7 @@
       <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="116">
+      <c r="B11" s="110">
         <v>45262</v>
       </c>
       <c r="C11" s="43" t="str">
@@ -7076,7 +7076,7 @@
       <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="116">
+      <c r="B12" s="110">
         <v>45263</v>
       </c>
       <c r="C12" s="43" t="str">
@@ -7098,7 +7098,7 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="116"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="43" t="str">
         <f>IF(ISBLANK(B13),"",PROPER(TEXT(B13,"MMMM")))</f>
         <v/>
@@ -9870,14 +9870,14 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D13" xr:uid="{C83335F3-FA3F-4328-AD66-E817659D90AB}">
       <formula1>"Income, Discount, Investments, Expenses, Transfer"</formula1>
     </dataValidation>
@@ -10829,7 +10829,7 @@
       <c r="AK5" s="84"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="114" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="25"/>
@@ -10918,7 +10918,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="25"/>
       <c r="C7" s="89" t="s">
         <v>22</v>
@@ -11028,7 +11028,7 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="25"/>
       <c r="C8" s="91" t="s">
         <v>23</v>
@@ -11127,7 +11127,7 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="25"/>
       <c r="C9" s="92" t="s">
         <v>24</v>
@@ -11226,7 +11226,7 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="25"/>
       <c r="C10" s="91" t="s">
         <v>25</v>
@@ -11325,7 +11325,7 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="25"/>
       <c r="C11" s="89" t="s">
         <v>26</v>
@@ -11424,7 +11424,7 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="25"/>
       <c r="C12" s="92" t="s">
         <v>27</v>
@@ -11523,7 +11523,7 @@
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="25"/>
       <c r="C13" s="91" t="s">
         <v>28</v>
@@ -11622,7 +11622,7 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="25"/>
       <c r="C14" s="93" t="s">
         <v>29</v>
@@ -11948,6 +11948,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AJ17:AK17"/>
@@ -11956,11 +11961,6 @@
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="iconSet" priority="1">
@@ -12178,15 +12178,15 @@
         <v>40</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="114" t="s">
+      <c r="K2" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="115"/>
+      <c r="L2" s="116"/>
       <c r="M2" s="51"/>
-      <c r="N2" s="114" t="s">
+      <c r="N2" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="115"/>
+      <c r="O2" s="116"/>
       <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">

--- a/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
+++ b/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Python\Python\Projects\Automate_Python\Report_Budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Personal_Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C612D97D-86D8-4129-AD28-CCE67C305C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2103C05-B1B7-4E09-BFA0-E15F268BDEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
   <si>
     <t>Total</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Annual</t>
-  </si>
-  <si>
-    <t>Plan</t>
   </si>
   <si>
     <t>Real vs Plan</t>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>Accumulative</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -867,6 +867,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1169,9 +1172,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="2.5291336811539009E-3"/>
+          <c:y val="6.4124993504356423E-2"/>
           <c:w val="1"/>
-          <c:h val="0.79665076208681651"/>
+          <c:h val="0.73505465001472348"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6922,7 +6925,7 @@
     </row>
     <row r="3" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="104" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Allocation],B3,Tabela1[Date],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Allocation],B3,Tabela1[Date],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Amount],Tabela1[Category],B3,Tabela1[Date],"&lt;="&amp;(TODAY()))</f>
@@ -6964,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E5" s="105" t="e">
         <f ca="1">VLOOKUP(D2,'Graphic - Annual'!A3:I14,9,FALSE)</f>
@@ -6982,7 +6985,7 @@
         <v>250</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="105" t="e">
         <f ca="1">ROUND(C6-E5,2)</f>
@@ -7010,25 +7013,25 @@
     </row>
     <row r="9" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="40" t="s">
+      <c r="E9" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="F9" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="41" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -7040,13 +7043,13 @@
         <v>Outubro</v>
       </c>
       <c r="D10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="44" t="s">
-        <v>13</v>
-      </c>
       <c r="F10" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="106">
         <v>250</v>
@@ -7062,13 +7065,13 @@
         <v>Dezembro</v>
       </c>
       <c r="D11" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="44" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>33</v>
       </c>
       <c r="G11" s="106">
         <v>50</v>
@@ -7084,13 +7087,13 @@
         <v>Dezembro</v>
       </c>
       <c r="D12" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="44" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>33</v>
       </c>
       <c r="G12" s="107">
         <v>50</v>
@@ -9877,7 +9880,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D13" xr:uid="{C83335F3-FA3F-4328-AD66-E817659D90AB}">
       <formula1>"Income, Discount, Investments, Expenses, Transfer"</formula1>
     </dataValidation>
@@ -9905,7 +9908,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -9919,50 +9922,50 @@
   <sheetData>
     <row r="2" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A4)</f>
@@ -10015,7 +10018,7 @@
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A5)</f>
@@ -10068,7 +10071,7 @@
     </row>
     <row r="6" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A6)</f>
@@ -10136,7 +10139,7 @@
     </row>
     <row r="8" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -10153,7 +10156,7 @@
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A9)</f>
@@ -10206,7 +10209,7 @@
     </row>
     <row r="10" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A10)</f>
@@ -10259,7 +10262,7 @@
     </row>
     <row r="11" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A11)</f>
@@ -10327,7 +10330,7 @@
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -10344,7 +10347,7 @@
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A14)</f>
@@ -10397,7 +10400,7 @@
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="104">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A15)</f>
@@ -10572,72 +10575,72 @@
   <sheetData>
     <row r="2" spans="1:37" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="75"/>
       <c r="D2" s="76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="77"/>
       <c r="F2" s="77"/>
       <c r="G2" s="78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="77"/>
       <c r="I2" s="77"/>
       <c r="J2" s="79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="77"/>
       <c r="L2" s="77"/>
       <c r="M2" s="78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" s="77"/>
       <c r="O2" s="77"/>
       <c r="P2" s="79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="77"/>
       <c r="R2" s="77"/>
       <c r="S2" s="78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T2" s="77"/>
       <c r="U2" s="77"/>
       <c r="V2" s="79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W2" s="77"/>
       <c r="X2" s="77"/>
       <c r="Y2" s="78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z2" s="77"/>
       <c r="AA2" s="77"/>
       <c r="AB2" s="79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC2" s="77"/>
       <c r="AD2" s="77"/>
       <c r="AE2" s="78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="77"/>
       <c r="AG2" s="77"/>
       <c r="AH2" s="79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI2" s="77"/>
       <c r="AJ2" s="77"/>
       <c r="AK2" s="78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="80"/>
@@ -10830,98 +10833,98 @@
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="86" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>35</v>
       </c>
       <c r="E6" s="84"/>
       <c r="F6" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="88" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="84"/>
       <c r="I6" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="86" t="s">
         <v>34</v>
-      </c>
-      <c r="J6" s="86" t="s">
-        <v>35</v>
       </c>
       <c r="K6" s="84"/>
       <c r="L6" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="88" t="s">
         <v>34</v>
-      </c>
-      <c r="M6" s="88" t="s">
-        <v>35</v>
       </c>
       <c r="N6" s="84"/>
       <c r="O6" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="86" t="s">
         <v>34</v>
-      </c>
-      <c r="P6" s="86" t="s">
-        <v>35</v>
       </c>
       <c r="Q6" s="84"/>
       <c r="R6" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="88" t="s">
         <v>34</v>
-      </c>
-      <c r="S6" s="88" t="s">
-        <v>35</v>
       </c>
       <c r="T6" s="84"/>
       <c r="U6" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="86" t="s">
         <v>34</v>
-      </c>
-      <c r="V6" s="86" t="s">
-        <v>35</v>
       </c>
       <c r="W6" s="84"/>
       <c r="X6" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6" s="88" t="s">
         <v>34</v>
-      </c>
-      <c r="Y6" s="88" t="s">
-        <v>35</v>
       </c>
       <c r="Z6" s="84"/>
       <c r="AA6" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="86" t="s">
         <v>34</v>
-      </c>
-      <c r="AB6" s="86" t="s">
-        <v>35</v>
       </c>
       <c r="AC6" s="84"/>
       <c r="AD6" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE6" s="88" t="s">
         <v>34</v>
-      </c>
-      <c r="AE6" s="88" t="s">
-        <v>35</v>
       </c>
       <c r="AF6" s="84"/>
       <c r="AG6" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH6" s="86" t="s">
         <v>34</v>
-      </c>
-      <c r="AH6" s="86" t="s">
-        <v>35</v>
       </c>
       <c r="AI6" s="84"/>
       <c r="AJ6" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK6" s="88" t="s">
         <v>34</v>
-      </c>
-      <c r="AK6" s="88" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="114"/>
       <c r="B7" s="25"/>
       <c r="C7" s="89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C7)</f>
@@ -11031,7 +11034,7 @@
       <c r="A8" s="114"/>
       <c r="B8" s="25"/>
       <c r="C8" s="91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C8)</f>
@@ -11130,7 +11133,7 @@
       <c r="A9" s="114"/>
       <c r="B9" s="25"/>
       <c r="C9" s="92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C9)</f>
@@ -11229,7 +11232,7 @@
       <c r="A10" s="114"/>
       <c r="B10" s="25"/>
       <c r="C10" s="91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C10)</f>
@@ -11328,7 +11331,7 @@
       <c r="A11" s="114"/>
       <c r="B11" s="25"/>
       <c r="C11" s="89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C11)</f>
@@ -11427,7 +11430,7 @@
       <c r="A12" s="114"/>
       <c r="B12" s="25"/>
       <c r="C12" s="92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C12)</f>
@@ -11526,7 +11529,7 @@
       <c r="A13" s="114"/>
       <c r="B13" s="25"/>
       <c r="C13" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C13)</f>
@@ -11625,7 +11628,7 @@
       <c r="A14" s="114"/>
       <c r="B14" s="25"/>
       <c r="C14" s="93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C14)</f>
@@ -11724,7 +11727,7 @@
       <c r="A15" s="35"/>
       <c r="B15" s="26"/>
       <c r="C15" s="89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C15)</f>
@@ -11993,7 +11996,7 @@
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -12009,19 +12012,19 @@
   <sheetData>
     <row r="2" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="23"/>
       <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
@@ -12037,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="13.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="62">
         <f>SUM(F4:F12)</f>
         <v>0</v>
@@ -12049,7 +12052,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="59" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="2" t="str">
         <v>Clothing</v>
       </c>
@@ -12057,7 +12063,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="117">
+        <f>VLOOKUP(B3,'Graphic - Annual'!A3:I14,9,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="E7" s="2" t="str">
         <v>Eletron n' games</v>
       </c>
@@ -12157,41 +12167,41 @@
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="116"/>
       <c r="M2" s="51"/>
       <c r="N2" s="115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="116"/>
       <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="63">
@@ -12218,7 +12228,7 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" s="64">
         <f>SUM('Map - Net Salary'!B4:M6)</f>
@@ -12237,7 +12247,7 @@
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="63">
@@ -12264,7 +12274,7 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="64">
         <f>SUM('Map - Net Salary'!B9:M11)</f>
@@ -12283,7 +12293,7 @@
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="63">
@@ -12310,7 +12320,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L5" s="64">
         <f>SUM('Map - Net Salary'!B4:M6)-SUM('Map - Net Salary'!B13:M15)-SUM('Map - Net Salary'!B9:M11)</f>
@@ -12329,7 +12339,7 @@
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="63">
@@ -12356,7 +12366,7 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L6" s="64">
         <f>SUM('Map - Expenses'!D7:D14,'Map - Expenses'!G7:G14,'Map - Expenses'!J7:J14,'Map - Expenses'!M7:M14,'Map - Expenses'!P7:P14,'Map - Expenses'!S7:S14,'Map - Expenses'!V7:V14,'Map - Expenses'!Y7:Y14,'Map - Expenses'!AB7:AB14,'Map - Expenses'!AE7:AE14,'Map - Expenses'!AH7:AH14,'Map - Expenses'!AK7:AK14)</f>
@@ -12375,7 +12385,7 @@
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="63">
@@ -12402,7 +12412,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" s="64">
         <f>SUM('Map - Expenses'!D15:D15,'Map - Expenses'!G15:G15,'Map - Expenses'!J15:J15,'Map - Expenses'!M15:M15,'Map - Expenses'!P15:P15,'Map - Expenses'!S15:S15,'Map - Expenses'!V15:V15,'Map - Expenses'!Y15:Y15,'Map - Expenses'!AB15:AB15,'Map - Expenses'!AE15:AE15,'Map - Expenses'!AH15:AH15,'Map - Expenses'!AK15:AK15)</f>
@@ -12421,7 +12431,7 @@
     </row>
     <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="63">
@@ -12448,7 +12458,7 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" s="64">
         <f>SUM(L6:L7)</f>
@@ -12467,7 +12477,7 @@
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="63">
@@ -12494,7 +12504,7 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="66">
         <f>'Map - Expenses'!AK4</f>
@@ -12513,7 +12523,7 @@
     </row>
     <row r="10" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="63">
@@ -12540,7 +12550,7 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="68">
         <f>'Graphic - Annual'!D15</f>
@@ -12559,7 +12569,7 @@
     </row>
     <row r="11" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="63">
@@ -12599,7 +12609,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="63">
@@ -12634,7 +12644,7 @@
     </row>
     <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="63">
@@ -12669,7 +12679,7 @@
     </row>
     <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="63">
@@ -12722,7 +12732,7 @@
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="68">
         <f>'Graphic - Annual'!L9</f>
@@ -12738,7 +12748,7 @@
     </row>
     <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="70">

--- a/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
+++ b/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Personal_Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2103C05-B1B7-4E09-BFA0-E15F268BDEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC23180A-FEED-4171-B08E-D26923DAF827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
   <si>
     <t>Total</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Blc Month</t>
   </si>
   <si>
-    <t>Blc Accumu.</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -263,7 +260,13 @@
     <t>December</t>
   </si>
   <si>
-    <t>Accumulative</t>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Blc Actual</t>
+  </si>
+  <si>
+    <t>Blc. Actual</t>
   </si>
 </sst>
 </file>
@@ -850,8 +853,14 @@
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,17 +868,11 @@
     <xf numFmtId="166" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6911,15 +6914,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111" t="str">
+      <c r="C2" s="112"/>
+      <c r="D2" s="112" t="str">
         <f ca="1">PROPER(TEXT(TODAY(),"MMMM"))</f>
         <v>Outubro</v>
       </c>
-      <c r="E2" s="111"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="47"/>
       <c r="H2" s="46"/>
     </row>
@@ -6967,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="105" t="e">
         <f ca="1">VLOOKUP(D2,'Graphic - Annual'!A3:I14,9,FALSE)</f>
@@ -7013,19 +7016,19 @@
     </row>
     <row r="9" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="F9" s="41" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>49</v>
       </c>
       <c r="G9" s="42" t="s">
         <v>34</v>
@@ -7090,7 +7093,7 @@
         <v>31</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="44" t="s">
         <v>32</v>
@@ -9922,40 +9925,40 @@
   <sheetData>
     <row r="2" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10580,62 +10583,62 @@
       <c r="B2" s="28"/>
       <c r="C2" s="75"/>
       <c r="D2" s="76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="77"/>
       <c r="F2" s="77"/>
       <c r="G2" s="78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="77"/>
       <c r="I2" s="77"/>
       <c r="J2" s="79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="77"/>
       <c r="L2" s="77"/>
       <c r="M2" s="78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N2" s="77"/>
       <c r="O2" s="77"/>
       <c r="P2" s="79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="77"/>
       <c r="R2" s="77"/>
       <c r="S2" s="78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T2" s="77"/>
       <c r="U2" s="77"/>
       <c r="V2" s="79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W2" s="77"/>
       <c r="X2" s="77"/>
       <c r="Y2" s="78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z2" s="77"/>
       <c r="AA2" s="77"/>
       <c r="AB2" s="79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC2" s="77"/>
       <c r="AD2" s="77"/>
       <c r="AE2" s="78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF2" s="77"/>
       <c r="AG2" s="77"/>
       <c r="AH2" s="79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AI2" s="77"/>
       <c r="AJ2" s="77"/>
       <c r="AK2" s="78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10832,7 +10835,7 @@
       <c r="AK5" s="84"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="113" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="25"/>
@@ -10921,7 +10924,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="25"/>
       <c r="C7" s="89" t="s">
         <v>21</v>
@@ -11031,7 +11034,7 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="25"/>
       <c r="C8" s="91" t="s">
         <v>22</v>
@@ -11130,7 +11133,7 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="25"/>
       <c r="C9" s="92" t="s">
         <v>23</v>
@@ -11229,7 +11232,7 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="25"/>
       <c r="C10" s="91" t="s">
         <v>24</v>
@@ -11328,7 +11331,7 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="25"/>
       <c r="C11" s="89" t="s">
         <v>25</v>
@@ -11427,7 +11430,7 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="25"/>
       <c r="C12" s="92" t="s">
         <v>26</v>
@@ -11526,7 +11529,7 @@
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="25"/>
       <c r="C13" s="91" t="s">
         <v>27</v>
@@ -11625,7 +11628,7 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="25"/>
       <c r="C14" s="93" t="s">
         <v>28</v>
@@ -11727,7 +11730,7 @@
       <c r="A15" s="35"/>
       <c r="B15" s="26"/>
       <c r="C15" s="89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="98">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C15)</f>
@@ -11866,77 +11869,77 @@
         <v>0</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="112">
+      <c r="C17" s="114">
         <f>SUM(D7:D15)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="112"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="97"/>
-      <c r="F17" s="113">
+      <c r="F17" s="115">
         <f>SUM(G7:G15)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="113"/>
+      <c r="G17" s="115"/>
       <c r="H17" s="97"/>
-      <c r="I17" s="112">
+      <c r="I17" s="114">
         <f>SUM(J7:J15)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="112"/>
+      <c r="J17" s="114"/>
       <c r="K17" s="97"/>
-      <c r="L17" s="113">
+      <c r="L17" s="115">
         <f>SUM(M7:M15)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="113"/>
+      <c r="M17" s="115"/>
       <c r="N17" s="97"/>
-      <c r="O17" s="112">
+      <c r="O17" s="114">
         <f>SUM(P7:P15)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="112"/>
+      <c r="P17" s="114"/>
       <c r="Q17" s="97"/>
-      <c r="R17" s="113">
+      <c r="R17" s="115">
         <f>SUM(S7:S15)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="113"/>
+      <c r="S17" s="115"/>
       <c r="T17" s="97"/>
-      <c r="U17" s="112">
+      <c r="U17" s="114">
         <f>SUM(V7:V15)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="112"/>
+      <c r="V17" s="114"/>
       <c r="W17" s="97"/>
-      <c r="X17" s="113">
+      <c r="X17" s="115">
         <f>SUM(Y7:Y15)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="113"/>
+      <c r="Y17" s="115"/>
       <c r="Z17" s="97"/>
-      <c r="AA17" s="112">
+      <c r="AA17" s="114">
         <f>SUM(AB7:AB15)</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="112"/>
+      <c r="AB17" s="114"/>
       <c r="AC17" s="97"/>
-      <c r="AD17" s="113">
+      <c r="AD17" s="115">
         <f>SUM(AE7:AE15)</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="113"/>
+      <c r="AE17" s="115"/>
       <c r="AF17" s="97"/>
-      <c r="AG17" s="112">
+      <c r="AG17" s="114">
         <f>SUM(AH7:AH15)</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="112"/>
+      <c r="AH17" s="114"/>
       <c r="AI17" s="97"/>
-      <c r="AJ17" s="113">
+      <c r="AJ17" s="115">
         <f>SUM(AK7:AK15)</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="113"/>
+      <c r="AK17" s="115"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D15">
@@ -11951,11 +11954,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AJ17:AK17"/>
@@ -11964,6 +11962,11 @@
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="iconSet" priority="1">
@@ -11996,7 +11999,7 @@
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -12017,7 +12020,7 @@
     </row>
     <row r="3" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="23"/>
       <c r="E3" s="2" t="s">
@@ -12054,7 +12057,7 @@
     </row>
     <row r="6" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="59" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="str">
         <v>Clothing</v>
@@ -12064,7 +12067,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="117">
+      <c r="B7" s="111">
         <f>VLOOKUP(B3,'Graphic - Annual'!A3:I14,9,FALSE)</f>
         <v>0</v>
       </c>
@@ -12185,23 +12188,23 @@
         <v>38</v>
       </c>
       <c r="I2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="116"/>
+      <c r="L2" s="117"/>
       <c r="M2" s="51"/>
-      <c r="N2" s="115" t="s">
+      <c r="N2" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="116"/>
+      <c r="O2" s="117"/>
       <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="63">
@@ -12228,7 +12231,7 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="64">
         <f>SUM('Map - Net Salary'!B4:M6)</f>
@@ -12247,7 +12250,7 @@
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="63">
@@ -12293,7 +12296,7 @@
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="63">
@@ -12339,7 +12342,7 @@
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="63">
@@ -12366,7 +12369,7 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" s="64">
         <f>SUM('Map - Expenses'!D7:D14,'Map - Expenses'!G7:G14,'Map - Expenses'!J7:J14,'Map - Expenses'!M7:M14,'Map - Expenses'!P7:P14,'Map - Expenses'!S7:S14,'Map - Expenses'!V7:V14,'Map - Expenses'!Y7:Y14,'Map - Expenses'!AB7:AB14,'Map - Expenses'!AE7:AE14,'Map - Expenses'!AH7:AH14,'Map - Expenses'!AK7:AK14)</f>
@@ -12385,7 +12388,7 @@
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="63">
@@ -12412,7 +12415,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L7" s="64">
         <f>SUM('Map - Expenses'!D15:D15,'Map - Expenses'!G15:G15,'Map - Expenses'!J15:J15,'Map - Expenses'!M15:M15,'Map - Expenses'!P15:P15,'Map - Expenses'!S15:S15,'Map - Expenses'!V15:V15,'Map - Expenses'!Y15:Y15,'Map - Expenses'!AB15:AB15,'Map - Expenses'!AE15:AE15,'Map - Expenses'!AH15:AH15,'Map - Expenses'!AK15:AK15)</f>
@@ -12431,7 +12434,7 @@
     </row>
     <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="63">
@@ -12458,7 +12461,7 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" s="64">
         <f>SUM(L6:L7)</f>
@@ -12477,7 +12480,7 @@
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="63">
@@ -12504,7 +12507,7 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="66">
         <f>'Map - Expenses'!AK4</f>
@@ -12523,7 +12526,7 @@
     </row>
     <row r="10" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="63">
@@ -12569,7 +12572,7 @@
     </row>
     <row r="11" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="63">
@@ -12609,7 +12612,7 @@
     </row>
     <row r="12" spans="1:16" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="63">
@@ -12644,7 +12647,7 @@
     </row>
     <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="63">
@@ -12679,7 +12682,7 @@
     </row>
     <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="63">
@@ -12732,7 +12735,7 @@
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="68">
         <f>'Graphic - Annual'!L9</f>

--- a/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
+++ b/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Personal_Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC23180A-FEED-4171-B08E-D26923DAF827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D753E6-E49C-40D9-BA60-0D2745E82D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,14 +859,14 @@
     <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6920,7 +6920,7 @@
       <c r="C2" s="112"/>
       <c r="D2" s="112" t="str">
         <f ca="1">PROPER(TEXT(TODAY(),"MMMM"))</f>
-        <v>Outubro</v>
+        <v>Novembro</v>
       </c>
       <c r="E2" s="112"/>
       <c r="F2" s="47"/>
@@ -10835,7 +10835,7 @@
       <c r="AK5" s="84"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="115" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="25"/>
@@ -10924,7 +10924,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="25"/>
       <c r="C7" s="89" t="s">
         <v>21</v>
@@ -11034,7 +11034,7 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="25"/>
       <c r="C8" s="91" t="s">
         <v>22</v>
@@ -11133,7 +11133,7 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="25"/>
       <c r="C9" s="92" t="s">
         <v>23</v>
@@ -11232,7 +11232,7 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="25"/>
       <c r="C10" s="91" t="s">
         <v>24</v>
@@ -11331,7 +11331,7 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="113"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="25"/>
       <c r="C11" s="89" t="s">
         <v>25</v>
@@ -11430,7 +11430,7 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="113"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="25"/>
       <c r="C12" s="92" t="s">
         <v>26</v>
@@ -11529,7 +11529,7 @@
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="25"/>
       <c r="C13" s="91" t="s">
         <v>27</v>
@@ -11628,7 +11628,7 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="25"/>
       <c r="C14" s="93" t="s">
         <v>28</v>
@@ -11869,77 +11869,77 @@
         <v>0</v>
       </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="114">
+      <c r="C17" s="113">
         <f>SUM(D7:D15)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="114"/>
+      <c r="D17" s="113"/>
       <c r="E17" s="97"/>
-      <c r="F17" s="115">
+      <c r="F17" s="114">
         <f>SUM(G7:G15)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="115"/>
+      <c r="G17" s="114"/>
       <c r="H17" s="97"/>
-      <c r="I17" s="114">
+      <c r="I17" s="113">
         <f>SUM(J7:J15)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="114"/>
+      <c r="J17" s="113"/>
       <c r="K17" s="97"/>
-      <c r="L17" s="115">
+      <c r="L17" s="114">
         <f>SUM(M7:M15)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="115"/>
+      <c r="M17" s="114"/>
       <c r="N17" s="97"/>
-      <c r="O17" s="114">
+      <c r="O17" s="113">
         <f>SUM(P7:P15)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="114"/>
+      <c r="P17" s="113"/>
       <c r="Q17" s="97"/>
-      <c r="R17" s="115">
+      <c r="R17" s="114">
         <f>SUM(S7:S15)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="115"/>
+      <c r="S17" s="114"/>
       <c r="T17" s="97"/>
-      <c r="U17" s="114">
+      <c r="U17" s="113">
         <f>SUM(V7:V15)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="114"/>
+      <c r="V17" s="113"/>
       <c r="W17" s="97"/>
-      <c r="X17" s="115">
+      <c r="X17" s="114">
         <f>SUM(Y7:Y15)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="115"/>
+      <c r="Y17" s="114"/>
       <c r="Z17" s="97"/>
-      <c r="AA17" s="114">
+      <c r="AA17" s="113">
         <f>SUM(AB7:AB15)</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="114"/>
+      <c r="AB17" s="113"/>
       <c r="AC17" s="97"/>
-      <c r="AD17" s="115">
+      <c r="AD17" s="114">
         <f>SUM(AE7:AE15)</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="115"/>
+      <c r="AE17" s="114"/>
       <c r="AF17" s="97"/>
-      <c r="AG17" s="114">
+      <c r="AG17" s="113">
         <f>SUM(AH7:AH15)</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="114"/>
+      <c r="AH17" s="113"/>
       <c r="AI17" s="97"/>
-      <c r="AJ17" s="115">
+      <c r="AJ17" s="114">
         <f>SUM(AK7:AK15)</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="115"/>
+      <c r="AK17" s="114"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D15">
@@ -11954,6 +11954,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AJ17:AK17"/>
@@ -11962,11 +11967,6 @@
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="iconSet" priority="1">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="64">
-        <f>SUM('Map - Net Salary'!G15:G49)</f>
+        <f>SUM('Map - Net Salary'!G14:G15)</f>
         <v>0</v>
       </c>
       <c r="E8" s="10"/>

--- a/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
+++ b/Projects/Automate_Python/Report_Budget/Personal_Budget.xlsx
@@ -5,28 +5,27 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Personal_Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Python\Python\Projects\Automate_Python\Report_Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D753E6-E49C-40D9-BA60-0D2745E82D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616F342B-6E0F-4D81-88AF-2CDF49CD2F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance &amp; Tracking" sheetId="12" r:id="rId1"/>
-    <sheet name="Map - Net Salary" sheetId="8" r:id="rId2"/>
-    <sheet name="Map - Expenses" sheetId="1" r:id="rId3"/>
-    <sheet name="Graphic - Monthly" sheetId="14" r:id="rId4"/>
-    <sheet name="Graphic - Annual" sheetId="13" r:id="rId5"/>
+    <sheet name="Map - Net Salary" sheetId="8" state="hidden" r:id="rId2"/>
+    <sheet name="Map - Expenses" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="Graphic - Annual" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Assets">'Balance &amp; Tracking'!$B$3:$B$5</definedName>
+    <definedName name="Assets">'Balance &amp; Tracking'!$B$6:$B$8</definedName>
     <definedName name="Dash">'Graphic - Annual'!$A$1:$P$26</definedName>
     <definedName name="Discount">'Map - Net Salary'!$A$9:$A$11</definedName>
     <definedName name="Expenses">'Map - Expenses'!$C$7:$C$15</definedName>
     <definedName name="Income">'Map - Net Salary'!$A$4:$A$6</definedName>
     <definedName name="Investments">'Map - Net Salary'!$A$14:$A$15</definedName>
-    <definedName name="Transfer">'Balance &amp; Tracking'!$B$3:$B$5</definedName>
+    <definedName name="Transfer">'Balance &amp; Tracking'!$B$6:$B$8</definedName>
     <definedName name="Z_12641207_4FA9_4498_AEA1_9BC1962A4F9A_.wvu.Rows" localSheetId="2" hidden="1">'Map - Expenses'!$6:$6,'Map - Expenses'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>Total</t>
   </si>
@@ -93,9 +92,6 @@
   </si>
   <si>
     <t>Wallet</t>
-  </si>
-  <si>
-    <t>Monthly</t>
   </si>
   <si>
     <t>Annual</t>
@@ -260,27 +256,20 @@
     <t>December</t>
   </si>
   <si>
-    <t>Actual</t>
-  </si>
-  <si>
     <t>Blc Actual</t>
-  </si>
-  <si>
-    <t>Blc. Actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="mmmm"/>
     <numFmt numFmtId="165" formatCode="dd/mm"/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,8 +362,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,12 +391,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor theme="5"/>
       </patternFill>
     </fill>
@@ -593,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -647,7 +636,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,19 +726,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -850,13 +826,13 @@
     <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,7 +1015,7 @@
         <family val="4"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="mm/dd"/>
+      <numFmt numFmtId="165" formatCode="dd/mm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1177,7 +1153,7 @@
           <c:x val="0"/>
           <c:y val="6.4124993504356423E-2"/>
           <c:w val="1"/>
-          <c:h val="0.73505465001472348"/>
+          <c:h val="0.67664781089036052"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1189,7 +1165,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$E$4</c:f>
+              <c:f>'Balance &amp; Tracking'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1289,7 +1265,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$F$3</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1300,7 +1276,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graphic - Monthly'!$F$4</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$4</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="1"/>
@@ -1312,7 +1288,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8886-4B32-AAEB-BBA413F80E8F}"/>
+              <c16:uniqueId val="{00000000-5BC4-4FBC-AE7D-A6079D9631DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1321,7 +1297,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$E$5</c:f>
+              <c:f>'Balance &amp; Tracking'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1421,7 +1397,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$F$3</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1432,7 +1408,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graphic - Monthly'!$F$5</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$5</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="1"/>
@@ -1444,7 +1420,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8886-4B32-AAEB-BBA413F80E8F}"/>
+              <c16:uniqueId val="{00000001-5BC4-4FBC-AE7D-A6079D9631DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1453,7 +1429,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$E$6</c:f>
+              <c:f>'Balance &amp; Tracking'!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1553,7 +1529,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$F$3</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1564,7 +1540,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graphic - Monthly'!$F$6</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$6</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="1"/>
@@ -1576,7 +1552,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8886-4B32-AAEB-BBA413F80E8F}"/>
+              <c16:uniqueId val="{00000002-5BC4-4FBC-AE7D-A6079D9631DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1585,7 +1561,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$E$7</c:f>
+              <c:f>'Balance &amp; Tracking'!$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1685,7 +1661,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$F$3</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1696,7 +1672,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graphic - Monthly'!$F$7</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$7</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="1"/>
@@ -1708,7 +1684,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8886-4B32-AAEB-BBA413F80E8F}"/>
+              <c16:uniqueId val="{00000003-5BC4-4FBC-AE7D-A6079D9631DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1717,7 +1693,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$E$8</c:f>
+              <c:f>'Balance &amp; Tracking'!$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1817,7 +1793,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$F$3</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1828,7 +1804,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graphic - Monthly'!$F$8</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$8</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="1"/>
@@ -1840,7 +1816,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8886-4B32-AAEB-BBA413F80E8F}"/>
+              <c16:uniqueId val="{00000004-5BC4-4FBC-AE7D-A6079D9631DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1849,7 +1825,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$E$9</c:f>
+              <c:f>'Balance &amp; Tracking'!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1949,7 +1925,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$F$3</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1960,7 +1936,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graphic - Monthly'!$F$9</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$9</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="1"/>
@@ -1972,7 +1948,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8886-4B32-AAEB-BBA413F80E8F}"/>
+              <c16:uniqueId val="{00000005-5BC4-4FBC-AE7D-A6079D9631DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1981,7 +1957,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$E$10</c:f>
+              <c:f>'Balance &amp; Tracking'!$E$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2086,7 +2062,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$F$3</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2097,7 +2073,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graphic - Monthly'!$F$10</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$10</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="1"/>
@@ -2109,7 +2085,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8886-4B32-AAEB-BBA413F80E8F}"/>
+              <c16:uniqueId val="{00000006-5BC4-4FBC-AE7D-A6079D9631DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2118,7 +2094,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$E$11</c:f>
+              <c:f>'Balance &amp; Tracking'!$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2223,7 +2199,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$F$3</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2234,7 +2210,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graphic - Monthly'!$F$11</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$11</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="1"/>
@@ -2246,7 +2222,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-8886-4B32-AAEB-BBA413F80E8F}"/>
+              <c16:uniqueId val="{00000007-5BC4-4FBC-AE7D-A6079D9631DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2255,7 +2231,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$E$12</c:f>
+              <c:f>'Balance &amp; Tracking'!$E$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2360,7 +2336,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Graphic - Monthly'!$F$3</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2371,7 +2347,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graphic - Monthly'!$F$12</c:f>
+              <c:f>'Balance &amp; Tracking'!$F$12</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="1"/>
@@ -2383,7 +2359,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-8886-4B32-AAEB-BBA413F80E8F}"/>
+              <c16:uniqueId val="{00000008-5BC4-4FBC-AE7D-A6079D9631DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2481,9 +2457,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.87291956689337102"/>
+          <c:y val="0.83787527593819"/>
           <c:w val="1"/>
-          <c:h val="0.12708043310662892"/>
+          <c:h val="0.16212472406181017"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6425,27 +6401,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7544</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4524</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>134122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6036</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>175034</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2261405</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1565</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85FB2D7-324A-8F5E-CB94-89590E99DA1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2113C75F-4EF8-4AB3-A45A-4D2DB6342E80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6582,15 +6560,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}" name="Tabela1" displayName="Tabela1" ref="B9:H13" insertRowShift="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="B9:H13" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:H22">
-    <sortCondition ref="B9:B22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}" name="Tabela1" displayName="Tabela1" ref="B15:H19" insertRowShift="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="B15:H19" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:H28">
+    <sortCondition ref="B15:B28"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F0A7AC4E-C2B6-48F0-8ABD-146393E8FC69}" name="Date" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{684795FD-753E-4C1F-B63E-5EE124E9D624}" name="Month" dataDxfId="7">
-      <calculatedColumnFormula>IF(ISBLANK(B10),"",PROPER(TEXT(B10,"MMMM")))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISBLANK(B16),"",PROPER(TEXT(B16,"MMMM")))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{23818CCC-08C7-4066-9B86-98D831460C75}" name="Operation" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{78815540-1C3C-4370-A3E4-1C8E033CFC39}" name="Category" dataDxfId="5"/>
@@ -6892,2990 +6870,3040 @@
   <sheetPr codeName="Planilha1">
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A2:H472"/>
+  <dimension ref="A1:H478"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="46" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="49" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="46" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="50" customWidth="1"/>
-    <col min="9" max="9" width="6" style="46" customWidth="1"/>
-    <col min="10" max="10" width="10" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="6" style="45" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="48" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="49" customWidth="1"/>
+    <col min="9" max="9" width="6" style="45" customWidth="1"/>
+    <col min="10" max="10" width="10" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" ht="10.7" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="100">
+        <f>SUM(F4:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112" t="str">
-        <f ca="1">PROPER(TEXT(TODAY(),"MMMM"))</f>
-        <v>Novembro</v>
-      </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="47"/>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="C4" s="100">
+        <f>VLOOKUP(C2,'Graphic - Annual'!A3:I14,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="str" cm="1">
+        <f t="array" ref="E4:E12">Expenses</f>
+        <v>Bills</v>
+      </c>
+      <c r="F4" s="57" cm="1">
+        <f t="array" ref="F4:F12">_xlfn._xlws.FILTER('Map - Expenses'!D7:AK15,'Map - Expenses'!D2:AK2=C2)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="F5" s="57">
+        <v>0</v>
+      </c>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="99" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Allocation],B6,Tabela1[Date],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Allocation],B6,Tabela1[Date],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Amount],Tabela1[Category],B6,Tabela1[Date],"&lt;="&amp;(TODAY()))</f>
+        <v>250</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="F6" s="57">
+        <v>0</v>
+      </c>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="99" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Allocation],B7,Tabela1[Date],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Allocation],B7,Tabela1[Date],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Amount],Tabela1[Category],B7,Tabela1[Date],"&lt;="&amp;(TODAY()))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="F7" s="57">
+        <v>0</v>
+      </c>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="99" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Allocation],B8,Tabela1[Date],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Allocation],B8,Tabela1[Date],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Amount],Tabela1[Category],B8,Tabela1[Date],"&lt;="&amp;(TODAY()))</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <v>Food</v>
+      </c>
+      <c r="F8" s="57">
+        <v>0</v>
+      </c>
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="99">
+        <f ca="1">SUM(C6:C8)</f>
+        <v>250</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="F9" s="57">
+        <v>0</v>
+      </c>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="100">
+        <f ca="1">ROUND(C9-C4,2)</f>
+        <v>250</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="F10" s="57">
+        <v>0</v>
+      </c>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="E11" s="2" t="str">
+        <v>Healthcare</v>
+      </c>
+      <c r="F11" s="57">
+        <v>0</v>
+      </c>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="100">
+        <f>'Graphic - Annual'!I15</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <v>General expen.</v>
+      </c>
+      <c r="F12" s="57">
+        <v>0</v>
+      </c>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="45"/>
+      <c r="E13" s="47"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36">
+        <f>SUBTOTAL(2,Tabela1[Date])</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="104"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="104" cm="1">
-        <f t="array" aca="1" ref="C3" ca="1">SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Allocation],B3,Tabela1[Date],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Allocation],B3,Tabela1[Date],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Amount],Tabela1[Category],B3,Tabela1[Date],"&lt;="&amp;(TODAY()))</f>
+    </row>
+    <row r="16" spans="1:8" ht="13.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="107">
+        <v>44927</v>
+      </c>
+      <c r="C16" s="42" t="str">
+        <f t="shared" ref="C16:C18" si="0">IF(ISBLANK(B16),"",PROPER(TEXT(B16,"MMMM")))</f>
+        <v>Janeiro</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="101">
         <v>250</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="105" t="e">
-        <f ca="1">VLOOKUP(D2,'Graphic - Annual'!A3:I14,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="104" cm="1">
-        <f t="array" aca="1" ref="C4" ca="1">SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Allocation],B4,Tabela1[Date],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Allocation],B4,Tabela1[Date],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Amount],Tabela1[Category],B4,Tabela1[Date],"&lt;="&amp;(TODAY()))</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="105">
-        <f>'Graphic - Annual'!I15</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="47"/>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="104" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">SUM(SUMIFS(Tabela1[Amount],Tabela1[Operation],{"Income";"Transfer"},Tabela1[Allocation],B5,Tabela1[Date],"&lt;="&amp;(TODAY())))-SUMIFS(Tabela1[Amount],Tabela1[Operation],"&lt;&gt;Income",Tabela1[Operation],"&lt;&gt;Transfer",Tabela1[Allocation],B5,Tabela1[Date],"&lt;="&amp;(TODAY())) - SUMIFS(Tabela1[Amount],Tabela1[Category],B5,Tabela1[Date],"&lt;="&amp;(TODAY()))</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="105" t="e">
-        <f ca="1">VLOOKUP(D2,'Graphic - Annual'!A3:I14,9,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="47"/>
-      <c r="H5" s="46"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="104">
-        <f ca="1">SUM(C3:C5)</f>
-        <v>250</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="105" t="e">
-        <f ca="1">ROUND(C6-E5,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F6" s="47"/>
-      <c r="H6" s="46"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46"/>
-      <c r="E7" s="48"/>
-      <c r="H7" s="46"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37">
-        <f>SUBTOTAL(2,Tabela1[Date])</f>
-        <v>3</v>
-      </c>
-      <c r="G8" s="109">
-        <f>SUBTOTAL(9,Tabela1[Amount])</f>
-        <v>350</v>
-      </c>
-      <c r="H8" s="46"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="13.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="110">
-        <v>45200</v>
-      </c>
-      <c r="C10" s="43" t="str">
-        <f t="shared" ref="C10:C12" si="0">IF(ISBLANK(B10),"",PROPER(TEXT(B10,"MMMM")))</f>
-        <v>Outubro</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="106">
-        <v>250</v>
-      </c>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="110">
-        <v>45262</v>
-      </c>
-      <c r="C11" s="43" t="str">
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="107"/>
+      <c r="C17" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>Dezembro</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="106">
-        <v>50</v>
-      </c>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="110">
-        <v>45263</v>
-      </c>
-      <c r="C12" s="43" t="str">
+        <v/>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="107"/>
+      <c r="C18" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>Dezembro</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="107">
-        <v>50</v>
-      </c>
-      <c r="H12" s="45"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="110"/>
-      <c r="C13" s="43" t="str">
-        <f>IF(ISBLANK(B13),"",PROPER(TEXT(B13,"MMMM")))</f>
-        <v/>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="45"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="48" t="str">
-        <f t="shared" ref="C14:C39" si="1">IF(ISBLANK(B14),"",PROPER(TEXT(B14,"MMMM")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="48" t="str">
+        <v/>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="107"/>
+      <c r="C19" s="42" t="str">
+        <f>IF(ISBLANK(B19),"",PROPER(TEXT(B19,"MMMM")))</f>
+        <v/>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="44"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="47" t="str">
+        <f t="shared" ref="C20:C45" si="1">IF(ISBLANK(B20),"",PROPER(TEXT(B20,"MMMM")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="48" t="str">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="48" t="str">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="48" t="str">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="48" t="str">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="48" t="str">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="48" t="str">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="48" t="str">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="48" t="str">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="48" t="str">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="48" t="str">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="48" t="str">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="48" t="str">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="48" t="str">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="48" t="str">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="48" t="str">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="48" t="str">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="48" t="str">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="48" t="str">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="48" t="str">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="48" t="str">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="48" t="str">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="48" t="str">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="48" t="str">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="48" t="str">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="48" t="str">
-        <f t="shared" ref="C40:C103" si="2">IF(ISBLANK(B40),"",PROPER(TEXT(B40,"MMMM")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="48" t="str">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="47" t="str">
+        <f t="shared" ref="C46:C109" si="2">IF(ISBLANK(B46),"",PROPER(TEXT(B46,"MMMM")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="48" t="str">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="48" t="str">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="48" t="str">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="48" t="str">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="48" t="str">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="48" t="str">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="48" t="str">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="48" t="str">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="48" t="str">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="48" t="str">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="48" t="str">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="48" t="str">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="48" t="str">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="48" t="str">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="48" t="str">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="48" t="str">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="48" t="str">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="48" t="str">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="48" t="str">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="48" t="str">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="48" t="str">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="48" t="str">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="48" t="str">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="48" t="str">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="48" t="str">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="48" t="str">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="48" t="str">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="48" t="str">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="48" t="str">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="48" t="str">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="48" t="str">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="48" t="str">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="48" t="str">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="48" t="str">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="48" t="str">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="48" t="str">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="48" t="str">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="48" t="str">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="48" t="str">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="48" t="str">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="48" t="str">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="48" t="str">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="48" t="str">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="48" t="str">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="48" t="str">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="48" t="str">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="48" t="str">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="48" t="str">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="48" t="str">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="48" t="str">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="48" t="str">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="48" t="str">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="48" t="str">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="48" t="str">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="48" t="str">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="48" t="str">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="48" t="str">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="48" t="str">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="48" t="str">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C101" s="48" t="str">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" s="48" t="str">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C103" s="48" t="str">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C104" s="48" t="str">
-        <f t="shared" ref="C104:C167" si="3">IF(ISBLANK(B104),"",PROPER(TEXT(B104,"MMMM")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C105" s="48" t="str">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" s="47" t="str">
+        <f t="shared" ref="C110:C173" si="3">IF(ISBLANK(B110),"",PROPER(TEXT(B110,"MMMM")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C106" s="48" t="str">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C107" s="48" t="str">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C108" s="48" t="str">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C109" s="48" t="str">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C110" s="48" t="str">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C111" s="48" t="str">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C112" s="48" t="str">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C113" s="48" t="str">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C114" s="48" t="str">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C115" s="48" t="str">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C116" s="48" t="str">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C117" s="48" t="str">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="48" t="str">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C119" s="48" t="str">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C120" s="48" t="str">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C121" s="48" t="str">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C122" s="48" t="str">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C123" s="48" t="str">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C124" s="48" t="str">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C125" s="48" t="str">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C126" s="48" t="str">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C127" s="48" t="str">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C128" s="48" t="str">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="48" t="str">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C130" s="48" t="str">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C131" s="48" t="str">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C132" s="48" t="str">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C138" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C133" s="48" t="str">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C139" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C134" s="48" t="str">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C140" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C135" s="48" t="str">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C136" s="48" t="str">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C142" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C137" s="48" t="str">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C138" s="48" t="str">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C139" s="48" t="str">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C140" s="48" t="str">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C146" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C141" s="48" t="str">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C147" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C142" s="48" t="str">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C143" s="48" t="str">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C144" s="48" t="str">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C150" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C145" s="48" t="str">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C146" s="48" t="str">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C152" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C147" s="48" t="str">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C153" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C148" s="48" t="str">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="48" t="str">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C150" s="48" t="str">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C151" s="48" t="str">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C152" s="48" t="str">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C153" s="48" t="str">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C159" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C154" s="48" t="str">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C160" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C155" s="48" t="str">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C161" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C156" s="48" t="str">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C162" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C157" s="48" t="str">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C163" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C158" s="48" t="str">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C164" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C159" s="48" t="str">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C165" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C160" s="48" t="str">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C166" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C161" s="48" t="str">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C167" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C162" s="48" t="str">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C168" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C163" s="48" t="str">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C169" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C164" s="48" t="str">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C170" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C165" s="48" t="str">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C171" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C166" s="48" t="str">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C172" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C167" s="48" t="str">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C173" s="47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C168" s="48" t="str">
-        <f t="shared" ref="C168:C231" si="4">IF(ISBLANK(B168),"",PROPER(TEXT(B168,"MMMM")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C169" s="48" t="str">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C174" s="47" t="str">
+        <f t="shared" ref="C174:C237" si="4">IF(ISBLANK(B174),"",PROPER(TEXT(B174,"MMMM")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C175" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C170" s="48" t="str">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C176" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C171" s="48" t="str">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C172" s="48" t="str">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C173" s="48" t="str">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C174" s="48" t="str">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C175" s="48" t="str">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C176" s="48" t="str">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C182" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C177" s="48" t="str">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C178" s="48" t="str">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C184" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C179" s="48" t="str">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C185" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C180" s="48" t="str">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C186" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C181" s="48" t="str">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C182" s="48" t="str">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C188" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C183" s="48" t="str">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C189" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C184" s="48" t="str">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C190" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C185" s="48" t="str">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C191" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C186" s="48" t="str">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C192" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C187" s="48" t="str">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C193" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C188" s="48" t="str">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C194" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C189" s="48" t="str">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C195" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C190" s="48" t="str">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C196" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C191" s="48" t="str">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C197" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C192" s="48" t="str">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C198" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C193" s="48" t="str">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C199" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C194" s="48" t="str">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C200" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C195" s="48" t="str">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C201" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C196" s="48" t="str">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C202" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C197" s="48" t="str">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C203" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C198" s="48" t="str">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C204" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C199" s="48" t="str">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C205" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C200" s="48" t="str">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C206" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C201" s="48" t="str">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C207" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C202" s="48" t="str">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C208" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C203" s="48" t="str">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C204" s="48" t="str">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C205" s="48" t="str">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C206" s="48" t="str">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C207" s="48" t="str">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C208" s="48" t="str">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C214" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C209" s="48" t="str">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C215" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C210" s="48" t="str">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C211" s="48" t="str">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C217" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C212" s="48" t="str">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C218" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C213" s="48" t="str">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C214" s="48" t="str">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C220" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C215" s="48" t="str">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C216" s="48" t="str">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C217" s="48" t="str">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C218" s="48" t="str">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C224" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C219" s="48" t="str">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C220" s="48" t="str">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C226" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C221" s="48" t="str">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C227" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C222" s="48" t="str">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C228" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C223" s="48" t="str">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C229" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C224" s="48" t="str">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C230" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C225" s="48" t="str">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C231" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C226" s="48" t="str">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C232" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C227" s="48" t="str">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C233" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C228" s="48" t="str">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C234" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C229" s="48" t="str">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C235" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C230" s="48" t="str">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C236" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C231" s="48" t="str">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C237" s="47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C232" s="48" t="str">
-        <f t="shared" ref="C232:C295" si="5">IF(ISBLANK(B232),"",PROPER(TEXT(B232,"MMMM")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C233" s="48" t="str">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C238" s="47" t="str">
+        <f t="shared" ref="C238:C301" si="5">IF(ISBLANK(B238),"",PROPER(TEXT(B238,"MMMM")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C239" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C234" s="48" t="str">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C240" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C235" s="48" t="str">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C241" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C236" s="48" t="str">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C242" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C237" s="48" t="str">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C243" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C238" s="48" t="str">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C244" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C239" s="48" t="str">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C245" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C240" s="48" t="str">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C246" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C241" s="48" t="str">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C247" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C242" s="48" t="str">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C248" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C243" s="48" t="str">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C249" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C244" s="48" t="str">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C250" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C245" s="48" t="str">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C251" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C246" s="48" t="str">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C252" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C247" s="48" t="str">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C253" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C248" s="48" t="str">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C254" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C249" s="48" t="str">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C255" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C250" s="48" t="str">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C256" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C251" s="48" t="str">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C257" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C252" s="48" t="str">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C258" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C253" s="48" t="str">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C259" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C254" s="48" t="str">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C260" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C255" s="48" t="str">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C261" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C256" s="48" t="str">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C262" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C257" s="48" t="str">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C263" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C258" s="48" t="str">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C264" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C259" s="48" t="str">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C265" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C260" s="48" t="str">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C266" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C261" s="48" t="str">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C267" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C262" s="48" t="str">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C268" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C263" s="48" t="str">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C269" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C264" s="48" t="str">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C270" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C265" s="48" t="str">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C271" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C266" s="48" t="str">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C272" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C267" s="48" t="str">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C273" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C268" s="48" t="str">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C274" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C269" s="48" t="str">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C275" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C270" s="48" t="str">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C276" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C271" s="48" t="str">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C277" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C272" s="48" t="str">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C278" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C273" s="48" t="str">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C279" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C274" s="48" t="str">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C280" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C275" s="48" t="str">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C281" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C276" s="48" t="str">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C282" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C277" s="48" t="str">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C283" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C278" s="48" t="str">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C284" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C279" s="48" t="str">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C285" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C280" s="48" t="str">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C286" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C281" s="48" t="str">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C287" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C282" s="48" t="str">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C288" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C283" s="48" t="str">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C289" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C284" s="48" t="str">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C290" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C285" s="48" t="str">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C291" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C286" s="48" t="str">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C292" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C287" s="48" t="str">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C293" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C288" s="48" t="str">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C294" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C289" s="48" t="str">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C295" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C290" s="48" t="str">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C296" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C291" s="48" t="str">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C297" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C292" s="48" t="str">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C298" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C293" s="48" t="str">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C299" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C294" s="48" t="str">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C300" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C295" s="48" t="str">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C301" s="47" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C296" s="48" t="str">
-        <f t="shared" ref="C296:C359" si="6">IF(ISBLANK(B296),"",PROPER(TEXT(B296,"MMMM")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C297" s="48" t="str">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C302" s="47" t="str">
+        <f t="shared" ref="C302:C365" si="6">IF(ISBLANK(B302),"",PROPER(TEXT(B302,"MMMM")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C303" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C298" s="48" t="str">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C304" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C299" s="48" t="str">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C305" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C300" s="48" t="str">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C306" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C301" s="48" t="str">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C307" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C302" s="48" t="str">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C308" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C303" s="48" t="str">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C309" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C304" s="48" t="str">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C310" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C305" s="48" t="str">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C311" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C306" s="48" t="str">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C312" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C307" s="48" t="str">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C313" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C308" s="48" t="str">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C314" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C309" s="48" t="str">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C315" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C310" s="48" t="str">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C316" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C311" s="48" t="str">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C317" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C312" s="48" t="str">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C318" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C313" s="48" t="str">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C319" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C314" s="48" t="str">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C320" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C315" s="48" t="str">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C321" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C316" s="48" t="str">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C322" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C317" s="48" t="str">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C323" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C318" s="48" t="str">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C324" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C319" s="48" t="str">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C325" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C320" s="48" t="str">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C326" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C321" s="48" t="str">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C327" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C322" s="48" t="str">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C328" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C323" s="48" t="str">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C329" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C324" s="48" t="str">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C330" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C325" s="48" t="str">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C331" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C326" s="48" t="str">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C332" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C327" s="48" t="str">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C333" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C328" s="48" t="str">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C334" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C329" s="48" t="str">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C335" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C330" s="48" t="str">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C336" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C331" s="48" t="str">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C337" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C332" s="48" t="str">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C338" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C333" s="48" t="str">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C339" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C334" s="48" t="str">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C340" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C335" s="48" t="str">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C341" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C336" s="48" t="str">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C342" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C337" s="48" t="str">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C343" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C338" s="48" t="str">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C344" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C339" s="48" t="str">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C345" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C340" s="48" t="str">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C346" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C341" s="48" t="str">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C347" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C342" s="48" t="str">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C348" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C343" s="48" t="str">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C349" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C344" s="48" t="str">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C350" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C345" s="48" t="str">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C351" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C346" s="48" t="str">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C352" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C347" s="48" t="str">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C353" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C348" s="48" t="str">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C354" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C349" s="48" t="str">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C355" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C350" s="48" t="str">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C356" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C351" s="48" t="str">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C357" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C352" s="48" t="str">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C358" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C353" s="48" t="str">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C359" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C354" s="48" t="str">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C360" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C355" s="48" t="str">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C361" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C356" s="48" t="str">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C362" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C357" s="48" t="str">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C363" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C358" s="48" t="str">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C364" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C359" s="48" t="str">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C365" s="47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C360" s="48" t="str">
-        <f t="shared" ref="C360:C423" si="7">IF(ISBLANK(B360),"",PROPER(TEXT(B360,"MMMM")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C361" s="48" t="str">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C366" s="47" t="str">
+        <f t="shared" ref="C366:C429" si="7">IF(ISBLANK(B366),"",PROPER(TEXT(B366,"MMMM")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C367" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C362" s="48" t="str">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C368" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C363" s="48" t="str">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C369" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C364" s="48" t="str">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C370" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C365" s="48" t="str">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C371" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C366" s="48" t="str">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C372" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C367" s="48" t="str">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C373" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C368" s="48" t="str">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C374" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C369" s="48" t="str">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C375" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C370" s="48" t="str">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C376" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C371" s="48" t="str">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C377" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C372" s="48" t="str">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C378" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C373" s="48" t="str">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C379" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C374" s="48" t="str">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C380" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C375" s="48" t="str">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C381" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C376" s="48" t="str">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C382" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C377" s="48" t="str">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C383" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C378" s="48" t="str">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C384" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C379" s="48" t="str">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C385" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C380" s="48" t="str">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C386" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C381" s="48" t="str">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C387" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C382" s="48" t="str">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C388" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C383" s="48" t="str">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C389" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C384" s="48" t="str">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C390" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C385" s="48" t="str">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C391" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C386" s="48" t="str">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C392" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C387" s="48" t="str">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C393" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C388" s="48" t="str">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C394" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C389" s="48" t="str">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C395" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C390" s="48" t="str">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C396" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C391" s="48" t="str">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C397" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C392" s="48" t="str">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C398" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C393" s="48" t="str">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C399" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C394" s="48" t="str">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C400" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C395" s="48" t="str">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C401" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C396" s="48" t="str">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C402" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C397" s="48" t="str">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C403" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C398" s="48" t="str">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C404" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C399" s="48" t="str">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C405" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C400" s="48" t="str">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C406" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C401" s="48" t="str">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C407" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C402" s="48" t="str">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C408" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C403" s="48" t="str">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C409" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C404" s="48" t="str">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C410" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C405" s="48" t="str">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C411" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C406" s="48" t="str">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C412" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C407" s="48" t="str">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C413" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C408" s="48" t="str">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C414" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C409" s="48" t="str">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C415" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C410" s="48" t="str">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C416" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C411" s="48" t="str">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C417" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C412" s="48" t="str">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C418" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C413" s="48" t="str">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C419" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C414" s="48" t="str">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C420" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C415" s="48" t="str">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C421" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C416" s="48" t="str">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C422" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C417" s="48" t="str">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C423" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C418" s="48" t="str">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C424" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C419" s="48" t="str">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C425" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C420" s="48" t="str">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C426" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C421" s="48" t="str">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C427" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C422" s="48" t="str">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C428" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C423" s="48" t="str">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C429" s="47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C424" s="48" t="str">
-        <f t="shared" ref="C424:C472" si="8">IF(ISBLANK(B424),"",PROPER(TEXT(B424,"MMMM")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C425" s="48" t="str">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C430" s="47" t="str">
+        <f t="shared" ref="C430:C478" si="8">IF(ISBLANK(B430),"",PROPER(TEXT(B430,"MMMM")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C431" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C426" s="48" t="str">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C432" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C427" s="48" t="str">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C433" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C428" s="48" t="str">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C434" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C429" s="48" t="str">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C435" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C430" s="48" t="str">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C436" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C431" s="48" t="str">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C437" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C432" s="48" t="str">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C438" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C433" s="48" t="str">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C439" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C434" s="48" t="str">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C440" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C435" s="48" t="str">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C441" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C436" s="48" t="str">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C442" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C437" s="48" t="str">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C443" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C438" s="48" t="str">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C444" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C439" s="48" t="str">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C445" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C440" s="48" t="str">
+    <row r="446" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C446" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C441" s="48" t="str">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C447" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C442" s="48" t="str">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C448" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C443" s="48" t="str">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C449" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C444" s="48" t="str">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C450" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C445" s="48" t="str">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C451" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C446" s="48" t="str">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C452" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C447" s="48" t="str">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C453" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C448" s="48" t="str">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C454" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C449" s="48" t="str">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C455" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C450" s="48" t="str">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C456" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C451" s="48" t="str">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C457" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C452" s="48" t="str">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C458" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C453" s="48" t="str">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C459" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C454" s="48" t="str">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C460" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C455" s="48" t="str">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C461" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C456" s="48" t="str">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C462" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C457" s="48" t="str">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C463" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C458" s="48" t="str">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C464" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C459" s="48" t="str">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C465" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C460" s="48" t="str">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C466" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C461" s="48" t="str">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C467" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C462" s="48" t="str">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C468" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C463" s="48" t="str">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C469" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C464" s="48" t="str">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C470" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C465" s="48" t="str">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C471" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C466" s="48" t="str">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C472" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C467" s="48" t="str">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C473" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C468" s="48" t="str">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C474" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C469" s="48" t="str">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C475" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C470" s="48" t="str">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C476" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C471" s="48" t="str">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C477" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C472" s="48" t="str">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C478" s="47" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="C10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -9884,21 +9912,34 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D13" xr:uid="{C83335F3-FA3F-4328-AD66-E817659D90AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D19" xr:uid="{C83335F3-FA3F-4328-AD66-E817659D90AB}">
       <formula1>"Income, Discount, Investments, Expenses, Transfer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F13" xr:uid="{1AD33B1E-EA22-4761-BDF0-15E67120D172}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:F19" xr:uid="{1AD33B1E-EA22-4761-BDF0-15E67120D172}">
       <formula1>Assets</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E13" xr:uid="{C38A3171-CA49-437D-BD10-543A5722F3EA}">
-      <formula1>INDIRECT(D10)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E19" xr:uid="{C38A3171-CA49-437D-BD10-543A5722F3EA}">
+      <formula1>INDIRECT(D16)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA03CFD0-634B-48CA-9FD4-2CA0D67498E3}">
+          <x14:formula1>
+            <xm:f>'Map - Net Salary'!$B$2:$M$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9925,207 +9966,207 @@
   <sheetData>
     <row r="2" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>11</v>
+      <c r="A3" s="32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="104">
+        <v>11</v>
+      </c>
+      <c r="B4" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="104">
+      <c r="E4" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="104">
+      <c r="F4" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="104">
+      <c r="G4" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="108">
+      <c r="H4" s="103">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="104">
+      <c r="J4" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="104">
+      <c r="K4" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="104">
+      <c r="L4" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="104">
+      <c r="M4" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="104">
+        <v>12</v>
+      </c>
+      <c r="B5" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="104">
+      <c r="F5" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="104">
+      <c r="G5" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="108">
+      <c r="H5" s="103">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="104">
+      <c r="J5" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="104">
+      <c r="K5" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="104">
+      <c r="L5" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="104">
+      <c r="M5" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="104">
+        <v>13</v>
+      </c>
+      <c r="B6" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="104">
+      <c r="F6" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="104">
+      <c r="G6" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="108">
+      <c r="H6" s="103">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="104">
+      <c r="I6" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="104">
+      <c r="J6" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="104">
+      <c r="K6" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="104">
+      <c r="L6" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="104">
+      <c r="M6" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -10141,8 +10182,8 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>15</v>
+      <c r="A8" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -10159,164 +10200,164 @@
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="104">
+        <v>15</v>
+      </c>
+      <c r="B9" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="104">
+      <c r="E9" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="104">
+      <c r="F9" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="104">
+      <c r="G9" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="108">
+      <c r="H9" s="103">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="104">
+      <c r="I9" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="104">
+      <c r="J9" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="104">
+      <c r="K9" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="104">
+      <c r="L9" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="104">
+      <c r="M9" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="104">
+        <v>16</v>
+      </c>
+      <c r="B10" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="104">
+      <c r="C10" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="104">
+      <c r="F10" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="104">
+      <c r="G10" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="108">
+      <c r="H10" s="103">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="104">
+      <c r="I10" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="104">
+      <c r="J10" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="104">
+      <c r="K10" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="104">
+      <c r="L10" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="104">
+      <c r="M10" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="104">
+        <v>17</v>
+      </c>
+      <c r="B11" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E11" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="104">
+      <c r="F11" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="104">
+      <c r="G11" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="104">
+      <c r="H11" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="104">
+      <c r="I11" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="104">
+      <c r="J11" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="104">
+      <c r="K11" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="104">
+      <c r="L11" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="104">
+      <c r="M11" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -10332,8 +10373,8 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>10</v>
+      <c r="A13" s="32" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -10350,106 +10391,106 @@
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="104">
+        <v>18</v>
+      </c>
+      <c r="B14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="104">
+      <c r="F14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="104">
+      <c r="G14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="104">
+      <c r="H14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="104">
+      <c r="I14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="104">
+      <c r="J14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="104">
+      <c r="K14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="104">
+      <c r="L14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="104">
+      <c r="M14" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="104">
+        <v>19</v>
+      </c>
+      <c r="B15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],B$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],C$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],D$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],E$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="104">
+      <c r="F15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],F$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="104">
+      <c r="G15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],G$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="108">
+      <c r="H15" s="103">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],H$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="104">
+      <c r="I15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],I$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="104">
+      <c r="J15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],J$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="104">
+      <c r="K15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],K$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="104">
+      <c r="L15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],L$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="104">
+      <c r="M15" s="99">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],M$2,Tabela1[Category],$A15)</f>
         <v>0</v>
       </c>
@@ -10470,54 +10511,54 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="104">
+      <c r="A17" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="99">
         <f t="shared" ref="B17:M17" si="0">ROUND(SUM(B4:B6)-SUM(B14:B15)-SUM(B9:B11),2)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="104">
+      <c r="F17" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="104">
+      <c r="G17" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="104">
+      <c r="H17" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="104">
+      <c r="I17" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="104">
+      <c r="J17" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="104">
+      <c r="K17" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="104">
+      <c r="L17" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="104">
+      <c r="M17" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10576,1370 +10617,1370 @@
     <col min="42" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76" t="s">
+    <row r="2" spans="1:37" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="79" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="78" t="s">
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="79" t="s">
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="78" t="s">
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="79" t="s">
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="78" t="s">
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="79" t="s">
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="78" t="s">
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="79" t="s">
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="78" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="3" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="93">
+        <f>'Map - Net Salary'!B17</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="76"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="93">
+        <f>'Map - Net Salary'!C17</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="76"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="93">
+        <f>'Map - Net Salary'!D17</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="76"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="93">
+        <f>'Map - Net Salary'!E17</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="76"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="93">
+        <f>'Map - Net Salary'!F17</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="93">
+        <f>'Map - Net Salary'!G17</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="76"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="93">
+        <f>'Map - Net Salary'!H17</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="76"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="93">
+        <f>'Map - Net Salary'!I17</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="93">
+        <f>'Map - Net Salary'!J17</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="93">
+        <f>'Map - Net Salary'!K17</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="93">
+        <f>'Map - Net Salary'!L17</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="93">
+        <f>'Map - Net Salary'!M17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="94">
+        <f>D3-(SUM(D7:D15))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="78"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="94">
+        <f>G3-(SUM(G7:G15))+D4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="78"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="94">
+        <f>J3-(SUM(J7:J15))+G4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="78"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="94">
+        <f>M3-(SUM(M7:M15))+J4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="78"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="94">
+        <f>P3-(SUM(P7:P15))+M4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="94">
+        <f>S3-(SUM(S7:S15))+P4</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="78"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="94">
+        <f>V3-(SUM(V7:V15))+S4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="78"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="94">
+        <f>Y3-(SUM(Y7:Y15))+V4</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="94">
+        <f>AB3-(SUM(AB7:AB15))+Y4</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="94">
+        <f>AE3-(SUM(AE7:AE15))+AB4</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="94">
+        <f>AH3-(SUM(AH7:AH15))+AE4</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="94">
+        <f>AK3-SUM(AK7:AK15)+AH4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+    </row>
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="98">
-        <f>'Map - Net Salary'!B17</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="98">
-        <f>'Map - Net Salary'!C17</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="98">
-        <f>'Map - Net Salary'!D17</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="98">
-        <f>'Map - Net Salary'!E17</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="98">
-        <f>'Map - Net Salary'!F17</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="98">
-        <f>'Map - Net Salary'!G17</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="98">
-        <f>'Map - Net Salary'!H17</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="81"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="98">
-        <f>'Map - Net Salary'!I17</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="98">
-        <f>'Map - Net Salary'!J17</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="98">
-        <f>'Map - Net Salary'!K17</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="98">
-        <f>'Map - Net Salary'!L17</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="98">
-        <f>'Map - Net Salary'!M17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="99">
-        <f>D3-(SUM(D7:D15))</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="99">
-        <f>G3-(SUM(G7:G15))+D4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="99">
-        <f>J3-(SUM(J7:J15))+G4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="83"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="99">
-        <f>M3-(SUM(M7:M15))+J4</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="99">
-        <f>P3-(SUM(P7:P15))+M4</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="99">
-        <f>S3-(SUM(S7:S15))+P4</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="83"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="99">
-        <f>V3-(SUM(V7:V15))+S4</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="99">
-        <f>Y3-(SUM(Y7:Y15))+V4</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="99">
-        <f>AB3-(SUM(AB7:AB15))+Y4</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="99">
-        <f>AE3-(SUM(AE7:AE15))+AB4</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="99">
-        <f>AH3-(SUM(AH7:AH15))+AE4</f>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="99">
-        <f>AK3-SUM(AK7:AK15)+AH4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="84"/>
-    </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="85" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="87" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="85" t="s">
+      <c r="H6" s="79"/>
+      <c r="I6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="87" t="s">
+      <c r="K6" s="79"/>
+      <c r="L6" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85" t="s">
+      <c r="N6" s="79"/>
+      <c r="O6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="87" t="s">
+      <c r="Q6" s="79"/>
+      <c r="R6" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="84"/>
-      <c r="U6" s="85" t="s">
+      <c r="T6" s="79"/>
+      <c r="U6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="84"/>
-      <c r="X6" s="87" t="s">
+      <c r="W6" s="79"/>
+      <c r="X6" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="Y6" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="85" t="s">
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="87" t="s">
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE6" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="AE6" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="85" t="s">
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH6" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="AH6" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="87" t="s">
+      <c r="AI6" s="79"/>
+      <c r="AJ6" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK6" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="AK6" s="88" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="98">
+      <c r="A7" s="110"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="90" t="str" cm="1">
+      <c r="E7" s="76"/>
+      <c r="F7" s="85" t="str" cm="1">
         <f t="array" ref="F7:F15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="89" t="str" cm="1">
+      <c r="H7" s="76"/>
+      <c r="I7" s="84" t="str" cm="1">
         <f t="array" ref="I7:I15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="J7" s="98">
+      <c r="J7" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="90" t="str" cm="1">
+      <c r="K7" s="76"/>
+      <c r="L7" s="85" t="str" cm="1">
         <f t="array" ref="L7:L15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="M7" s="100">
+      <c r="M7" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="89" t="str" cm="1">
+      <c r="N7" s="76"/>
+      <c r="O7" s="84" t="str" cm="1">
         <f t="array" ref="O7:O15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="P7" s="98">
+      <c r="P7" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O7)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="90" t="str" cm="1">
+      <c r="Q7" s="76"/>
+      <c r="R7" s="85" t="str" cm="1">
         <f t="array" ref="R7:R15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="S7" s="100">
+      <c r="S7" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R7)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="81"/>
-      <c r="U7" s="89" t="str" cm="1">
+      <c r="T7" s="76"/>
+      <c r="U7" s="84" t="str" cm="1">
         <f t="array" ref="U7:U15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="V7" s="98">
+      <c r="V7" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U7)</f>
         <v>0</v>
       </c>
-      <c r="W7" s="81"/>
-      <c r="X7" s="90" t="str" cm="1">
+      <c r="W7" s="76"/>
+      <c r="X7" s="85" t="str" cm="1">
         <f t="array" ref="X7:X15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="Y7" s="100">
+      <c r="Y7" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X7)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="89" t="str" cm="1">
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="84" t="str" cm="1">
         <f t="array" ref="AA7:AA15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="AB7" s="98">
+      <c r="AB7" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA7)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="90" t="str" cm="1">
+      <c r="AC7" s="76"/>
+      <c r="AD7" s="85" t="str" cm="1">
         <f t="array" ref="AD7:AD15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="AE7" s="100">
+      <c r="AE7" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD7)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="89" t="str" cm="1">
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="84" t="str" cm="1">
         <f t="array" ref="AG7:AG15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="AH7" s="98">
+      <c r="AH7" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG7)</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="81"/>
-      <c r="AJ7" s="90" t="str" cm="1">
+      <c r="AI7" s="76"/>
+      <c r="AJ7" s="85" t="str" cm="1">
         <f t="array" ref="AJ7:AJ15">Expenses</f>
         <v>Bills</v>
       </c>
-      <c r="AK7" s="100">
+      <c r="AK7" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="91" t="s">
+      <c r="A8" s="110"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="76"/>
+      <c r="F8" s="85" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="G8" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="76"/>
+      <c r="I8" s="84" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="J8" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="76"/>
+      <c r="L8" s="85" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="M8" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="76"/>
+      <c r="O8" s="84" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="P8" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="85" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="S8" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R8)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="76"/>
+      <c r="U8" s="84" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="V8" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U8)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="76"/>
+      <c r="X8" s="85" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="Y8" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="84" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="AB8" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="85" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="AE8" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD8)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="84" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="AH8" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG8)</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="85" t="str">
+        <v>Car maintenance</v>
+      </c>
+      <c r="AK8" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="110"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C8)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="90" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="G8" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F8)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="81"/>
-      <c r="I8" s="89" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="J8" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I8)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="81"/>
-      <c r="L8" s="90" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="M8" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L8)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="81"/>
-      <c r="O8" s="89" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="P8" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O8)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="90" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="S8" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R8)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="81"/>
-      <c r="U8" s="89" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="V8" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U8)</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="81"/>
-      <c r="X8" s="90" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="Y8" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X8)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="89" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="AB8" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA8)</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="90" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="AE8" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD8)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="89" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="AH8" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG8)</f>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="81"/>
-      <c r="AJ8" s="90" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="AK8" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="92" t="s">
+      <c r="D9" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="76"/>
+      <c r="F9" s="85" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="G9" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="76"/>
+      <c r="I9" s="84" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="J9" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="76"/>
+      <c r="L9" s="85" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="M9" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L9)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="76"/>
+      <c r="O9" s="84" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="P9" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="85" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="S9" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R9)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="76"/>
+      <c r="U9" s="84" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="V9" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U9)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="76"/>
+      <c r="X9" s="85" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="Y9" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X9)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="84" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="AB9" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA9)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="85" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="AE9" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD9)</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="84" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="AH9" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG9)</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="85" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="AK9" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="110"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="90" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="G9" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F9)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="89" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="J9" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I9)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="81"/>
-      <c r="L9" s="90" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="M9" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L9)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="81"/>
-      <c r="O9" s="89" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="P9" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O9)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="90" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="S9" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R9)</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="81"/>
-      <c r="U9" s="89" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="V9" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U9)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="81"/>
-      <c r="X9" s="90" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="Y9" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X9)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="89" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="AB9" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA9)</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="90" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="AE9" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD9)</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="81"/>
-      <c r="AG9" s="89" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="AH9" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG9)</f>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="81"/>
-      <c r="AJ9" s="90" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="AK9" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="91" t="s">
+      <c r="D10" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="76"/>
+      <c r="F10" s="85" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="G10" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="76"/>
+      <c r="I10" s="84" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="J10" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="76"/>
+      <c r="L10" s="85" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="M10" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L10)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="76"/>
+      <c r="O10" s="84" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="P10" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="85" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="S10" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R10)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="76"/>
+      <c r="U10" s="84" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="V10" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U10)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="76"/>
+      <c r="X10" s="85" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="Y10" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="84" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="AB10" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="85" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="AE10" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="84" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="AH10" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="85" t="str">
+        <v>Eletron n' games</v>
+      </c>
+      <c r="AK10" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="110"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C10)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="90" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="G10" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F10)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="81"/>
-      <c r="I10" s="89" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="J10" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I10)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="81"/>
-      <c r="L10" s="90" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="M10" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L10)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="81"/>
-      <c r="O10" s="89" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="P10" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="90" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="S10" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R10)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="81"/>
-      <c r="U10" s="89" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="V10" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U10)</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="81"/>
-      <c r="X10" s="90" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="Y10" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="89" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="AB10" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA10)</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="90" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="AE10" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD10)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="89" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="AH10" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG10)</f>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="81"/>
-      <c r="AJ10" s="90" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="AK10" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="89" t="s">
+      <c r="D11" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="76"/>
+      <c r="F11" s="85" t="str">
+        <v>Food</v>
+      </c>
+      <c r="G11" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="84" t="str">
+        <v>Food</v>
+      </c>
+      <c r="J11" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="76"/>
+      <c r="L11" s="85" t="str">
+        <v>Food</v>
+      </c>
+      <c r="M11" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="76"/>
+      <c r="O11" s="84" t="str">
+        <v>Food</v>
+      </c>
+      <c r="P11" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="85" t="str">
+        <v>Food</v>
+      </c>
+      <c r="S11" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R11)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="76"/>
+      <c r="U11" s="84" t="str">
+        <v>Food</v>
+      </c>
+      <c r="V11" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U11)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="76"/>
+      <c r="X11" s="85" t="str">
+        <v>Food</v>
+      </c>
+      <c r="Y11" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X11)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="84" t="str">
+        <v>Food</v>
+      </c>
+      <c r="AB11" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="85" t="str">
+        <v>Food</v>
+      </c>
+      <c r="AE11" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD11)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="84" t="str">
+        <v>Food</v>
+      </c>
+      <c r="AH11" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG11)</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="76"/>
+      <c r="AJ11" s="85" t="str">
+        <v>Food</v>
+      </c>
+      <c r="AK11" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="110"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="90" t="str">
-        <v>Food</v>
-      </c>
-      <c r="G11" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="89" t="str">
-        <v>Food</v>
-      </c>
-      <c r="J11" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I11)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="90" t="str">
-        <v>Food</v>
-      </c>
-      <c r="M11" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L11)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="81"/>
-      <c r="O11" s="89" t="str">
-        <v>Food</v>
-      </c>
-      <c r="P11" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="90" t="str">
-        <v>Food</v>
-      </c>
-      <c r="S11" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R11)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="81"/>
-      <c r="U11" s="89" t="str">
-        <v>Food</v>
-      </c>
-      <c r="V11" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U11)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="81"/>
-      <c r="X11" s="90" t="str">
-        <v>Food</v>
-      </c>
-      <c r="Y11" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="89" t="str">
-        <v>Food</v>
-      </c>
-      <c r="AB11" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="90" t="str">
-        <v>Food</v>
-      </c>
-      <c r="AE11" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="89" t="str">
-        <v>Food</v>
-      </c>
-      <c r="AH11" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG11)</f>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="81"/>
-      <c r="AJ11" s="90" t="str">
-        <v>Food</v>
-      </c>
-      <c r="AK11" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="92" t="s">
+      <c r="D12" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="76"/>
+      <c r="F12" s="85" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="G12" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="76"/>
+      <c r="I12" s="84" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="J12" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="76"/>
+      <c r="L12" s="85" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="M12" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="76"/>
+      <c r="O12" s="84" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="P12" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="85" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="S12" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R12)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="76"/>
+      <c r="U12" s="84" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="V12" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U12)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="76"/>
+      <c r="X12" s="85" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="Y12" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X12)</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="84" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="AB12" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="85" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="AE12" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD12)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="84" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="AH12" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG12)</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="85" t="str">
+        <v>Gas</v>
+      </c>
+      <c r="AK12" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="110"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C12)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="90" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="G12" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F12)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="89" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="J12" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="90" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="M12" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L12)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="81"/>
-      <c r="O12" s="89" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="P12" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="90" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="S12" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R12)</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="81"/>
-      <c r="U12" s="89" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="V12" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U12)</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="81"/>
-      <c r="X12" s="90" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="Y12" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X12)</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="89" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="AB12" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA12)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="90" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="AE12" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD12)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="81"/>
-      <c r="AG12" s="89" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="AH12" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG12)</f>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="81"/>
-      <c r="AJ12" s="90" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="AK12" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="91" t="s">
+      <c r="D13" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="76"/>
+      <c r="F13" s="85" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="G13" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="76"/>
+      <c r="I13" s="84" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="J13" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="76"/>
+      <c r="L13" s="85" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="M13" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L13)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="76"/>
+      <c r="O13" s="84" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="P13" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="85" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="S13" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R13)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="76"/>
+      <c r="U13" s="84" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="V13" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U13)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="76"/>
+      <c r="X13" s="85" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="Y13" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="84" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="AB13" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA13)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="85" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="AE13" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD13)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="84" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="AH13" s="93">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="85" t="str">
+        <v>Hang out</v>
+      </c>
+      <c r="AK13" s="95">
+        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="110"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C13)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="90" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="G13" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F13)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="89" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="J13" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I13)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="81"/>
-      <c r="L13" s="90" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="M13" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L13)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="81"/>
-      <c r="O13" s="89" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="P13" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O13)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="90" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="S13" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R13)</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="81"/>
-      <c r="U13" s="89" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="V13" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U13)</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="81"/>
-      <c r="X13" s="90" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="Y13" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X13)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="89" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="AB13" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA13)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="90" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="AE13" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD13)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="81"/>
-      <c r="AG13" s="89" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="AH13" s="98">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG13)</f>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="90" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="AK13" s="100">
-        <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="98">
+      <c r="D14" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="90" t="str">
+      <c r="E14" s="76"/>
+      <c r="F14" s="85" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="G14" s="100">
+      <c r="G14" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="89" t="str">
+      <c r="H14" s="76"/>
+      <c r="I14" s="84" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="J14" s="98">
+      <c r="J14" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I14)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="81"/>
-      <c r="L14" s="90" t="str">
+      <c r="K14" s="76"/>
+      <c r="L14" s="85" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="M14" s="100">
+      <c r="M14" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="81"/>
-      <c r="O14" s="89" t="str">
+      <c r="N14" s="76"/>
+      <c r="O14" s="84" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="P14" s="98">
+      <c r="P14" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O14)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="90" t="str">
+      <c r="Q14" s="76"/>
+      <c r="R14" s="85" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="S14" s="100">
+      <c r="S14" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R14)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="81"/>
-      <c r="U14" s="89" t="str">
+      <c r="T14" s="76"/>
+      <c r="U14" s="84" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="V14" s="98">
+      <c r="V14" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U14)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="81"/>
-      <c r="X14" s="90" t="str">
+      <c r="W14" s="76"/>
+      <c r="X14" s="85" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="Y14" s="100">
+      <c r="Y14" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X14)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="89" t="str">
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="84" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="AB14" s="98">
+      <c r="AB14" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA14)</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="90" t="str">
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="85" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="AE14" s="100">
+      <c r="AE14" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD14)</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="81"/>
-      <c r="AG14" s="89" t="str">
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="84" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="AH14" s="98">
+      <c r="AH14" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG14)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="81"/>
-      <c r="AJ14" s="90" t="str">
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="85" t="str">
         <v>Healthcare</v>
       </c>
-      <c r="AK14" s="100">
+      <c r="AK14" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="17.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="98">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!D$2,Tabela1[Category],'Map - Expenses'!C15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="90" t="str">
+      <c r="E15" s="76"/>
+      <c r="F15" s="85" t="str">
         <v>General expen.</v>
       </c>
-      <c r="G15" s="100">
+      <c r="G15" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!G$2,Tabela1[Category],'Map - Expenses'!F15)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="89" t="str">
+      <c r="H15" s="76"/>
+      <c r="I15" s="84" t="str">
         <v>General expen.</v>
       </c>
-      <c r="J15" s="98">
+      <c r="J15" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!J$2,Tabela1[Category],'Map - Expenses'!I15)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="81"/>
-      <c r="L15" s="90" t="str">
+      <c r="K15" s="76"/>
+      <c r="L15" s="85" t="str">
         <v>General expen.</v>
       </c>
-      <c r="M15" s="100">
+      <c r="M15" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!M$2,Tabela1[Category],'Map - Expenses'!L15)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="81"/>
-      <c r="O15" s="89" t="str">
+      <c r="N15" s="76"/>
+      <c r="O15" s="84" t="str">
         <v>General expen.</v>
       </c>
-      <c r="P15" s="98">
+      <c r="P15" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!P$2,Tabela1[Category],'Map - Expenses'!O15)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="90" t="str">
+      <c r="Q15" s="76"/>
+      <c r="R15" s="85" t="str">
         <v>General expen.</v>
       </c>
-      <c r="S15" s="100">
+      <c r="S15" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!S$2,Tabela1[Category],'Map - Expenses'!R15)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="81"/>
-      <c r="U15" s="89" t="str">
+      <c r="T15" s="76"/>
+      <c r="U15" s="84" t="str">
         <v>General expen.</v>
       </c>
-      <c r="V15" s="98">
+      <c r="V15" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!V$2,Tabela1[Category],'Map - Expenses'!U15)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="81"/>
-      <c r="X15" s="90" t="str">
+      <c r="W15" s="76"/>
+      <c r="X15" s="85" t="str">
         <v>General expen.</v>
       </c>
-      <c r="Y15" s="100">
+      <c r="Y15" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!Y$2,Tabela1[Category],'Map - Expenses'!X15)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="89" t="str">
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="84" t="str">
         <v>General expen.</v>
       </c>
-      <c r="AB15" s="98">
+      <c r="AB15" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AB$2,Tabela1[Category],'Map - Expenses'!AA15)</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="90" t="str">
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="85" t="str">
         <v>General expen.</v>
       </c>
-      <c r="AE15" s="100">
+      <c r="AE15" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AE$2,Tabela1[Category],'Map - Expenses'!AD15)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="89" t="str">
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="84" t="str">
         <v>General expen.</v>
       </c>
-      <c r="AH15" s="98">
+      <c r="AH15" s="93">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AH$2,Tabela1[Category],'Map - Expenses'!AG15)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="90" t="str">
+      <c r="AI15" s="76"/>
+      <c r="AJ15" s="85" t="str">
         <v>General expen.</v>
       </c>
-      <c r="AK15" s="100">
+      <c r="AK15" s="95">
         <f>SUMIFS(Tabela1[Amount],Tabela1[Month],'Map - Expenses'!AK$2,Tabela1[Category],'Map - Expenses'!AJ15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="81"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="81"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="96"/>
-      <c r="AI16" s="81"/>
-      <c r="AJ16" s="94"/>
-      <c r="AK16" s="95"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="89"/>
+      <c r="AK16" s="90"/>
     </row>
     <row r="17" spans="1:37" s="20" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="113">
+      <c r="A17" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="108">
         <f>SUM(D7:D15)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="114">
+      <c r="D17" s="108"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="109">
         <f>SUM(G7:G15)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="114"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="113">
+      <c r="G17" s="109"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="108">
         <f>SUM(J7:J15)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="113"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="114">
+      <c r="J17" s="108"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="109">
         <f>SUM(M7:M15)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="114"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="113">
+      <c r="M17" s="109"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="108">
         <f>SUM(P7:P15)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="114">
+      <c r="P17" s="108"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="109">
         <f>SUM(S7:S15)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="114"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="113">
+      <c r="S17" s="109"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="108">
         <f>SUM(V7:V15)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="113"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="114">
+      <c r="V17" s="108"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="109">
         <f>SUM(Y7:Y15)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="114"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="113">
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="108">
         <f>SUM(AB7:AB15)</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="113"/>
-      <c r="AC17" s="97"/>
-      <c r="AD17" s="114">
+      <c r="AB17" s="108"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="109">
         <f>SUM(AE7:AE15)</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="114"/>
-      <c r="AF17" s="97"/>
-      <c r="AG17" s="113">
+      <c r="AE17" s="109"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="108">
         <f>SUM(AH7:AH15)</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="113"/>
-      <c r="AI17" s="97"/>
-      <c r="AJ17" s="114">
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="92"/>
+      <c r="AJ17" s="109">
         <f>SUM(AK7:AK15)</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="114"/>
+      <c r="AK17" s="109"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D15">
@@ -11992,151 +12033,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D4BE22-9270-4C08-9087-9C4758594776}">
-  <sheetPr codeName="Planilha7">
-    <tabColor theme="1"/>
-  </sheetPr>
-  <dimension ref="B2:F12"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="57"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="str" cm="1">
-        <f t="array" ref="E4:E12">Expenses</f>
-        <v>Bills</v>
-      </c>
-      <c r="F4" s="61" cm="1">
-        <f t="array" ref="F4:F12">_xlfn._xlws.FILTER('Map - Expenses'!D7:AK15,'Map - Expenses'!D2:AK2=B3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="62">
-        <f>SUM(F4:F12)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <v>Car maintenance</v>
-      </c>
-      <c r="F5" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="F6" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="111">
-        <f>VLOOKUP(B3,'Graphic - Annual'!A3:I14,9,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <v>Eletron n' games</v>
-      </c>
-      <c r="F7" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="2" t="str">
-        <v>Food</v>
-      </c>
-      <c r="F8" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="2" t="str">
-        <v>Gas</v>
-      </c>
-      <c r="F9" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="2" t="str">
-        <v>Hang out</v>
-      </c>
-      <c r="F10" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="2" t="str">
-        <v>Healthcare</v>
-      </c>
-      <c r="F11" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="str">
-        <v>General expen.</v>
-      </c>
-      <c r="F12" s="61">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E5E869D-3B89-4D68-901E-617A6924546A}">
-          <x14:formula1>
-            <xm:f>'Map - Net Salary'!$B$2:$M$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD330F4-3FAE-447F-BF05-82EFBCBD7BD0}">
   <sheetPr codeName="Planilha6">
     <tabColor theme="1"/>
@@ -12170,430 +12066,430 @@
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="117"/>
-      <c r="P2" s="52"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="112"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="63">
+      <c r="C3" s="58">
         <f>'Map - Net Salary'!B17</f>
         <v>0</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="59">
         <f>SUM('Map - Net Salary'!B14:B15)</f>
         <v>0</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="65">
+      <c r="F3" s="60">
         <f>SUM('Map - Expenses'!C17:C17)</f>
         <v>0</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="63">
+      <c r="H3" s="58">
         <f>I3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="66">
+      <c r="I3" s="61">
         <f>'Map - Expenses'!D4</f>
         <v>0</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="64">
+      <c r="K3" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="59">
         <f>SUM('Map - Net Salary'!B4:M6)</f>
         <v>0</v>
       </c>
       <c r="M3" s="10"/>
-      <c r="N3" s="56" t="str">
+      <c r="N3" s="55" t="str">
         <f>'Map - Expenses'!C7</f>
         <v>Bills</v>
       </c>
-      <c r="O3" s="67">
+      <c r="O3" s="62">
         <f>SUM('Map - Expenses'!D7,'Map - Expenses'!G7,'Map - Expenses'!J7,'Map - Expenses'!M7,'Map - Expenses'!P7,'Map - Expenses'!S7,'Map - Expenses'!V7,'Map - Expenses'!Y7,'Map - Expenses'!AB7,'Map - Expenses'!AE7,'Map - Expenses'!AH7,'Map - Expenses'!AK7)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="52"/>
+      <c r="P3" s="51"/>
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="63">
+      <c r="C4" s="58">
         <f>'Map - Net Salary'!C17</f>
         <v>0</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="59">
         <f>SUM('Map - Net Salary'!C14:C15)</f>
         <v>0</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="65">
+      <c r="F4" s="60">
         <f>SUM('Map - Expenses'!F17:G17)</f>
         <v>0</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="63">
+      <c r="H4" s="58">
         <f t="shared" ref="H4:H14" si="0">I4-I3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="61">
         <f>'Map - Expenses'!G4</f>
         <v>0</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="64">
+      <c r="K4" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="59">
         <f>SUM('Map - Net Salary'!B9:M11)</f>
         <v>0</v>
       </c>
       <c r="M4" s="10"/>
-      <c r="N4" s="56" t="str">
+      <c r="N4" s="55" t="str">
         <f>'Map - Expenses'!C8</f>
         <v>Car maintenance</v>
       </c>
-      <c r="O4" s="67">
+      <c r="O4" s="62">
         <f>SUM('Map - Expenses'!D8,'Map - Expenses'!G8,'Map - Expenses'!J8,'Map - Expenses'!M8,'Map - Expenses'!P8,'Map - Expenses'!S8,'Map - Expenses'!V8,'Map - Expenses'!Y8,'Map - Expenses'!AB8,'Map - Expenses'!AE8,'Map - Expenses'!AH8,'Map - Expenses'!AK8)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="52"/>
+      <c r="P4" s="51"/>
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="63">
+      <c r="C5" s="58">
         <f>'Map - Net Salary'!D17</f>
         <v>0</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="59">
         <f>SUM('Map - Net Salary'!D14:D15)</f>
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="65">
+      <c r="F5" s="60">
         <f>SUM('Map - Expenses'!I17:J17)</f>
         <v>0</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="63">
+      <c r="H5" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="61">
         <f>'Map - Expenses'!J4</f>
         <v>0</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="64">
+      <c r="K5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="59">
         <f>SUM('Map - Net Salary'!B4:M6)-SUM('Map - Net Salary'!B13:M15)-SUM('Map - Net Salary'!B9:M11)</f>
         <v>0</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="56" t="str">
+      <c r="N5" s="55" t="str">
         <f>'Map - Expenses'!C9</f>
         <v>Clothing</v>
       </c>
-      <c r="O5" s="67">
+      <c r="O5" s="62">
         <f>SUM('Map - Expenses'!D9,'Map - Expenses'!G9,'Map - Expenses'!J9,'Map - Expenses'!M9,'Map - Expenses'!P9,'Map - Expenses'!S9,'Map - Expenses'!V9,'Map - Expenses'!Y9,'Map - Expenses'!AB9,'Map - Expenses'!AE9,'Map - Expenses'!AH9,'Map - Expenses'!AK9)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="52"/>
+      <c r="P5" s="51"/>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="63">
+      <c r="C6" s="58">
         <f>'Map - Net Salary'!E17</f>
         <v>0</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="59">
         <f>SUM('Map - Net Salary'!E14:E15)</f>
         <v>0</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="65">
+      <c r="F6" s="60">
         <f>SUM('Map - Expenses'!L17:M17)</f>
         <v>0</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="63">
+      <c r="H6" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="61">
         <f>'Map - Expenses'!M4</f>
         <v>0</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="64">
+      <c r="K6" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="59">
         <f>SUM('Map - Expenses'!D7:D14,'Map - Expenses'!G7:G14,'Map - Expenses'!J7:J14,'Map - Expenses'!M7:M14,'Map - Expenses'!P7:P14,'Map - Expenses'!S7:S14,'Map - Expenses'!V7:V14,'Map - Expenses'!Y7:Y14,'Map - Expenses'!AB7:AB14,'Map - Expenses'!AE7:AE14,'Map - Expenses'!AH7:AH14,'Map - Expenses'!AK7:AK14)</f>
         <v>0</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="56" t="str">
+      <c r="N6" s="55" t="str">
         <f>'Map - Expenses'!C10</f>
         <v>Eletron n' games</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="62">
         <f>SUM('Map - Expenses'!D10,'Map - Expenses'!G10,'Map - Expenses'!J10,'Map - Expenses'!M10,'Map - Expenses'!P10,'Map - Expenses'!S10,'Map - Expenses'!V10,'Map - Expenses'!Y10,'Map - Expenses'!AB10,'Map - Expenses'!AE10,'Map - Expenses'!AH10,'Map - Expenses'!AK10)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="52"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="63">
+      <c r="C7" s="58">
         <f>'Map - Net Salary'!F17</f>
         <v>0</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="59">
         <f>SUM('Map - Net Salary'!F14:F15)</f>
         <v>0</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="65">
+      <c r="F7" s="60">
         <f>SUM('Map - Expenses'!O17:P17)</f>
         <v>0</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="63">
+      <c r="H7" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="61">
         <f>'Map - Expenses'!P4</f>
         <v>0</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="64">
+      <c r="K7" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="59">
         <f>SUM('Map - Expenses'!D15:D15,'Map - Expenses'!G15:G15,'Map - Expenses'!J15:J15,'Map - Expenses'!M15:M15,'Map - Expenses'!P15:P15,'Map - Expenses'!S15:S15,'Map - Expenses'!V15:V15,'Map - Expenses'!Y15:Y15,'Map - Expenses'!AB15:AB15,'Map - Expenses'!AE15:AE15,'Map - Expenses'!AH15:AH15,'Map - Expenses'!AK15:AK15)</f>
         <v>0</v>
       </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="56" t="str">
+      <c r="N7" s="55" t="str">
         <f>'Map - Expenses'!C11</f>
         <v>Food</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="62">
         <f>SUM('Map - Expenses'!D11,'Map - Expenses'!G11,'Map - Expenses'!J11,'Map - Expenses'!M11,'Map - Expenses'!P11,'Map - Expenses'!S11,'Map - Expenses'!V11,'Map - Expenses'!Y11,'Map - Expenses'!AB11,'Map - Expenses'!AE11,'Map - Expenses'!AH11,'Map - Expenses'!AK11)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="52"/>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="63">
+      <c r="C8" s="58">
         <f>'Map - Net Salary'!G17</f>
         <v>0</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="59">
         <f>SUM('Map - Net Salary'!G14:G15)</f>
         <v>0</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="65">
+      <c r="F8" s="60">
         <f>SUM('Map - Expenses'!R17:S17)</f>
         <v>0</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="63">
+      <c r="H8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="61">
         <f>'Map - Expenses'!S4</f>
         <v>0</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="64">
+      <c r="K8" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="59">
         <f>SUM(L6:L7)</f>
         <v>0</v>
       </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="56" t="str">
+      <c r="N8" s="55" t="str">
         <f>'Map - Expenses'!C12</f>
         <v>Gas</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="62">
         <f>SUM('Map - Expenses'!D12,'Map - Expenses'!G12,'Map - Expenses'!J12,'Map - Expenses'!M12,'Map - Expenses'!P12,'Map - Expenses'!S12,'Map - Expenses'!V12,'Map - Expenses'!Y12,'Map - Expenses'!AB12,'Map - Expenses'!AE12,'Map - Expenses'!AH12,'Map - Expenses'!AK12)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="52"/>
+      <c r="P8" s="51"/>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="63">
+      <c r="C9" s="58">
         <f>'Map - Net Salary'!H17</f>
         <v>0</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="59">
         <f>SUM('Map - Net Salary'!H14:H15)</f>
         <v>0</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="65">
+      <c r="F9" s="60">
         <f>SUM('Map - Expenses'!U17:V17)</f>
         <v>0</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="63">
+      <c r="H9" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="61">
         <f>'Map - Expenses'!V4</f>
         <v>0</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="66">
+      <c r="K9" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="61">
         <f>'Map - Expenses'!AK4</f>
         <v>0</v>
       </c>
       <c r="M9" s="11"/>
-      <c r="N9" s="56" t="str">
+      <c r="N9" s="55" t="str">
         <f>'Map - Expenses'!C13</f>
         <v>Hang out</v>
       </c>
-      <c r="O9" s="67">
+      <c r="O9" s="62">
         <f>SUM('Map - Expenses'!D13,'Map - Expenses'!G13,'Map - Expenses'!J13,'Map - Expenses'!M13,'Map - Expenses'!P13,'Map - Expenses'!S13,'Map - Expenses'!V13,'Map - Expenses'!Y13,'Map - Expenses'!AB13,'Map - Expenses'!AE13,'Map - Expenses'!AH13,'Map - Expenses'!AK13)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="52"/>
+      <c r="P9" s="51"/>
     </row>
     <row r="10" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="63">
+      <c r="C10" s="58">
         <f>'Map - Net Salary'!I17</f>
         <v>0</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="59">
         <f>SUM('Map - Net Salary'!I14:I15)</f>
         <v>0</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="65">
+      <c r="F10" s="60">
         <f>SUM('Map - Expenses'!X17:Y17)</f>
         <v>0</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="63">
+      <c r="H10" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="66">
+      <c r="I10" s="61">
         <f>'Map - Expenses'!Y4</f>
         <v>0</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="68">
+      <c r="K10" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="63">
         <f>'Graphic - Annual'!D15</f>
         <v>0</v>
       </c>
       <c r="M10" s="11"/>
-      <c r="N10" s="56" t="str">
+      <c r="N10" s="55" t="str">
         <f>'Map - Expenses'!C14</f>
         <v>Healthcare</v>
       </c>
-      <c r="O10" s="67">
+      <c r="O10" s="62">
         <f>SUM('Map - Expenses'!D14,'Map - Expenses'!G14,'Map - Expenses'!J14,'Map - Expenses'!M14,'Map - Expenses'!P14,'Map - Expenses'!S14,'Map - Expenses'!V14,'Map - Expenses'!Y14,'Map - Expenses'!AB14,'Map - Expenses'!AE14,'Map - Expenses'!AH14,'Map - Expenses'!AK14)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="52"/>
+      <c r="P10" s="51"/>
     </row>
     <row r="11" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="63">
+      <c r="C11" s="58">
         <f>'Map - Net Salary'!J17</f>
         <v>0</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="59">
         <f>SUM('Map - Net Salary'!J14:J15)</f>
         <v>0</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="65">
+      <c r="F11" s="60">
         <f>SUM('Map - Expenses'!AA17:AB17)</f>
         <v>0</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="63">
+      <c r="H11" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="66">
+      <c r="I11" s="61">
         <f>'Map - Expenses'!AB4</f>
         <v>0</v>
       </c>
@@ -12601,169 +12497,169 @@
       <c r="K11" s="3"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="69">
+      <c r="N11" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="64">
         <f>SUM(O3:O10)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="52"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="1:16" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="63">
+      <c r="C12" s="58">
         <f>'Map - Net Salary'!K17</f>
         <v>0</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="59">
         <f>SUM('Map - Net Salary'!K14:K15)</f>
         <v>0</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="65">
+      <c r="F12" s="60">
         <f>SUM('Map - Expenses'!AD17:AE17)</f>
         <v>0</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="63">
+      <c r="H12" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="61">
         <f>'Map - Expenses'!AE4</f>
         <v>0</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="53"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="52"/>
     </row>
     <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="63">
+      <c r="C13" s="58">
         <f>'Map - Net Salary'!L17</f>
         <v>0</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="59">
         <f>SUM('Map - Net Salary'!L14:L15)</f>
         <v>0</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="65">
+      <c r="F13" s="60">
         <f>SUM('Map - Expenses'!AG17:AH17)</f>
         <v>0</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="63">
+      <c r="H13" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="66">
+      <c r="I13" s="61">
         <f>'Map - Expenses'!AH4</f>
         <v>0</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="53"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="52"/>
     </row>
     <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="63">
+      <c r="C14" s="58">
         <f>'Map - Net Salary'!M17</f>
         <v>0</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="59">
         <f>SUM('Map - Net Salary'!M14:M15)</f>
         <v>0</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="65">
+      <c r="F14" s="60">
         <f>SUM('Map - Expenses'!AJ17:AK17)</f>
         <v>0</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="63">
+      <c r="H14" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="66">
+      <c r="I14" s="61">
         <f>'Map - Expenses'!AK4</f>
         <v>0</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="70">
+      <c r="C15" s="65">
         <f>SUM(C3:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="59">
         <f>SUM(D3:D14)</f>
         <v>0</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="65">
+      <c r="F15" s="60">
         <f>SUM(F3:F14)</f>
         <v>0</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="68">
+        <v>43</v>
+      </c>
+      <c r="I15" s="63">
         <f>'Graphic - Annual'!L9</f>
         <v>0</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="70">
+      <c r="C16" s="65">
         <f>AVERAGE(C3:C14)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="59">
         <f>AVERAGE(D3:D14)</f>
         <v>0</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="72">
+      <c r="F16" s="67">
         <f>AVERAGE(F3:F14)</f>
         <v>0</v>
       </c>
@@ -12771,28 +12667,28 @@
       <c r="H16" s="8"/>
       <c r="I16" s="13"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
     </row>
     <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="63">
+      <c r="C17" s="58">
         <f>SUM(C3:C8)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="61">
         <f>SUM(D3:D8)</f>
         <v>0</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="73">
+      <c r="F17" s="68">
         <f>SUM(F3:F8)</f>
         <v>0</v>
       </c>
@@ -12800,28 +12696,28 @@
       <c r="H17" s="10"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
     </row>
     <row r="18" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="71">
+      <c r="C18" s="66">
         <f>SUM($C$9:$C$14)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="63">
         <f>SUM($D$9:$D$14)</f>
         <v>0</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="74">
+      <c r="F18" s="69">
         <f>SUM($F$9:$F$14)</f>
         <v>0</v>
       </c>
@@ -12829,12 +12725,12 @@
       <c r="H18" s="8"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
     </row>
     <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -12847,48 +12743,48 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
     </row>
     <row r="26" spans="1:16" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:16" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.25"/>
